--- a/Result_sheet.xlsx
+++ b/Result_sheet.xlsx
@@ -362,7 +362,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="13">
   <si>
     <t>48 CITIES</t>
   </si>
@@ -451,12 +451,15 @@
       <t xml:space="preserve"> Simulated Annealing</t>
     </r>
   </si>
+  <si>
+    <t>Average</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +524,14 @@
     <font>
       <b/>
       <sz val="13"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -613,7 +624,7 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3"/>
@@ -639,6 +650,10 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="20% - Accent1" xfId="4" builtinId="30"/>
@@ -660,136 +675,2898 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Line</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Graph showing fitness for the 4 different Algorithms for 48 cities </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Simulated Annealing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>('48'!$D$53,'48'!$G$53,'48'!$J$53,'48'!$M$53,'48'!$P$53,'48'!$S$53,'48'!$V$53,'48'!$Y$53,'48'!$AB$53,'48'!$AE$53)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('48'!$C$65,'48'!$F$65,'48'!$I$65,'48'!$L$65,'48'!$O$65,'48'!$R$65,'48'!$U$65,'48'!$X$65,'48'!$AA$65,'48'!$AD$65)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>40740.680117002281</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>42495.550132819422</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>42371.756863898794</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>39534.564988198043</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>39193.875388758395</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>38023.602570881136</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>38458.926283995483</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>39066.91620513508</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37502.696591863489</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>36552.108284463764</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-37C0-4E80-930F-55AEF12F931D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Stochastic Hill Climbing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>('48'!$C$49,'48'!$F$49,'48'!$I$49,'48'!$L$49,'48'!$O$49,'48'!$R$49,'48'!$U$49,'48'!$X$49,'48'!$AA$49,'48'!$AD$49)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>47680.164899101728</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>44837.436550754748</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44339.844799522005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>43439.582744091036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>44402.643189703471</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43768.613270000955</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>44896.538901347478</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>44642.470277928034</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45015.386576053352</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45005.592412111029</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-37C0-4E80-930F-55AEF12F931D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Random Restart Hill Climbing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>('48'!$C$33,'48'!$F$33,'48'!$I$33,'48'!$L$33,'48'!$O$33,'48'!$R$33,'48'!$U$33,'48'!$X$33,'48'!$AA$33,'48'!$AD$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>45949.797477521897</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46675.488346668302</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>44212.860590590746</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>44676.062213810263</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>43928.29929568238</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>43860.212419729229</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>45214.886952463465</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>45646.430732534158</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>45314.593443100501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>44889.323928779813</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-37C0-4E80-930F-55AEF12F931D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Random Mutation Hill Climbing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>('48'!$C$17,'48'!$F$17,'48'!$I$17,'48'!$L$17,'48'!$O$17,'48'!$R$17,'48'!$U$17,'48'!$X$17,'48'!$AA$17,'48'!$AD$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>48604.81815781496</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>47359.561565574943</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>47692.670660948803</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>47755.911010290234</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>46673.873574000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>50051.412713514968</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47870.426988658422</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46487.498944668492</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>47303.808572816313</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>46179.717035531285</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-37C0-4E80-930F-55AEF12F931D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="684880752"/>
+        <c:axId val="693062640"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="684880752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Iterations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                    <a:alpha val="99000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="693062640"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="693062640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="51000"/>
+          <c:min val="35000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average Fitness</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684880752"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Line Graph showing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> Efficiency against Optimal Tour for 4 different Algorthms for 48 Cities</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Simulated Annealing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>('48'!$D$53,'48'!$G$53,'48'!$J$53,'48'!$M$53,'48'!$P$53,'48'!$S$53,'48'!$V$53,'48'!$Y$53,'48'!$AB$53,'48'!$AE$53)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('48'!$D$65,'48'!$G$65,'48'!$J$65,'48'!$M$65,'48'!$P$65,'48'!$S$65,'48'!$V$65,'48'!$Y$65,'48'!$AB$65,'48'!$AE$65)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>82.522000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.673000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>79.460000000000008</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.830999999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.763000000000005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.277000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>87.38</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>85.991</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>89.47799999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91.788000000000011</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-AFC9-48A1-92C4-BF342A0AE096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Stochastic Hill Climbing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>('48'!$D$49,'48'!$G$49,'48'!$J$49,'48'!$M$49,'48'!$P$49,'48'!$S$49,'48'!$V$49,'48'!$Y$49,'48'!$AB$49,'48'!$AE$49)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>70.60799999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.147000000000006</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.771000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.379000000000005</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.064999999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>76.948999999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>75.018000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>75.298000000000016</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.96899999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.751000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AFC9-48A1-92C4-BF342A0AE096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Random Restart Hill Climbing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>('48'!$D$33,'48'!$G$33,'48'!$J$33,'48'!$M$33,'48'!$P$33,'48'!$S$33,'48'!$V$33,'48'!$Y$33,'48'!$AB$33,'48'!$AE$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>73.371000000000009</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.174999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>75.289999999999992</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>76.514999999999986</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.415999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.456999999999994</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>73.620999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>74.108999999999995</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>74.89200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-AFC9-48A1-92C4-BF342A0AE096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Random Mutation Hill Climbing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>('48'!$D$17,'48'!$G$17,'48'!$J$17,'48'!$M$17,'48'!$P$17,'48'!$S$17,'48'!$V$17,'48'!$Y$17,'48'!$AB$17,'48'!$AE$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>69.277000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71.546999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.747</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.712999999999994</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>72.14500000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>67.166000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>71.042000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>72.292999999999978</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>71.097999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>73.269000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-AFC9-48A1-92C4-BF342A0AE096}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="847628016"/>
+        <c:axId val="853267280"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="847628016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-GB" baseline="0"/>
+                  <a:t> of Iterations</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-GB"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="853267280"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="853267280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="100"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average Efficiecny</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="847628016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>32658</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>44753</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>270934</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>33866</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{503FA7D1-57FE-4638-BD96-B4A021307AD1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>440266</xdr:colOff>
+      <xdr:row>65</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>541865</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66597250-939C-4B73-BE63-97AF893CAA0E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_40000" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_80000" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_90000" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_10000" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_20000" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_20000" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_70000" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_50000" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_70000" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_80000" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_60001" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_20000" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_10000" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_60000" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_10000" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_100000" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_40000" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_100000" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_10000" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_70000" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_60000" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_30000" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_80000" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_70000" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_50000" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_60000" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_90000" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_90000" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_40000" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_100000" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_30000" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_80000" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_60000" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_50000" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_40000" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_30000" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_20000" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_10000" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_100000" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_90000" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_90000" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_80000" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_70000" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_60001" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_60000" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_40000" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_30000" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_20000" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_10000" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_100000" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_80000" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_90000" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_80000" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_70000" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_60000" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_70000" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_60000" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_50000" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_40000" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_30000" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_20000" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1089,10 +3866,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AL64"/>
+  <dimension ref="A1:AL65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD68" sqref="AD68:AF71"/>
+    <sheetView tabSelected="1" topLeftCell="F43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="Z99" sqref="Z99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2328,6 +5105,131 @@
         <v>52.94</v>
       </c>
     </row>
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="12">
+        <f>AVERAGE(C7:C16)</f>
+        <v>48604.81815781496</v>
+      </c>
+      <c r="D17" s="12">
+        <f>AVERAGE(D7:D16)</f>
+        <v>69.277000000000001</v>
+      </c>
+      <c r="E17" s="12">
+        <f>AVERAGE(E7:E16)</f>
+        <v>57.125000000000014</v>
+      </c>
+      <c r="F17" s="12">
+        <f>AVERAGE(F7:F16)</f>
+        <v>47359.561565574943</v>
+      </c>
+      <c r="G17" s="12">
+        <f>AVERAGE(G7:G16)</f>
+        <v>71.546999999999997</v>
+      </c>
+      <c r="H17" s="12">
+        <f>AVERAGE(H7:H16)</f>
+        <v>58.999000000000002</v>
+      </c>
+      <c r="I17" s="12">
+        <f>AVERAGE(I7:I16)</f>
+        <v>47692.670660948803</v>
+      </c>
+      <c r="J17" s="12">
+        <f>AVERAGE(J7:J16)</f>
+        <v>70.747</v>
+      </c>
+      <c r="K17" s="12">
+        <f>AVERAGE(K7:K16)</f>
+        <v>58.338000000000001</v>
+      </c>
+      <c r="L17" s="12">
+        <f>AVERAGE(L7:L16)</f>
+        <v>47755.911010290234</v>
+      </c>
+      <c r="M17" s="12">
+        <f>AVERAGE(M7:M16)</f>
+        <v>70.712999999999994</v>
+      </c>
+      <c r="N17" s="12">
+        <f>AVERAGE(N7:N16)</f>
+        <v>58.311000000000014</v>
+      </c>
+      <c r="O17" s="12">
+        <f>AVERAGE(O7:O16)</f>
+        <v>46673.873574000005</v>
+      </c>
+      <c r="P17" s="12">
+        <f>AVERAGE(P7:P16)</f>
+        <v>72.14500000000001</v>
+      </c>
+      <c r="Q17" s="12">
+        <f>AVERAGE(Q7:Q16)</f>
+        <v>59.491</v>
+      </c>
+      <c r="R17" s="12">
+        <f>AVERAGE(R7:R16)</f>
+        <v>50051.412713514968</v>
+      </c>
+      <c r="S17" s="12">
+        <f>AVERAGE(S7:S16)</f>
+        <v>67.166000000000011</v>
+      </c>
+      <c r="T17" s="12">
+        <f>AVERAGE(T7:T16)</f>
+        <v>55.386000000000003</v>
+      </c>
+      <c r="U17" s="12">
+        <f>AVERAGE(U7:U16)</f>
+        <v>47870.426988658422</v>
+      </c>
+      <c r="V17" s="12">
+        <f>AVERAGE(V7:V16)</f>
+        <v>71.042000000000002</v>
+      </c>
+      <c r="W17" s="12">
+        <f>AVERAGE(W7:W16)</f>
+        <v>58.580999999999996</v>
+      </c>
+      <c r="X17" s="12">
+        <f>AVERAGE(X7:X16)</f>
+        <v>46487.498944668492</v>
+      </c>
+      <c r="Y17" s="12">
+        <f>AVERAGE(Y7:Y16)</f>
+        <v>72.292999999999978</v>
+      </c>
+      <c r="Z17" s="12">
+        <f>AVERAGE(Z7:Z16)</f>
+        <v>59.613999999999997</v>
+      </c>
+      <c r="AA17" s="12">
+        <f>AVERAGE(AA7:AA16)</f>
+        <v>47303.808572816313</v>
+      </c>
+      <c r="AB17" s="12">
+        <f>AVERAGE(AB7:AB16)</f>
+        <v>71.097999999999999</v>
+      </c>
+      <c r="AC17" s="12">
+        <f>AVERAGE(AC7:AC16)</f>
+        <v>58.628</v>
+      </c>
+      <c r="AD17" s="12">
+        <f>AVERAGE(AD7:AD16)</f>
+        <v>46179.717035531285</v>
+      </c>
+      <c r="AE17" s="12">
+        <f>AVERAGE(AE7:AE16)</f>
+        <v>73.269000000000005</v>
+      </c>
+      <c r="AF17" s="12">
+        <f>AVERAGE(AF7:AF16)</f>
+        <v>60.42</v>
+      </c>
+    </row>
     <row r="19" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
@@ -3470,6 +6372,131 @@
         <v>61.64</v>
       </c>
     </row>
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="12">
+        <f>AVERAGE(C23:C32)</f>
+        <v>45949.797477521897</v>
+      </c>
+      <c r="D33" s="12">
+        <f>AVERAGE(D23:D32)</f>
+        <v>73.371000000000009</v>
+      </c>
+      <c r="E33" s="12">
+        <f>AVERAGE(E23:E32)</f>
+        <v>60.501999999999995</v>
+      </c>
+      <c r="F33" s="12">
+        <f>AVERAGE(F23:F32)</f>
+        <v>46675.488346668302</v>
+      </c>
+      <c r="G33" s="12">
+        <f>AVERAGE(G23:G32)</f>
+        <v>72.174999999999997</v>
+      </c>
+      <c r="H33" s="12">
+        <f>AVERAGE(H23:H32)</f>
+        <v>59.518000000000008</v>
+      </c>
+      <c r="I33" s="12">
+        <f>AVERAGE(I23:I32)</f>
+        <v>44212.860590590746</v>
+      </c>
+      <c r="J33" s="12">
+        <f>AVERAGE(J23:J32)</f>
+        <v>76.09</v>
+      </c>
+      <c r="K33" s="12">
+        <f>AVERAGE(K23:K32)</f>
+        <v>62.744000000000007</v>
+      </c>
+      <c r="L33" s="12">
+        <f>AVERAGE(L23:L32)</f>
+        <v>44676.062213810263</v>
+      </c>
+      <c r="M33" s="12">
+        <f>AVERAGE(M23:M32)</f>
+        <v>75.289999999999992</v>
+      </c>
+      <c r="N33" s="12">
+        <f>AVERAGE(N23:N32)</f>
+        <v>62.084000000000003</v>
+      </c>
+      <c r="O33" s="12">
+        <f>AVERAGE(O23:O32)</f>
+        <v>43928.29929568238</v>
+      </c>
+      <c r="P33" s="12">
+        <f>AVERAGE(P23:P32)</f>
+        <v>76.514999999999986</v>
+      </c>
+      <c r="Q33" s="12">
+        <f>AVERAGE(Q23:Q32)</f>
+        <v>63.092999999999996</v>
+      </c>
+      <c r="R33" s="12">
+        <f>AVERAGE(R23:R32)</f>
+        <v>43860.212419729229</v>
+      </c>
+      <c r="S33" s="12">
+        <f>AVERAGE(S23:S32)</f>
+        <v>77.415999999999997</v>
+      </c>
+      <c r="T33" s="12">
+        <f>AVERAGE(T23:T32)</f>
+        <v>63.840000000000011</v>
+      </c>
+      <c r="U33" s="12">
+        <f>AVERAGE(U23:U32)</f>
+        <v>45214.886952463465</v>
+      </c>
+      <c r="V33" s="12">
+        <f>AVERAGE(V23:V32)</f>
+        <v>74.456999999999994</v>
+      </c>
+      <c r="W33" s="12">
+        <f>AVERAGE(W23:W32)</f>
+        <v>61.396999999999991</v>
+      </c>
+      <c r="X33" s="12">
+        <f>AVERAGE(X23:X32)</f>
+        <v>45646.430732534158</v>
+      </c>
+      <c r="Y33" s="12">
+        <f>AVERAGE(Y23:Y32)</f>
+        <v>73.620999999999995</v>
+      </c>
+      <c r="Z33" s="12">
+        <f>AVERAGE(Z23:Z32)</f>
+        <v>60.71</v>
+      </c>
+      <c r="AA33" s="12">
+        <f>AVERAGE(AA23:AA32)</f>
+        <v>45314.593443100501</v>
+      </c>
+      <c r="AB33" s="12">
+        <f>AVERAGE(AB23:AB32)</f>
+        <v>74.108999999999995</v>
+      </c>
+      <c r="AC33" s="12">
+        <f>AVERAGE(AC23:AC32)</f>
+        <v>61.112000000000002</v>
+      </c>
+      <c r="AD33" s="12">
+        <f>AVERAGE(AD23:AD32)</f>
+        <v>44889.323928779813</v>
+      </c>
+      <c r="AE33" s="12">
+        <f>AVERAGE(AE23:AE32)</f>
+        <v>74.89200000000001</v>
+      </c>
+      <c r="AF33" s="12">
+        <f>AVERAGE(AF23:AF32)</f>
+        <v>61.756000000000007</v>
+      </c>
+    </row>
     <row r="35" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
@@ -3748,13 +6775,13 @@
         <v>66.430000000000007</v>
       </c>
       <c r="AD39">
-        <v>41365.0679248179</v>
+        <v>45529.978999999999</v>
       </c>
       <c r="AE39">
-        <v>81.040000000000006</v>
+        <v>73.63</v>
       </c>
       <c r="AF39">
-        <v>66.83</v>
+        <v>60.72</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.3">
@@ -3875,13 +6902,13 @@
         <v>61.22</v>
       </c>
       <c r="I41">
-        <v>38400.353086980802</v>
+        <v>46673.13</v>
       </c>
       <c r="J41">
-        <v>87.3</v>
+        <v>71.83</v>
       </c>
       <c r="K41">
-        <v>71.989999999999995</v>
+        <v>59.23</v>
       </c>
       <c r="L41">
         <v>45875.535614229397</v>
@@ -3938,13 +6965,13 @@
         <v>68.66</v>
       </c>
       <c r="AD41">
-        <v>40740.171004407101</v>
+        <v>49583.976999999999</v>
       </c>
       <c r="AE41">
-        <v>82.29</v>
+        <v>67.61</v>
       </c>
       <c r="AF41">
-        <v>67.849999999999994</v>
+        <v>55.75</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.3">
@@ -3970,13 +6997,13 @@
         <v>60.95</v>
       </c>
       <c r="I42">
-        <v>38823.443800182198</v>
+        <v>48836.451000000001</v>
       </c>
       <c r="J42">
-        <v>86.35</v>
+        <v>68.64</v>
       </c>
       <c r="K42">
-        <v>71.2</v>
+        <v>56.6</v>
       </c>
       <c r="L42">
         <v>40939.813507532403</v>
@@ -4015,22 +7042,22 @@
         <v>55.33</v>
       </c>
       <c r="X42">
-        <v>38957.833770408499</v>
+        <v>46002.917000000001</v>
       </c>
       <c r="Y42">
-        <v>86.05</v>
+        <v>72.87</v>
       </c>
       <c r="Z42">
-        <v>70.959999999999994</v>
+        <v>60.09</v>
       </c>
       <c r="AA42">
-        <v>39950.121492631399</v>
+        <v>45988.226000000002</v>
       </c>
       <c r="AB42">
-        <v>83.91</v>
+        <v>72.900000000000006</v>
       </c>
       <c r="AC42">
-        <v>69.2</v>
+        <v>60.11</v>
       </c>
       <c r="AD42">
         <v>41815.742523328001</v>
@@ -4056,13 +7083,13 @@
         <v>63.9</v>
       </c>
       <c r="F43">
-        <v>38479.291592863803</v>
+        <v>52394.385999999999</v>
       </c>
       <c r="G43">
-        <v>87.12</v>
+        <v>63.98</v>
       </c>
       <c r="H43">
-        <v>71.84</v>
+        <v>52.76</v>
       </c>
       <c r="I43">
         <v>43541.725574054297</v>
@@ -4092,13 +7119,13 @@
         <v>53.64</v>
       </c>
       <c r="R43">
-        <v>39546.498612008298</v>
+        <v>49440.864000000001</v>
       </c>
       <c r="S43">
-        <v>84.77</v>
+        <v>67.81</v>
       </c>
       <c r="T43">
-        <v>69.900000000000006</v>
+        <v>55.91</v>
       </c>
       <c r="U43">
         <v>43805.582588596597</v>
@@ -4110,13 +7137,13 @@
         <v>63.11</v>
       </c>
       <c r="X43">
-        <v>35801.339507454599</v>
+        <v>48890.222999999904</v>
       </c>
       <c r="Y43">
-        <v>93.64</v>
+        <v>68.569999999999993</v>
       </c>
       <c r="Z43">
-        <v>77.209999999999994</v>
+        <v>56.54</v>
       </c>
       <c r="AA43">
         <v>41154.835178038797</v>
@@ -4128,13 +7155,13 @@
         <v>67.17</v>
       </c>
       <c r="AD43">
-        <v>38646.219548426197</v>
+        <v>45140.305</v>
       </c>
       <c r="AE43">
-        <v>86.75</v>
+        <v>74.27</v>
       </c>
       <c r="AF43">
-        <v>71.53</v>
+        <v>61.24</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.3">
@@ -4214,13 +7241,13 @@
         <v>65.45</v>
       </c>
       <c r="AA44">
-        <v>38275.413771427302</v>
+        <v>53462.512000000002</v>
       </c>
       <c r="AB44">
-        <v>87.59</v>
+        <v>62.71</v>
       </c>
       <c r="AC44">
-        <v>72.22</v>
+        <v>51.71</v>
       </c>
       <c r="AD44">
         <v>46484.620557722301</v>
@@ -4255,13 +7282,13 @@
         <v>61.27</v>
       </c>
       <c r="I45">
-        <v>39033.135315277999</v>
+        <v>44903.133000000002</v>
       </c>
       <c r="J45">
-        <v>85.89</v>
+        <v>74.66</v>
       </c>
       <c r="K45">
-        <v>70.819999999999993</v>
+        <v>61.56</v>
       </c>
       <c r="L45">
         <v>47234.607362390198</v>
@@ -4282,13 +7309,13 @@
         <v>57.34</v>
       </c>
       <c r="R45">
-        <v>40919.875109349101</v>
+        <v>46802.353000000003</v>
       </c>
       <c r="S45">
-        <v>81.93</v>
+        <v>71.63</v>
       </c>
       <c r="T45">
-        <v>67.56</v>
+        <v>59.06</v>
       </c>
       <c r="U45">
         <v>44070.546443995299</v>
@@ -4318,13 +7345,13 @@
         <v>64.02</v>
       </c>
       <c r="AD45">
-        <v>41725.641175869801</v>
+        <v>49558.947</v>
       </c>
       <c r="AE45">
-        <v>80.34</v>
+        <v>67.64</v>
       </c>
       <c r="AF45">
-        <v>66.25</v>
+        <v>55.78</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.3">
@@ -4395,13 +7422,13 @@
         <v>64.11</v>
       </c>
       <c r="X46">
-        <v>39318.288325722999</v>
+        <v>46927.656000000003</v>
       </c>
       <c r="Y46">
-        <v>85.26</v>
+        <v>71.44</v>
       </c>
       <c r="Z46">
-        <v>70.31</v>
+        <v>58.91</v>
       </c>
       <c r="AA46">
         <v>47177.752901322703</v>
@@ -4585,31 +7612,156 @@
         <v>65.13</v>
       </c>
       <c r="X48">
-        <v>40228.467789258902</v>
+        <v>47487.203000000001</v>
       </c>
       <c r="Y48">
-        <v>83.33</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="Z48">
-        <v>68.72</v>
+        <v>58.21</v>
       </c>
       <c r="AA48">
-        <v>40183.064536915597</v>
+        <v>48203.182000000001</v>
       </c>
       <c r="AB48">
-        <v>83.43</v>
+        <v>69.55</v>
       </c>
       <c r="AC48">
-        <v>68.790000000000006</v>
+        <v>57.35</v>
       </c>
       <c r="AD48">
-        <v>39118.599595139603</v>
+        <v>44142.241000000002</v>
       </c>
       <c r="AE48">
-        <v>85.7</v>
+        <v>75.94</v>
       </c>
       <c r="AF48">
-        <v>70.67</v>
+        <v>62.62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+      <c r="B49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="12">
+        <f>AVERAGE(C39:C48)</f>
+        <v>47680.164899101728</v>
+      </c>
+      <c r="D49" s="12">
+        <f>AVERAGE(D39:D48)</f>
+        <v>70.60799999999999</v>
+      </c>
+      <c r="E49" s="12">
+        <f>AVERAGE(E39:E48)</f>
+        <v>58.224000000000004</v>
+      </c>
+      <c r="F49" s="12">
+        <f>AVERAGE(F39:F48)</f>
+        <v>44837.436550754748</v>
+      </c>
+      <c r="G49" s="12">
+        <f>AVERAGE(G39:G48)</f>
+        <v>75.147000000000006</v>
+      </c>
+      <c r="H49" s="12">
+        <f>AVERAGE(H39:H48)</f>
+        <v>61.966999999999985</v>
+      </c>
+      <c r="I49" s="12">
+        <f>AVERAGE(I39:I48)</f>
+        <v>44339.844799522005</v>
+      </c>
+      <c r="J49" s="12">
+        <f>AVERAGE(J39:J48)</f>
+        <v>75.771000000000001</v>
+      </c>
+      <c r="K49" s="12">
+        <f>AVERAGE(K39:K48)</f>
+        <v>62.481999999999992</v>
+      </c>
+      <c r="L49" s="12">
+        <f>AVERAGE(L39:L48)</f>
+        <v>43439.582744091036</v>
+      </c>
+      <c r="M49" s="12">
+        <f>AVERAGE(M39:M48)</f>
+        <v>77.379000000000005</v>
+      </c>
+      <c r="N49" s="12">
+        <f>AVERAGE(N39:N48)</f>
+        <v>63.804999999999993</v>
+      </c>
+      <c r="O49" s="12">
+        <f>AVERAGE(O39:O48)</f>
+        <v>44402.643189703471</v>
+      </c>
+      <c r="P49" s="12">
+        <f>AVERAGE(P39:P48)</f>
+        <v>76.064999999999998</v>
+      </c>
+      <c r="Q49" s="12">
+        <f>AVERAGE(Q39:Q48)</f>
+        <v>62.722999999999992</v>
+      </c>
+      <c r="R49" s="12">
+        <f>AVERAGE(R39:R48)</f>
+        <v>43768.613270000955</v>
+      </c>
+      <c r="S49" s="12">
+        <f>AVERAGE(S39:S48)</f>
+        <v>76.948999999999998</v>
+      </c>
+      <c r="T49" s="12">
+        <f>AVERAGE(T39:T48)</f>
+        <v>63.45300000000001</v>
+      </c>
+      <c r="U49" s="12">
+        <f>AVERAGE(U39:U48)</f>
+        <v>44896.538901347478</v>
+      </c>
+      <c r="V49" s="12">
+        <f>AVERAGE(V39:V48)</f>
+        <v>75.018000000000001</v>
+      </c>
+      <c r="W49" s="12">
+        <f>AVERAGE(W39:W48)</f>
+        <v>61.861000000000004</v>
+      </c>
+      <c r="X49" s="12">
+        <f>AVERAGE(X39:X48)</f>
+        <v>44642.470277928034</v>
+      </c>
+      <c r="Y49" s="12">
+        <f>AVERAGE(Y39:Y48)</f>
+        <v>75.298000000000016</v>
+      </c>
+      <c r="Z49" s="12">
+        <f>AVERAGE(Z39:Z48)</f>
+        <v>62.090000000000011</v>
+      </c>
+      <c r="AA49" s="12">
+        <f>AVERAGE(AA39:AA48)</f>
+        <v>45015.386576053352</v>
+      </c>
+      <c r="AB49" s="12">
+        <f>AVERAGE(AB39:AB48)</f>
+        <v>74.96899999999998</v>
+      </c>
+      <c r="AC49" s="12">
+        <f>AVERAGE(AC39:AC48)</f>
+        <v>61.818999999999996</v>
+      </c>
+      <c r="AD49" s="12">
+        <f>AVERAGE(AD39:AD48)</f>
+        <v>45005.592412111029</v>
+      </c>
+      <c r="AE49" s="12">
+        <f>AVERAGE(AE39:AE48)</f>
+        <v>74.751000000000005</v>
+      </c>
+      <c r="AF49" s="12">
+        <f>AVERAGE(AF39:AF48)</f>
+        <v>61.64</v>
       </c>
     </row>
     <row r="51" spans="1:35" ht="15.6" x14ac:dyDescent="0.3">
@@ -5754,9 +8906,135 @@
         <v>77.67</v>
       </c>
     </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B65" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="12">
+        <f>AVERAGE(C55:C64)</f>
+        <v>40740.680117002281</v>
+      </c>
+      <c r="D65" s="12">
+        <f>AVERAGE(D55:D64)</f>
+        <v>82.522000000000006</v>
+      </c>
+      <c r="E65" s="12">
+        <f>AVERAGE(E55:E64)</f>
+        <v>68.046999999999997</v>
+      </c>
+      <c r="F65" s="12">
+        <f>AVERAGE(F55:F64)</f>
+        <v>42495.550132819422</v>
+      </c>
+      <c r="G65" s="12">
+        <f>AVERAGE(G55:G64)</f>
+        <v>79.673000000000002</v>
+      </c>
+      <c r="H65" s="12">
+        <f>AVERAGE(H55:H64)</f>
+        <v>65.698000000000008</v>
+      </c>
+      <c r="I65" s="12">
+        <f>AVERAGE(I55:I64)</f>
+        <v>42371.756863898794</v>
+      </c>
+      <c r="J65" s="12">
+        <f>AVERAGE(J55:J64)</f>
+        <v>79.460000000000008</v>
+      </c>
+      <c r="K65" s="12">
+        <f>AVERAGE(K55:K64)</f>
+        <v>65.522999999999996</v>
+      </c>
+      <c r="L65" s="12">
+        <f>AVERAGE(L55:L64)</f>
+        <v>39534.564988198043</v>
+      </c>
+      <c r="M65" s="12">
+        <f>AVERAGE(M55:M64)</f>
+        <v>84.830999999999989</v>
+      </c>
+      <c r="N65" s="12">
+        <f>AVERAGE(N55:N64)</f>
+        <v>69.951999999999998</v>
+      </c>
+      <c r="O65" s="12">
+        <f>AVERAGE(O55:O64)</f>
+        <v>39193.875388758395</v>
+      </c>
+      <c r="P65" s="12">
+        <f>AVERAGE(P55:P64)</f>
+        <v>85.763000000000005</v>
+      </c>
+      <c r="Q65" s="12">
+        <f>AVERAGE(Q55:Q64)</f>
+        <v>70.722000000000008</v>
+      </c>
+      <c r="R65" s="12">
+        <f>AVERAGE(R55:R64)</f>
+        <v>38023.602570881136</v>
+      </c>
+      <c r="S65" s="12">
+        <f>AVERAGE(S55:S64)</f>
+        <v>88.277000000000001</v>
+      </c>
+      <c r="T65" s="12">
+        <f>AVERAGE(T55:T64)</f>
+        <v>72.790999999999983</v>
+      </c>
+      <c r="U65" s="12">
+        <f>AVERAGE(U55:U64)</f>
+        <v>38458.926283995483</v>
+      </c>
+      <c r="V65" s="12">
+        <f>AVERAGE(V55:V64)</f>
+        <v>87.38</v>
+      </c>
+      <c r="W65" s="12">
+        <f>AVERAGE(W55:W64)</f>
+        <v>72.051999999999992</v>
+      </c>
+      <c r="X65" s="12">
+        <f>AVERAGE(X55:X64)</f>
+        <v>39066.91620513508</v>
+      </c>
+      <c r="Y65" s="12">
+        <f>AVERAGE(Y55:Y64)</f>
+        <v>85.991</v>
+      </c>
+      <c r="Z65" s="12">
+        <f>AVERAGE(Z55:Z64)</f>
+        <v>70.908000000000001</v>
+      </c>
+      <c r="AA65" s="12">
+        <f>AVERAGE(AA55:AA64)</f>
+        <v>37502.696591863489</v>
+      </c>
+      <c r="AB65" s="12">
+        <f>AVERAGE(AB55:AB64)</f>
+        <v>89.47799999999998</v>
+      </c>
+      <c r="AC65" s="12">
+        <f>AVERAGE(AC55:AC64)</f>
+        <v>73.783999999999992</v>
+      </c>
+      <c r="AD65" s="12">
+        <f>AVERAGE(AD55:AD64)</f>
+        <v>36552.108284463764</v>
+      </c>
+      <c r="AE65" s="12">
+        <f>AVERAGE(AE55:AE64)</f>
+        <v>91.788000000000011</v>
+      </c>
+      <c r="AF65" s="12">
+        <f>AVERAGE(AF55:AF64)</f>
+        <v>75.69</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Result_sheet.xlsx
+++ b/Result_sheet.xlsx
@@ -13,7 +13,6 @@
   </bookViews>
   <sheets>
     <sheet name="48" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="RMHC_48_100000" localSheetId="0">'48'!$AG$7:$AI$19</definedName>
@@ -2248,6 +2247,785 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Line Graph showing Efficiency against MST Fitness for 4 different Algorthms for 48 Cities</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Simulated Annealing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>('48'!$D$53,'48'!$G$53,'48'!$J$53,'48'!$M$53,'48'!$P$53,'48'!$S$53,'48'!$V$53,'48'!$Y$53,'48'!$AB$53,'48'!$AE$53)</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('48'!$E$65,'48'!$H$65,'48'!$K$65,'48'!$N$65,'48'!$Q$65,'48'!$T$65,'48'!$W$65,'48'!$Z$65,'48'!$AC$65,'48'!$AF$65)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>68.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>65.698000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>65.522999999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.951999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.722000000000008</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>72.790999999999983</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.051999999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.908000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>73.783999999999992</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>75.69</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-F9FC-4A0C-9BC2-07336D0E9F20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Stochastic Hill Climbing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>('48'!$E$49,'48'!$H$49,'48'!$K$49,'48'!$N$49,'48'!$Q$49,'48'!$T$49,'48'!$W$49,'48'!$Z$49,'48'!$AC$49,'48'!$AF$49)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>58.224000000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>61.966999999999985</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.481999999999992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>63.804999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.722999999999992</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.45300000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.861000000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.090000000000011</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.818999999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.64</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F9FC-4A0C-9BC2-07336D0E9F20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Random Restart Hill Climbing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>('48'!$E$33,'48'!$H$33,'48'!$K$33,'48'!$N$33,'48'!$Q$33,'48'!$T$33,'48'!$W$33,'48'!$Z$33,'48'!$AC$33,'48'!$AF$33)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>60.501999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>59.518000000000008</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>62.744000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62.084000000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.092999999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.840000000000011</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.396999999999991</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.71</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.112000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61.756000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F9FC-4A0C-9BC2-07336D0E9F20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Random Mutation Hill Climbing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:val>
+            <c:numRef>
+              <c:f>('48'!$E$17,'48'!$H$17,'48'!$K$17,'48'!$N$17,'48'!$Q$17,'48'!$T$17,'48'!$W$17,'48'!$Z$17,'48'!$AC$17,'48'!$AF$17)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>57.125000000000014</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>58.999000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58.338000000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>58.311000000000014</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.491</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>55.386000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.580999999999996</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>59.613999999999997</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>58.628</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.42</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-F9FC-4A0C-9BC2-07336D0E9F20}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="696527040"/>
+        <c:axId val="787535984"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="696527040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Number of Iterations</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="787535984"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="787535984"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="50"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="5000"/>
+                  <a:lumOff val="95000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>Average Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="696527040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2289,6 +3067,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3360,6 +4178,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3434,139 +4768,175 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6D18BF3-A044-42B9-8899-35F3FACE844C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_40000" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_20000" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_40000" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_50000" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_90000" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_30000" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_90000" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_30000" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_100000" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_10000" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_10000" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_80000" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_60000" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_20000" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_80000" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_70000" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_60000" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_70000" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_60000" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_20000" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_70000" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_50000" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_10000" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_100000" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_30000" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_40000" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_60000" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_80000" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_70000" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_80000" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_90000" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_100000" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_10000" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_90000" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_20000" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_20000" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_70000" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_50000" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_70000" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_80000" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_60001" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_20000" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_10000" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_60000" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_10000" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_100000" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_40000" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_100000" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_70000" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_60000" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_30000" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_80000" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_70000" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_50000" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_60000" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_90000" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_90000" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_40000" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_100000" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_30000" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_80000" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_60000" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_30000" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_40000" connectionId="10" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3868,7 +5238,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Z99" sqref="Z99"/>
     </sheetView>
   </sheetViews>
@@ -5110,123 +6480,123 @@
         <v>12</v>
       </c>
       <c r="C17" s="12">
-        <f>AVERAGE(C7:C16)</f>
+        <f t="shared" ref="C17:AF17" si="0">AVERAGE(C7:C16)</f>
         <v>48604.81815781496</v>
       </c>
       <c r="D17" s="12">
-        <f>AVERAGE(D7:D16)</f>
+        <f t="shared" si="0"/>
         <v>69.277000000000001</v>
       </c>
       <c r="E17" s="12">
-        <f>AVERAGE(E7:E16)</f>
+        <f t="shared" si="0"/>
         <v>57.125000000000014</v>
       </c>
       <c r="F17" s="12">
-        <f>AVERAGE(F7:F16)</f>
+        <f t="shared" si="0"/>
         <v>47359.561565574943</v>
       </c>
       <c r="G17" s="12">
-        <f>AVERAGE(G7:G16)</f>
+        <f t="shared" si="0"/>
         <v>71.546999999999997</v>
       </c>
       <c r="H17" s="12">
-        <f>AVERAGE(H7:H16)</f>
+        <f t="shared" si="0"/>
         <v>58.999000000000002</v>
       </c>
       <c r="I17" s="12">
-        <f>AVERAGE(I7:I16)</f>
+        <f t="shared" si="0"/>
         <v>47692.670660948803</v>
       </c>
       <c r="J17" s="12">
-        <f>AVERAGE(J7:J16)</f>
+        <f t="shared" si="0"/>
         <v>70.747</v>
       </c>
       <c r="K17" s="12">
-        <f>AVERAGE(K7:K16)</f>
+        <f t="shared" si="0"/>
         <v>58.338000000000001</v>
       </c>
       <c r="L17" s="12">
-        <f>AVERAGE(L7:L16)</f>
+        <f t="shared" si="0"/>
         <v>47755.911010290234</v>
       </c>
       <c r="M17" s="12">
-        <f>AVERAGE(M7:M16)</f>
+        <f t="shared" si="0"/>
         <v>70.712999999999994</v>
       </c>
       <c r="N17" s="12">
-        <f>AVERAGE(N7:N16)</f>
+        <f t="shared" si="0"/>
         <v>58.311000000000014</v>
       </c>
       <c r="O17" s="12">
-        <f>AVERAGE(O7:O16)</f>
+        <f t="shared" si="0"/>
         <v>46673.873574000005</v>
       </c>
       <c r="P17" s="12">
-        <f>AVERAGE(P7:P16)</f>
+        <f t="shared" si="0"/>
         <v>72.14500000000001</v>
       </c>
       <c r="Q17" s="12">
-        <f>AVERAGE(Q7:Q16)</f>
+        <f t="shared" si="0"/>
         <v>59.491</v>
       </c>
       <c r="R17" s="12">
-        <f>AVERAGE(R7:R16)</f>
+        <f t="shared" si="0"/>
         <v>50051.412713514968</v>
       </c>
       <c r="S17" s="12">
-        <f>AVERAGE(S7:S16)</f>
+        <f t="shared" si="0"/>
         <v>67.166000000000011</v>
       </c>
       <c r="T17" s="12">
-        <f>AVERAGE(T7:T16)</f>
+        <f t="shared" si="0"/>
         <v>55.386000000000003</v>
       </c>
       <c r="U17" s="12">
-        <f>AVERAGE(U7:U16)</f>
+        <f t="shared" si="0"/>
         <v>47870.426988658422</v>
       </c>
       <c r="V17" s="12">
-        <f>AVERAGE(V7:V16)</f>
+        <f t="shared" si="0"/>
         <v>71.042000000000002</v>
       </c>
       <c r="W17" s="12">
-        <f>AVERAGE(W7:W16)</f>
+        <f t="shared" si="0"/>
         <v>58.580999999999996</v>
       </c>
       <c r="X17" s="12">
-        <f>AVERAGE(X7:X16)</f>
+        <f t="shared" si="0"/>
         <v>46487.498944668492</v>
       </c>
       <c r="Y17" s="12">
-        <f>AVERAGE(Y7:Y16)</f>
+        <f t="shared" si="0"/>
         <v>72.292999999999978</v>
       </c>
       <c r="Z17" s="12">
-        <f>AVERAGE(Z7:Z16)</f>
+        <f t="shared" si="0"/>
         <v>59.613999999999997</v>
       </c>
       <c r="AA17" s="12">
-        <f>AVERAGE(AA7:AA16)</f>
+        <f t="shared" si="0"/>
         <v>47303.808572816313</v>
       </c>
       <c r="AB17" s="12">
-        <f>AVERAGE(AB7:AB16)</f>
+        <f t="shared" si="0"/>
         <v>71.097999999999999</v>
       </c>
       <c r="AC17" s="12">
-        <f>AVERAGE(AC7:AC16)</f>
+        <f t="shared" si="0"/>
         <v>58.628</v>
       </c>
       <c r="AD17" s="12">
-        <f>AVERAGE(AD7:AD16)</f>
+        <f t="shared" si="0"/>
         <v>46179.717035531285</v>
       </c>
       <c r="AE17" s="12">
-        <f>AVERAGE(AE7:AE16)</f>
+        <f t="shared" si="0"/>
         <v>73.269000000000005</v>
       </c>
       <c r="AF17" s="12">
-        <f>AVERAGE(AF7:AF16)</f>
+        <f t="shared" si="0"/>
         <v>60.42</v>
       </c>
     </row>
@@ -6377,123 +7747,123 @@
         <v>12</v>
       </c>
       <c r="C33" s="12">
-        <f>AVERAGE(C23:C32)</f>
+        <f t="shared" ref="C33:AF33" si="1">AVERAGE(C23:C32)</f>
         <v>45949.797477521897</v>
       </c>
       <c r="D33" s="12">
-        <f>AVERAGE(D23:D32)</f>
+        <f t="shared" si="1"/>
         <v>73.371000000000009</v>
       </c>
       <c r="E33" s="12">
-        <f>AVERAGE(E23:E32)</f>
+        <f t="shared" si="1"/>
         <v>60.501999999999995</v>
       </c>
       <c r="F33" s="12">
-        <f>AVERAGE(F23:F32)</f>
+        <f t="shared" si="1"/>
         <v>46675.488346668302</v>
       </c>
       <c r="G33" s="12">
-        <f>AVERAGE(G23:G32)</f>
+        <f t="shared" si="1"/>
         <v>72.174999999999997</v>
       </c>
       <c r="H33" s="12">
-        <f>AVERAGE(H23:H32)</f>
+        <f t="shared" si="1"/>
         <v>59.518000000000008</v>
       </c>
       <c r="I33" s="12">
-        <f>AVERAGE(I23:I32)</f>
+        <f t="shared" si="1"/>
         <v>44212.860590590746</v>
       </c>
       <c r="J33" s="12">
-        <f>AVERAGE(J23:J32)</f>
+        <f t="shared" si="1"/>
         <v>76.09</v>
       </c>
       <c r="K33" s="12">
-        <f>AVERAGE(K23:K32)</f>
+        <f t="shared" si="1"/>
         <v>62.744000000000007</v>
       </c>
       <c r="L33" s="12">
-        <f>AVERAGE(L23:L32)</f>
+        <f t="shared" si="1"/>
         <v>44676.062213810263</v>
       </c>
       <c r="M33" s="12">
-        <f>AVERAGE(M23:M32)</f>
+        <f t="shared" si="1"/>
         <v>75.289999999999992</v>
       </c>
       <c r="N33" s="12">
-        <f>AVERAGE(N23:N32)</f>
+        <f t="shared" si="1"/>
         <v>62.084000000000003</v>
       </c>
       <c r="O33" s="12">
-        <f>AVERAGE(O23:O32)</f>
+        <f t="shared" si="1"/>
         <v>43928.29929568238</v>
       </c>
       <c r="P33" s="12">
-        <f>AVERAGE(P23:P32)</f>
+        <f t="shared" si="1"/>
         <v>76.514999999999986</v>
       </c>
       <c r="Q33" s="12">
-        <f>AVERAGE(Q23:Q32)</f>
+        <f t="shared" si="1"/>
         <v>63.092999999999996</v>
       </c>
       <c r="R33" s="12">
-        <f>AVERAGE(R23:R32)</f>
+        <f t="shared" si="1"/>
         <v>43860.212419729229</v>
       </c>
       <c r="S33" s="12">
-        <f>AVERAGE(S23:S32)</f>
+        <f t="shared" si="1"/>
         <v>77.415999999999997</v>
       </c>
       <c r="T33" s="12">
-        <f>AVERAGE(T23:T32)</f>
+        <f t="shared" si="1"/>
         <v>63.840000000000011</v>
       </c>
       <c r="U33" s="12">
-        <f>AVERAGE(U23:U32)</f>
+        <f t="shared" si="1"/>
         <v>45214.886952463465</v>
       </c>
       <c r="V33" s="12">
-        <f>AVERAGE(V23:V32)</f>
+        <f t="shared" si="1"/>
         <v>74.456999999999994</v>
       </c>
       <c r="W33" s="12">
-        <f>AVERAGE(W23:W32)</f>
+        <f t="shared" si="1"/>
         <v>61.396999999999991</v>
       </c>
       <c r="X33" s="12">
-        <f>AVERAGE(X23:X32)</f>
+        <f t="shared" si="1"/>
         <v>45646.430732534158</v>
       </c>
       <c r="Y33" s="12">
-        <f>AVERAGE(Y23:Y32)</f>
+        <f t="shared" si="1"/>
         <v>73.620999999999995</v>
       </c>
       <c r="Z33" s="12">
-        <f>AVERAGE(Z23:Z32)</f>
+        <f t="shared" si="1"/>
         <v>60.71</v>
       </c>
       <c r="AA33" s="12">
-        <f>AVERAGE(AA23:AA32)</f>
+        <f t="shared" si="1"/>
         <v>45314.593443100501</v>
       </c>
       <c r="AB33" s="12">
-        <f>AVERAGE(AB23:AB32)</f>
+        <f t="shared" si="1"/>
         <v>74.108999999999995</v>
       </c>
       <c r="AC33" s="12">
-        <f>AVERAGE(AC23:AC32)</f>
+        <f t="shared" si="1"/>
         <v>61.112000000000002</v>
       </c>
       <c r="AD33" s="12">
-        <f>AVERAGE(AD23:AD32)</f>
+        <f t="shared" si="1"/>
         <v>44889.323928779813</v>
       </c>
       <c r="AE33" s="12">
-        <f>AVERAGE(AE23:AE32)</f>
+        <f t="shared" si="1"/>
         <v>74.89200000000001</v>
       </c>
       <c r="AF33" s="12">
-        <f>AVERAGE(AF23:AF32)</f>
+        <f t="shared" si="1"/>
         <v>61.756000000000007</v>
       </c>
     </row>
@@ -7644,123 +9014,123 @@
         <v>12</v>
       </c>
       <c r="C49" s="12">
-        <f>AVERAGE(C39:C48)</f>
+        <f t="shared" ref="C49:AF49" si="2">AVERAGE(C39:C48)</f>
         <v>47680.164899101728</v>
       </c>
       <c r="D49" s="12">
-        <f>AVERAGE(D39:D48)</f>
+        <f t="shared" si="2"/>
         <v>70.60799999999999</v>
       </c>
       <c r="E49" s="12">
-        <f>AVERAGE(E39:E48)</f>
+        <f t="shared" si="2"/>
         <v>58.224000000000004</v>
       </c>
       <c r="F49" s="12">
-        <f>AVERAGE(F39:F48)</f>
+        <f t="shared" si="2"/>
         <v>44837.436550754748</v>
       </c>
       <c r="G49" s="12">
-        <f>AVERAGE(G39:G48)</f>
+        <f t="shared" si="2"/>
         <v>75.147000000000006</v>
       </c>
       <c r="H49" s="12">
-        <f>AVERAGE(H39:H48)</f>
+        <f t="shared" si="2"/>
         <v>61.966999999999985</v>
       </c>
       <c r="I49" s="12">
-        <f>AVERAGE(I39:I48)</f>
+        <f t="shared" si="2"/>
         <v>44339.844799522005</v>
       </c>
       <c r="J49" s="12">
-        <f>AVERAGE(J39:J48)</f>
+        <f t="shared" si="2"/>
         <v>75.771000000000001</v>
       </c>
       <c r="K49" s="12">
-        <f>AVERAGE(K39:K48)</f>
+        <f t="shared" si="2"/>
         <v>62.481999999999992</v>
       </c>
       <c r="L49" s="12">
-        <f>AVERAGE(L39:L48)</f>
+        <f t="shared" si="2"/>
         <v>43439.582744091036</v>
       </c>
       <c r="M49" s="12">
-        <f>AVERAGE(M39:M48)</f>
+        <f t="shared" si="2"/>
         <v>77.379000000000005</v>
       </c>
       <c r="N49" s="12">
-        <f>AVERAGE(N39:N48)</f>
+        <f t="shared" si="2"/>
         <v>63.804999999999993</v>
       </c>
       <c r="O49" s="12">
-        <f>AVERAGE(O39:O48)</f>
+        <f t="shared" si="2"/>
         <v>44402.643189703471</v>
       </c>
       <c r="P49" s="12">
-        <f>AVERAGE(P39:P48)</f>
+        <f t="shared" si="2"/>
         <v>76.064999999999998</v>
       </c>
       <c r="Q49" s="12">
-        <f>AVERAGE(Q39:Q48)</f>
+        <f t="shared" si="2"/>
         <v>62.722999999999992</v>
       </c>
       <c r="R49" s="12">
-        <f>AVERAGE(R39:R48)</f>
+        <f t="shared" si="2"/>
         <v>43768.613270000955</v>
       </c>
       <c r="S49" s="12">
-        <f>AVERAGE(S39:S48)</f>
+        <f t="shared" si="2"/>
         <v>76.948999999999998</v>
       </c>
       <c r="T49" s="12">
-        <f>AVERAGE(T39:T48)</f>
+        <f t="shared" si="2"/>
         <v>63.45300000000001</v>
       </c>
       <c r="U49" s="12">
-        <f>AVERAGE(U39:U48)</f>
+        <f t="shared" si="2"/>
         <v>44896.538901347478</v>
       </c>
       <c r="V49" s="12">
-        <f>AVERAGE(V39:V48)</f>
+        <f t="shared" si="2"/>
         <v>75.018000000000001</v>
       </c>
       <c r="W49" s="12">
-        <f>AVERAGE(W39:W48)</f>
+        <f t="shared" si="2"/>
         <v>61.861000000000004</v>
       </c>
       <c r="X49" s="12">
-        <f>AVERAGE(X39:X48)</f>
+        <f t="shared" si="2"/>
         <v>44642.470277928034</v>
       </c>
       <c r="Y49" s="12">
-        <f>AVERAGE(Y39:Y48)</f>
+        <f t="shared" si="2"/>
         <v>75.298000000000016</v>
       </c>
       <c r="Z49" s="12">
-        <f>AVERAGE(Z39:Z48)</f>
+        <f t="shared" si="2"/>
         <v>62.090000000000011</v>
       </c>
       <c r="AA49" s="12">
-        <f>AVERAGE(AA39:AA48)</f>
+        <f t="shared" si="2"/>
         <v>45015.386576053352</v>
       </c>
       <c r="AB49" s="12">
-        <f>AVERAGE(AB39:AB48)</f>
+        <f t="shared" si="2"/>
         <v>74.96899999999998</v>
       </c>
       <c r="AC49" s="12">
-        <f>AVERAGE(AC39:AC48)</f>
+        <f t="shared" si="2"/>
         <v>61.818999999999996</v>
       </c>
       <c r="AD49" s="12">
-        <f>AVERAGE(AD39:AD48)</f>
+        <f t="shared" si="2"/>
         <v>45005.592412111029</v>
       </c>
       <c r="AE49" s="12">
-        <f>AVERAGE(AE39:AE48)</f>
+        <f t="shared" si="2"/>
         <v>74.751000000000005</v>
       </c>
       <c r="AF49" s="12">
-        <f>AVERAGE(AF39:AF48)</f>
+        <f t="shared" si="2"/>
         <v>61.64</v>
       </c>
     </row>
@@ -8911,123 +10281,123 @@
         <v>12</v>
       </c>
       <c r="C65" s="12">
-        <f>AVERAGE(C55:C64)</f>
+        <f t="shared" ref="C65:AF65" si="3">AVERAGE(C55:C64)</f>
         <v>40740.680117002281</v>
       </c>
       <c r="D65" s="12">
-        <f>AVERAGE(D55:D64)</f>
+        <f t="shared" si="3"/>
         <v>82.522000000000006</v>
       </c>
       <c r="E65" s="12">
-        <f>AVERAGE(E55:E64)</f>
+        <f t="shared" si="3"/>
         <v>68.046999999999997</v>
       </c>
       <c r="F65" s="12">
-        <f>AVERAGE(F55:F64)</f>
+        <f t="shared" si="3"/>
         <v>42495.550132819422</v>
       </c>
       <c r="G65" s="12">
-        <f>AVERAGE(G55:G64)</f>
+        <f t="shared" si="3"/>
         <v>79.673000000000002</v>
       </c>
       <c r="H65" s="12">
-        <f>AVERAGE(H55:H64)</f>
+        <f t="shared" si="3"/>
         <v>65.698000000000008</v>
       </c>
       <c r="I65" s="12">
-        <f>AVERAGE(I55:I64)</f>
+        <f t="shared" si="3"/>
         <v>42371.756863898794</v>
       </c>
       <c r="J65" s="12">
-        <f>AVERAGE(J55:J64)</f>
+        <f t="shared" si="3"/>
         <v>79.460000000000008</v>
       </c>
       <c r="K65" s="12">
-        <f>AVERAGE(K55:K64)</f>
+        <f t="shared" si="3"/>
         <v>65.522999999999996</v>
       </c>
       <c r="L65" s="12">
-        <f>AVERAGE(L55:L64)</f>
+        <f t="shared" si="3"/>
         <v>39534.564988198043</v>
       </c>
       <c r="M65" s="12">
-        <f>AVERAGE(M55:M64)</f>
+        <f t="shared" si="3"/>
         <v>84.830999999999989</v>
       </c>
       <c r="N65" s="12">
-        <f>AVERAGE(N55:N64)</f>
+        <f t="shared" si="3"/>
         <v>69.951999999999998</v>
       </c>
       <c r="O65" s="12">
-        <f>AVERAGE(O55:O64)</f>
+        <f t="shared" si="3"/>
         <v>39193.875388758395</v>
       </c>
       <c r="P65" s="12">
-        <f>AVERAGE(P55:P64)</f>
+        <f t="shared" si="3"/>
         <v>85.763000000000005</v>
       </c>
       <c r="Q65" s="12">
-        <f>AVERAGE(Q55:Q64)</f>
+        <f t="shared" si="3"/>
         <v>70.722000000000008</v>
       </c>
       <c r="R65" s="12">
-        <f>AVERAGE(R55:R64)</f>
+        <f t="shared" si="3"/>
         <v>38023.602570881136</v>
       </c>
       <c r="S65" s="12">
-        <f>AVERAGE(S55:S64)</f>
+        <f t="shared" si="3"/>
         <v>88.277000000000001</v>
       </c>
       <c r="T65" s="12">
-        <f>AVERAGE(T55:T64)</f>
+        <f t="shared" si="3"/>
         <v>72.790999999999983</v>
       </c>
       <c r="U65" s="12">
-        <f>AVERAGE(U55:U64)</f>
+        <f t="shared" si="3"/>
         <v>38458.926283995483</v>
       </c>
       <c r="V65" s="12">
-        <f>AVERAGE(V55:V64)</f>
+        <f t="shared" si="3"/>
         <v>87.38</v>
       </c>
       <c r="W65" s="12">
-        <f>AVERAGE(W55:W64)</f>
+        <f t="shared" si="3"/>
         <v>72.051999999999992</v>
       </c>
       <c r="X65" s="12">
-        <f>AVERAGE(X55:X64)</f>
+        <f t="shared" si="3"/>
         <v>39066.91620513508</v>
       </c>
       <c r="Y65" s="12">
-        <f>AVERAGE(Y55:Y64)</f>
+        <f t="shared" si="3"/>
         <v>85.991</v>
       </c>
       <c r="Z65" s="12">
-        <f>AVERAGE(Z55:Z64)</f>
+        <f t="shared" si="3"/>
         <v>70.908000000000001</v>
       </c>
       <c r="AA65" s="12">
-        <f>AVERAGE(AA55:AA64)</f>
+        <f t="shared" si="3"/>
         <v>37502.696591863489</v>
       </c>
       <c r="AB65" s="12">
-        <f>AVERAGE(AB55:AB64)</f>
+        <f t="shared" si="3"/>
         <v>89.47799999999998</v>
       </c>
       <c r="AC65" s="12">
-        <f>AVERAGE(AC55:AC64)</f>
+        <f t="shared" si="3"/>
         <v>73.783999999999992</v>
       </c>
       <c r="AD65" s="12">
-        <f>AVERAGE(AD55:AD64)</f>
+        <f t="shared" si="3"/>
         <v>36552.108284463764</v>
       </c>
       <c r="AE65" s="12">
-        <f>AVERAGE(AE55:AE64)</f>
+        <f t="shared" si="3"/>
         <v>91.788000000000011</v>
       </c>
       <c r="AF65" s="12">
-        <f>AVERAGE(AF55:AF64)</f>
+        <f t="shared" si="3"/>
         <v>75.69</v>
       </c>
     </row>
@@ -9036,22 +10406,4 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="6" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/Result_sheet.xlsx
+++ b/Result_sheet.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9084" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="48" sheetId="1" r:id="rId1"/>
     <sheet name="51" sheetId="2" r:id="rId2"/>
     <sheet name="52" sheetId="3" r:id="rId3"/>
+    <sheet name="70" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="RMHC_48_100000" localSheetId="0">'48'!$AG$7:$AI$19</definedName>
@@ -42,6 +43,16 @@
     <definedName name="RMHC_52_70000" localSheetId="2">'52'!$U$7:$W$16</definedName>
     <definedName name="RMHC_52_80000" localSheetId="2">'52'!$X$7:$Z$16</definedName>
     <definedName name="RMHC_52_90000" localSheetId="2">'52'!$AA$7:$AC$16</definedName>
+    <definedName name="RMHC_70_10000" localSheetId="3">'70'!$C$7:$E$16</definedName>
+    <definedName name="RMHC_70_100000" localSheetId="3">'70'!$AD$7:$AF$16</definedName>
+    <definedName name="RMHC_70_20000" localSheetId="3">'70'!$F$7:$H$16</definedName>
+    <definedName name="RMHC_70_30000" localSheetId="3">'70'!$I$7:$K$16</definedName>
+    <definedName name="RMHC_70_40000" localSheetId="3">'70'!$L$7:$N$16</definedName>
+    <definedName name="RMHC_70_50000" localSheetId="3">'70'!$O$7:$Q$16</definedName>
+    <definedName name="RMHC_70_60000" localSheetId="3">'70'!$R$7:$T$16</definedName>
+    <definedName name="RMHC_70_70000" localSheetId="3">'70'!$U$7:$W$16</definedName>
+    <definedName name="RMHC_70_80000" localSheetId="3">'70'!$X$7:$Z$16</definedName>
+    <definedName name="RMHC_70_90000" localSheetId="3">'70'!$AA$7:$AC$16</definedName>
     <definedName name="RRHC_48_10000" localSheetId="0">'48'!$C$23:$E$32</definedName>
     <definedName name="RRHC_48_100000" localSheetId="0">'48'!$C$65:$E$80</definedName>
     <definedName name="RRHC_48_20000" localSheetId="0">'48'!$F$23:$H$32</definedName>
@@ -72,6 +83,16 @@
     <definedName name="RRHC_52_70000" localSheetId="2">'52'!$U$23:$W$32</definedName>
     <definedName name="RRHC_52_80000" localSheetId="2">'52'!$X$23:$Z$32</definedName>
     <definedName name="RRHC_52_90000" localSheetId="2">'52'!$AA$23:$AC$32</definedName>
+    <definedName name="RRHC_70_10000" localSheetId="3">'70'!$C$23:$E$32</definedName>
+    <definedName name="RRHC_70_100000" localSheetId="3">'70'!$AD$23:$AF$32</definedName>
+    <definedName name="RRHC_70_20000" localSheetId="3">'70'!$F$23:$H$32</definedName>
+    <definedName name="RRHC_70_30000" localSheetId="3">'70'!$I$23:$K$32</definedName>
+    <definedName name="RRHC_70_40000" localSheetId="3">'70'!$L$23:$N$34</definedName>
+    <definedName name="RRHC_70_50000" localSheetId="3">'70'!$O$23:$Q$32</definedName>
+    <definedName name="RRHC_70_60000" localSheetId="3">'70'!$R$23:$T$32</definedName>
+    <definedName name="RRHC_70_70000" localSheetId="3">'70'!$U$23:$W$32</definedName>
+    <definedName name="RRHC_70_80000" localSheetId="3">'70'!$X$23:$Z$32</definedName>
+    <definedName name="RRHC_70_90000" localSheetId="3">'70'!$AA$23:$AC$32</definedName>
     <definedName name="SA_48_10000" localSheetId="0">'48'!$C$55:$E$64</definedName>
     <definedName name="SA_48_100000" localSheetId="0">'48'!$AD$55:$AF$70</definedName>
     <definedName name="SA_48_20000" localSheetId="0">'48'!$F$55:$H$64</definedName>
@@ -102,6 +123,16 @@
     <definedName name="SA_52_70001" localSheetId="2">'52'!$U$56:$W$65</definedName>
     <definedName name="SA_52_80000" localSheetId="2">'52'!$X$56:$Z$66</definedName>
     <definedName name="SA_52_90000" localSheetId="2">'52'!$AA$56:$AC$65</definedName>
+    <definedName name="SA_70_10000" localSheetId="3">'70'!$C$55:$E$64</definedName>
+    <definedName name="SA_70_100000" localSheetId="3">'70'!$AD$55:$AF$64</definedName>
+    <definedName name="SA_70_20000" localSheetId="3">'70'!$F$55:$H$64</definedName>
+    <definedName name="SA_70_30000" localSheetId="3">'70'!$I$55:$K$64</definedName>
+    <definedName name="SA_70_40000" localSheetId="3">'70'!$L$55:$N$64</definedName>
+    <definedName name="SA_70_50000" localSheetId="3">'70'!$O$55:$Q$64</definedName>
+    <definedName name="SA_70_60000" localSheetId="3">'70'!$R$55:$T$64</definedName>
+    <definedName name="SA_70_70000" localSheetId="3">'70'!$U$55:$W$64</definedName>
+    <definedName name="SA_70_80000" localSheetId="3">'70'!$X$55:$Z$64</definedName>
+    <definedName name="SA_70_90000" localSheetId="3">'70'!$AA$55:$AC$64</definedName>
     <definedName name="SHC_48_10000" localSheetId="0">'48'!$C$39:$E$48</definedName>
     <definedName name="SHC_48_20000" localSheetId="0">'48'!$F$39:$H$48</definedName>
     <definedName name="SHC_48_30000" localSheetId="0">'48'!$I$39:$K$48</definedName>
@@ -130,6 +161,16 @@
     <definedName name="SHC_52_70000" localSheetId="2">'52'!$U$40:$W$49</definedName>
     <definedName name="SHC_52_80000" localSheetId="2">'52'!$X$40:$Z$49</definedName>
     <definedName name="SHC_52_90000" localSheetId="2">'52'!$AA$40:$AC$49</definedName>
+    <definedName name="SHC_70_10000" localSheetId="3">'70'!$C$39:$E$48</definedName>
+    <definedName name="SHC_70_100000" localSheetId="3">'70'!$AD$39:$AF$48</definedName>
+    <definedName name="SHC_70_20000" localSheetId="3">'70'!$F$39:$H$49</definedName>
+    <definedName name="SHC_70_30000" localSheetId="3">'70'!$I$39:$K$48</definedName>
+    <definedName name="SHC_70_40000" localSheetId="3">'70'!$L$39:$N$48</definedName>
+    <definedName name="SHC_70_50000" localSheetId="3">'70'!$O$39:$Q$48</definedName>
+    <definedName name="SHC_70_60000" localSheetId="3">'70'!$R$39:$T$48</definedName>
+    <definedName name="SHC_70_70000" localSheetId="3">'70'!$U$39:$W$48</definedName>
+    <definedName name="SHC_70_80000" localSheetId="3">'70'!$X$39:$Z$48</definedName>
+    <definedName name="SHC_70_90000" localSheetId="3">'70'!$AA$39:$AC$48</definedName>
   </definedNames>
   <calcPr calcId="171027"/>
   <extLst>
@@ -367,8 +408,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="26" name="RRHC_48_10000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_10000.txt" space="1" consecutive="1">
+  <connection id="26" name="RMHC_70_10000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RMHC_70_10000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -376,8 +417,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="27" name="RRHC_48_100000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_100000.txt" space="1" consecutive="1">
+  <connection id="27" name="RMHC_70_100000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RMHC_70_100000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -385,8 +426,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="28" name="RRHC_48_20000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_20000.txt" space="1" consecutive="1">
+  <connection id="28" name="RMHC_70_20000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RMHC_70_20000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -394,8 +435,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="29" name="RRHC_48_30000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_30000.txt" space="1" consecutive="1">
+  <connection id="29" name="RMHC_70_30000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RMHC_70_30000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -403,8 +444,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="30" name="RRHC_48_40000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_40000.txt" space="1" consecutive="1">
+  <connection id="30" name="RMHC_70_40000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RMHC_70_40000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -412,8 +453,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="31" name="RRHC_48_50000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_50000.txt" space="1" consecutive="1">
+  <connection id="31" name="RMHC_70_50000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RMHC_70_50000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -421,8 +462,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="32" name="RRHC_48_60000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_60000.txt" space="1" consecutive="1">
+  <connection id="32" name="RMHC_70_60000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RMHC_70_60000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -430,8 +471,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="33" name="RRHC_48_70000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_70000.txt" space="1" consecutive="1">
+  <connection id="33" name="RMHC_70_70000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RMHC_70_70000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -439,8 +480,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="34" name="RRHC_48_80000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_80000.txt" space="1" consecutive="1">
+  <connection id="34" name="RMHC_70_80000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RMHC_70_80000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -448,8 +489,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="35" name="RRHC_48_90000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_90000.txt" space="1" consecutive="1">
+  <connection id="35" name="RMHC_70_90000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RMHC_70_90000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -457,8 +498,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="36" name="RRHC_51_10000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_10000.txt" space="1" consecutive="1">
+  <connection id="36" name="RRHC_48_10000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_10000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -466,8 +507,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="37" name="RRHC_51_100000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_100000.txt" space="1" consecutive="1">
+  <connection id="37" name="RRHC_48_100000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_100000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -475,8 +516,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="38" name="RRHC_51_20000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_20000.txt" space="1" consecutive="1">
+  <connection id="38" name="RRHC_48_20000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_20000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -484,8 +525,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="39" name="RRHC_51_30000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_30000.txt" space="1" consecutive="1">
+  <connection id="39" name="RRHC_48_30000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_30000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -493,8 +534,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="40" name="RRHC_51_40000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_40000.txt" space="1" consecutive="1">
+  <connection id="40" name="RRHC_48_40000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_40000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -502,8 +543,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="41" name="RRHC_51_50000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_50000.txt" space="1" consecutive="1">
+  <connection id="41" name="RRHC_48_50000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_50000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -511,8 +552,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="42" name="RRHC_51_60000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_60000.txt" space="1" consecutive="1">
+  <connection id="42" name="RRHC_48_60000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_60000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -520,8 +561,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="43" name="RRHC_51_70000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_70000.txt" space="1" consecutive="1">
+  <connection id="43" name="RRHC_48_70000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_70000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -529,8 +570,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="44" name="RRHC_51_80000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_80000.txt" space="1" consecutive="1">
+  <connection id="44" name="RRHC_48_80000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_80000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -538,8 +579,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="45" name="RRHC_51_90000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_90000.txt" space="1" consecutive="1">
+  <connection id="45" name="RRHC_48_90000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\RRHC_48_90000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -547,8 +588,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="46" name="RRHC_52_10000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_10000.txt" space="1" consecutive="1">
+  <connection id="46" name="RRHC_51_10000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_10000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -556,8 +597,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="47" name="RRHC_52_100000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_100000.txt" space="1" consecutive="1">
+  <connection id="47" name="RRHC_51_100000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_100000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -565,8 +606,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="48" name="RRHC_52_20000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_20000.txt" space="1" consecutive="1">
+  <connection id="48" name="RRHC_51_20000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_20000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -574,8 +615,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="49" name="RRHC_52_30000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_30000.txt" space="1" consecutive="1">
+  <connection id="49" name="RRHC_51_30000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_30000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -583,8 +624,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="50" name="RRHC_52_40000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_40000.txt" space="1" consecutive="1">
+  <connection id="50" name="RRHC_51_40000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_40000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -592,8 +633,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="51" name="RRHC_52_50000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_50000.txt" space="1" consecutive="1">
+  <connection id="51" name="RRHC_51_50000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_50000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -601,8 +642,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="52" name="RRHC_52_60000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_60000.txt" space="1" consecutive="1">
+  <connection id="52" name="RRHC_51_60000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_60000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -610,8 +651,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="53" name="RRHC_52_70000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_70000.txt" space="1" consecutive="1">
+  <connection id="53" name="RRHC_51_70000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_70000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -619,8 +660,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="54" name="RRHC_52_80000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_80000.txt" space="1" consecutive="1">
+  <connection id="54" name="RRHC_51_80000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_80000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -628,8 +669,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="55" name="RRHC_52_90000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_90000.txt" space="1" consecutive="1">
+  <connection id="55" name="RRHC_51_90000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\RRHC_51_90000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -637,8 +678,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="56" name="SA_48_10000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_10000.txt" space="1" consecutive="1">
+  <connection id="56" name="RRHC_52_10000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_10000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -646,8 +687,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="57" name="SA_48_100000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_100000.txt" space="1" consecutive="1">
+  <connection id="57" name="RRHC_52_100000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_100000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -655,8 +696,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="58" name="SA_48_20000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_20000.txt" space="1" consecutive="1">
+  <connection id="58" name="RRHC_52_20000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_20000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -664,8 +705,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="59" name="SA_48_30000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_30000.txt" space="1" consecutive="1">
+  <connection id="59" name="RRHC_52_30000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_30000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -673,8 +714,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="60" name="SA_48_40000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_40000.txt" space="1" consecutive="1">
+  <connection id="60" name="RRHC_52_40000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_40000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -682,8 +723,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="61" name="SA_48_50000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_50000.txt" space="1" consecutive="1">
+  <connection id="61" name="RRHC_52_50000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_50000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -691,8 +732,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="62" name="SA_48_60000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_60000.txt" space="1" consecutive="1">
+  <connection id="62" name="RRHC_52_60000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_60000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -700,8 +741,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="63" name="SA_48_70000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_70000.txt" space="1" consecutive="1">
+  <connection id="63" name="RRHC_52_70000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_70000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -709,8 +750,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="64" name="SA_48_80000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_80000.txt" space="1" consecutive="1">
+  <connection id="64" name="RRHC_52_80000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_80000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -718,8 +759,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="65" name="SA_48_90000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_90000.txt" space="1" consecutive="1">
+  <connection id="65" name="RRHC_52_90000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\RRHC_52_90000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -727,8 +768,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="66" name="SA_51_10000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_10000.txt" space="1" consecutive="1">
+  <connection id="66" name="RRHC_70_10000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RRHC_70_10000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -736,8 +777,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="67" name="SA_51_100000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_100000.txt" space="1" consecutive="1">
+  <connection id="67" name="RRHC_70_100000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RRHC_70_100000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -745,8 +786,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="68" name="SA_51_20000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_20000.txt" space="1" consecutive="1">
+  <connection id="68" name="RRHC_70_20000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RRHC_70_20000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -754,8 +795,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="69" name="SA_51_30000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_30000.txt" space="1" consecutive="1">
+  <connection id="69" name="RRHC_70_30000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RRHC_70_30000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -763,8 +804,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="70" name="SA_51_40000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_40000.txt" space="1" consecutive="1">
+  <connection id="70" name="RRHC_70_40000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RRHC_70_40000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -772,8 +813,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="71" name="SA_51_50000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_50000.txt" space="1" consecutive="1">
+  <connection id="71" name="RRHC_70_50000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RRHC_70_50000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -781,8 +822,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="72" name="SA_51_60000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_60000.txt" space="1" consecutive="1">
+  <connection id="72" name="RRHC_70_60000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RRHC_70_60000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -790,8 +831,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="73" name="SA_51_70000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_70000.txt" space="1" consecutive="1">
+  <connection id="73" name="RRHC_70_70000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RRHC_70_70000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -799,8 +840,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="74" name="SA_51_80000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_80000.txt" space="1" consecutive="1">
+  <connection id="74" name="RRHC_70_80000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RRHC_70_80000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -808,8 +849,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="75" name="SA_51_90000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_90000.txt" space="1" consecutive="1">
+  <connection id="75" name="RRHC_70_90000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\RRHC_70_90000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -817,8 +858,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="76" name="SA_52_10000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_10000.txt" space="1" consecutive="1">
+  <connection id="76" name="SA_48_10000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_10000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -826,8 +867,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="77" name="SA_52_100000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_100000.txt" space="1" consecutive="1">
+  <connection id="77" name="SA_48_100000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_100000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -835,8 +876,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="78" name="SA_52_20000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_20000.txt" space="1" consecutive="1">
+  <connection id="78" name="SA_48_20000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_20000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -844,8 +885,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="79" name="SA_52_30000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_30000.txt" space="1" consecutive="1">
+  <connection id="79" name="SA_48_30000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_30000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -853,8 +894,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="80" name="SA_52_40000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_40000.txt" space="1" consecutive="1">
+  <connection id="80" name="SA_48_40000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_40000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -862,8 +903,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="81" name="SA_52_50000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_50000.txt" space="1" consecutive="1">
+  <connection id="81" name="SA_48_50000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_50000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -871,8 +912,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="82" name="SA_52_60000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_60000.txt" space="1" consecutive="1">
+  <connection id="82" name="SA_48_60000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_60000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -880,8 +921,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="83" name="SA_52_700001" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_70000.txt" space="1" consecutive="1">
+  <connection id="83" name="SA_48_70000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_70000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -889,8 +930,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="84" name="SA_52_80000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_80000.txt" space="1" consecutive="1">
+  <connection id="84" name="SA_48_80000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_80000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -898,8 +939,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="85" name="SA_52_90000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_90000.txt" space="1" consecutive="1">
+  <connection id="85" name="SA_48_90000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SA_48_90000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -907,8 +948,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="86" name="SHC_48_10000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_10000.txt" space="1" consecutive="1">
+  <connection id="86" name="SA_51_10000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_10000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -916,8 +957,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="87" name="SHC_48_20000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_20000.txt" space="1" consecutive="1">
+  <connection id="87" name="SA_51_100000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_100000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -925,8 +966,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="88" name="SHC_48_30000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_30000.txt" space="1" consecutive="1">
+  <connection id="88" name="SA_51_20000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_20000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -934,8 +975,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="89" name="SHC_48_40000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_40000.txt" space="1" consecutive="1">
+  <connection id="89" name="SA_51_30000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_30000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -943,8 +984,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="90" name="SHC_48_50000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_50000.txt" space="1" consecutive="1">
+  <connection id="90" name="SA_51_40000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_40000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -952,8 +993,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="91" name="SHC_48_60000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_60000.txt" space="1" consecutive="1">
+  <connection id="91" name="SA_51_50000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_50000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -961,8 +1002,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="92" name="SHC_48_70000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_70000.txt" space="1" consecutive="1">
+  <connection id="92" name="SA_51_60000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_60000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -970,8 +1011,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="93" name="SHC_48_80000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_80000.txt" space="1" consecutive="1">
+  <connection id="93" name="SA_51_70000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_70000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -979,8 +1020,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="94" name="SHC_51_10000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_10000.txt" space="1" consecutive="1">
+  <connection id="94" name="SA_51_80000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_80000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -988,8 +1029,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="95" name="SHC_51_100000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_100000.txt" space="1" consecutive="1">
+  <connection id="95" name="SA_51_90000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SA_51_90000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -997,8 +1038,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="96" name="SHC_51_20000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_20000.txt" space="1" consecutive="1">
+  <connection id="96" name="SA_52_10000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_10000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1006,8 +1047,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="97" name="SHC_51_30000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_30000.txt" space="1" consecutive="1">
+  <connection id="97" name="SA_52_100000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_100000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1015,8 +1056,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="98" name="SHC_51_40000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_40000.txt" space="1" consecutive="1">
+  <connection id="98" name="SA_52_20000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_20000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1024,8 +1065,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="99" name="SHC_51_50000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_50000.txt" space="1" consecutive="1">
+  <connection id="99" name="SA_52_30000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_30000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1033,8 +1074,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="100" name="SHC_51_60000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_60000.txt" space="1" consecutive="1">
+  <connection id="100" name="SA_52_40000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_40000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1042,8 +1083,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="101" name="SHC_51_70000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_70000.txt" space="1" consecutive="1">
+  <connection id="101" name="SA_52_50000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_50000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1051,8 +1092,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="102" name="SHC_51_80000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_80000.txt" space="1" consecutive="1">
+  <connection id="102" name="SA_52_60000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_60000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1060,8 +1101,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="103" name="SHC_51_90000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_90000.txt" space="1" consecutive="1">
+  <connection id="103" name="SA_52_700001" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_70000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1069,8 +1110,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="104" name="SHC_52_10000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_10000.txt" space="1" consecutive="1">
+  <connection id="104" name="SA_52_80000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_80000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1078,8 +1119,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="105" name="SHC_52_100000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_100000.txt" space="1" consecutive="1">
+  <connection id="105" name="SA_52_90000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SA_52_90000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1087,8 +1128,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="106" name="SHC_52_20000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_20000.txt" space="1" consecutive="1">
+  <connection id="106" name="SA_70_10000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SA_70_10000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1096,8 +1137,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="107" name="SHC_52_30000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_30000.txt" space="1" consecutive="1">
+  <connection id="107" name="SA_70_100000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SA_70_100000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1105,8 +1146,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="108" name="SHC_52_40000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_40000.txt" space="1" consecutive="1">
+  <connection id="108" name="SA_70_20000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SA_70_20000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1114,8 +1155,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="109" name="SHC_52_50000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_50000.txt" space="1" consecutive="1">
+  <connection id="109" name="SA_70_30000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SA_70_30000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1123,8 +1164,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="110" name="SHC_52_60000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_60000.txt" space="1" consecutive="1">
+  <connection id="110" name="SA_70_40000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SA_70_40000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1132,8 +1173,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="111" name="SHC_52_70000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_70000.txt" space="1" consecutive="1">
+  <connection id="111" name="SA_70_50000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SA_70_50000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1141,8 +1182,8 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="112" name="SHC_52_80000" type="6" refreshedVersion="6" background="1" saveData="1">
-    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_80000.txt" space="1" consecutive="1">
+  <connection id="112" name="SA_70_60000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SA_70_60000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1150,8 +1191,368 @@
       </textFields>
     </textPr>
   </connection>
-  <connection id="113" name="SHC_52_90000" type="6" refreshedVersion="6" background="1" saveData="1">
+  <connection id="113" name="SA_70_70000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SA_70_70000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="114" name="SA_70_80000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SA_70_80000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="115" name="SA_70_90000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SA_70_90000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="116" name="SHC_48_10000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_10000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="117" name="SHC_48_20000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_20000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="118" name="SHC_48_30000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_30000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="119" name="SHC_48_40000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_40000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="120" name="SHC_48_50000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_50000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="121" name="SHC_48_60000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_60000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="122" name="SHC_48_70000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_70000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="123" name="SHC_48_80000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\48\SHC_48_80000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="124" name="SHC_51_10000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_10000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="125" name="SHC_51_100000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_100000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="126" name="SHC_51_20000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_20000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="127" name="SHC_51_30000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_30000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="128" name="SHC_51_40000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_40000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="129" name="SHC_51_50000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_50000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="130" name="SHC_51_60000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_60000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="131" name="SHC_51_70000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_70000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="132" name="SHC_51_80000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_80000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="133" name="SHC_51_90000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\51\SHC_51_90000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="134" name="SHC_52_10000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_10000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="135" name="SHC_52_100000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_100000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="136" name="SHC_52_20000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_20000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="137" name="SHC_52_30000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_30000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="138" name="SHC_52_40000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_40000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="139" name="SHC_52_50000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_50000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="140" name="SHC_52_60000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_60000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="141" name="SHC_52_70000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_70000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="142" name="SHC_52_80000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_80000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="143" name="SHC_52_90000" type="6" refreshedVersion="6" background="1" saveData="1">
     <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\52\SHC_52_90000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="144" name="SHC_70_10000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SHC_70_10000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="145" name="SHC_70_100000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SHC_70_100000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="146" name="SHC_70_20000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SHC_70_20000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="147" name="SHC_70_30000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SHC_70_30000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="148" name="SHC_70_40000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SHC_70_40000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="149" name="SHC_70_50000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SHC_70_50000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="150" name="SHC_70_60000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SHC_70_60000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="151" name="SHC_70_70000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SHC_70_70000.txt" space="1" consecutive="1">
+      <textFields count="3">
+        <textField/>
+        <textField/>
+        <textField/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="152" name="SHC_70_80000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SHC_70_80000.txt" delimited="0">
+      <textFields count="3">
+        <textField/>
+        <textField position="18"/>
+        <textField position="25"/>
+      </textFields>
+    </textPr>
+  </connection>
+  <connection id="153" name="SHC_70_90000" type="6" refreshedVersion="6" background="1" saveData="1">
+    <textPr codePage="850" sourceFile="D:\College\Year 2\CS2004 Algorithms and their Applications\CS2004.Eclipse\TSP\results\70\SHC_70_90000.txt" space="1" consecutive="1">
       <textFields count="3">
         <textField/>
         <textField/>
@@ -1163,7 +1564,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="19">
   <si>
     <t>48 CITIES</t>
   </si>
@@ -1295,6 +1696,9 @@
       </rPr>
       <t>Stochastic Hill Climbing</t>
     </r>
+  </si>
+  <si>
+    <t>70 CITIES</t>
   </si>
 </sst>
 </file>
@@ -13936,327 +14340,487 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_70000" connectionId="92" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_30000" connectionId="79" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_20000" connectionId="87" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_10000" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable100.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_40000" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_90000" connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable101.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_30000" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_20000" connectionId="98" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable102.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_20000" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_70001" connectionId="103" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable103.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_10000" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_20000" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable104.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_100000" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_40000" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable105.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_30000" connectionId="137" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable106.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_70000" connectionId="141" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable107.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_60000" connectionId="102" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable108.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_10000" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable109.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_90000" connectionId="25" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable106.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_80000" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable107.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_70000" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable108.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_60000" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable109.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_50000" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_50000" connectionId="90" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_50000" connectionId="120" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable110.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_20000" connectionId="136" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable111.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_40000" connectionId="20" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable111.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_30000" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable112.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_20000" connectionId="18" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_70000" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable113.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_10000" connectionId="16" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_50000" connectionId="139" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable114.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_70_100000" connectionId="107" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable115.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_70_90000" connectionId="115" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable116.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_70_80000" connectionId="114" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable117.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_70_70000" connectionId="113" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable118.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_70_60000" connectionId="112" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable119.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_70_50000" connectionId="111" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_60000" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_10000" connectionId="116" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable120.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_70_40000" connectionId="110" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable121.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_70_30000" connectionId="109" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable122.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_70_20000" connectionId="108" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable123.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_70_10000" connectionId="106" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable124.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_70_100000" connectionId="145" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable125.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_70_90000" connectionId="153" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable126.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_70_80000" connectionId="152" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable127.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_70_70000" connectionId="151" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable128.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_70_60000" connectionId="150" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable129.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_70_50000" connectionId="149" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_90000" connectionId="65" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_50000" connectionId="81" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable130.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_70_40000" connectionId="148" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable131.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_70_30000" connectionId="147" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable132.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_70_20000" connectionId="146" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable133.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_70_10000" connectionId="144" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable134.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_70_100000" connectionId="67" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable135.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_70_90000" connectionId="75" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable136.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_70_80000" connectionId="74" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable137.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_70_70000" connectionId="73" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable138.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_70_60000" connectionId="72" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable139.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_70_50000" connectionId="71" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_70000" connectionId="63" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_60001" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable140.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_70_40000" connectionId="70" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable141.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_70_30000" connectionId="69" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable142.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_70_20000" connectionId="68" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable143.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_70_10000" connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable144.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_70_100000" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable145.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_70_90000" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable146.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_70_80000" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable147.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_70_70000" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable148.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_70_60000" connectionId="32" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable149.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_70_50000" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable15.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_30000" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_80000" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable150.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_70_40000" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable151.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_70_30000" connectionId="29" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable152.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_70_20000" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable153.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_70_10000" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable16.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_10000" connectionId="26" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_40000" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable17.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_60000" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_60000" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_20000" connectionId="78" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_100000" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_70000" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_100000" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable18.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_80000" connectionId="34" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_40000" connectionId="80" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable19.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_60000" connectionId="91" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_30000" connectionId="118" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_20000" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable20.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_40000" connectionId="30" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_90000" connectionId="5" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable22.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_20000" connectionId="28" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable23.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_100000" connectionId="27" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable24.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_10000" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable25.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_80000" connectionId="4" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_90000" connectionId="85" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable26.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_30000" connectionId="88" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_60000" connectionId="82" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable27.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_70000" connectionId="33" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_40000" connectionId="119" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable28.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_60001" connectionId="31" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_20000" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable29.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_70000" connectionId="3" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_80000" connectionId="123" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_60000" connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_30000" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable30.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_40000" connectionId="89" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_100000" connectionId="77" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable31.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_30000" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_70000" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable32.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_90000" connectionId="35" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_80000" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable33.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_50000" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_70000" connectionId="83" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable34.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_20000" connectionId="126" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_30000" connectionId="127" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_51_30000" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_20000" connectionId="48" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_60000" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_51_50000" connectionId="11" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_20000" connectionId="117" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_100000" connectionId="87" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_60000" connectionId="92" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_70000" connectionId="93" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_10000" connectionId="46" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_100000" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_90000" connectionId="133" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_50000" connectionId="91" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_51_100000" connectionId="7" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable36.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_80000" connectionId="44" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_51_20000" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable37.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_60000" connectionId="100" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_30000" connectionId="89" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable38.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_10000" connectionId="66" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_80000" connectionId="84" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable39.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_100000" connectionId="67" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_100000" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable40.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_50000" connectionId="71" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_51_80000" connectionId="14" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable42.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_30000" connectionId="39" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_51_10000" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable43.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_60000" connectionId="42" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_90000" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable44.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_10000" connectionId="94" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_80000" connectionId="132" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable45.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_90000" connectionId="103" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_40000" connectionId="90" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable46.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_40000" connectionId="70" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_80000" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable47.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_90000" connectionId="75" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_70000" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable48.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_20000" connectionId="38" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_51_90000" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable49.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_40000" connectionId="98" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_40000" connectionId="50" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_80000" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_80000" connectionId="94" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable50.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_30000" connectionId="69" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_48_90000" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable51.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_30000" connectionId="49" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_60000" connectionId="130" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_50000" connectionId="129" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_20000" connectionId="88" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+</file>
+
+<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_51_70000" connectionId="13" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
-<file path=xl/queryTables/queryTable52.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_50000" connectionId="41" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable53.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_100000" connectionId="37" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable54.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_80000" connectionId="102" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable55.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_80000" connectionId="74" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable56.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_51_30000" connectionId="9" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable57.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_51_60000" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable58.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_10000" connectionId="36" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable59.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_90000" connectionId="45" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_10000" connectionId="86" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable60.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_20000" connectionId="68" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable61.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_70000" connectionId="73" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable62.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_51_20000" connectionId="8" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable63.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_40000" connectionId="40" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
-<file path=xl/queryTables/queryTable64.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_30000" connectionId="97" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
-</file>
-
 <file path=xl/queryTables/queryTable65.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_70000" connectionId="101" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_90000" connectionId="95" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable66.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_60000" connectionId="72" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_51_10000" connectionId="86" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable67.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_51_10000" connectionId="6" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_100000" connectionId="125" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable68.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_51_90000" connectionId="15" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_70000" connectionId="131" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable69.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_20000" connectionId="96" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_50000" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_48_60000" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_60000" connectionId="121" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable70.xml><?xml version="1.0" encoding="utf-8"?>
@@ -14264,127 +14828,127 @@
 </file>
 
 <file path=xl/queryTables/queryTable71.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_51_70000" connectionId="43" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_51_60000" connectionId="12" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable72.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_50000" connectionId="99" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_40000" connectionId="128" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable73.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_100000" connectionId="95" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_51_10000" connectionId="124" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable74.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_100000" connectionId="77" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_100000" connectionId="135" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable75.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_90000" connectionId="85" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_50000" connectionId="21" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable76.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_80000" connectionId="84" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_100000" connectionId="17" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable77.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_70001" connectionId="83" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_80000" connectionId="64" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable78.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_60000" connectionId="82" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_60000" connectionId="140" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable79.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_50000" connectionId="81" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_10000" connectionId="96" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_40000" connectionId="60" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_70000" connectionId="122" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable80.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_40000" connectionId="80" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_100000" connectionId="97" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable81.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_30000" connectionId="79" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_50000" connectionId="101" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable82.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_20000" connectionId="78" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_80000" connectionId="24" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable83.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_10000" connectionId="76" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_30000" connectionId="59" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable84.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_100000" connectionId="105" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_60000" connectionId="62" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable85.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_90000" connectionId="113" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_10000" connectionId="134" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable86.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_80000" connectionId="112" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_90000" connectionId="143" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable87.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_70000" connectionId="111" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_40000" connectionId="100" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable88.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_60000" connectionId="110" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_90000" connectionId="105" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable89.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_50000" connectionId="109" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_20000" connectionId="58" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_48_80000" connectionId="93" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_48_10000" connectionId="76" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable90.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_40000" connectionId="108" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_40000" connectionId="138" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable91.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_30000" connectionId="107" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_30000" connectionId="99" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable92.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_20000" connectionId="106" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_70000" connectionId="23" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable93.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_10000" connectionId="104" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_50000" connectionId="61" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable94.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_100000" connectionId="47" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_100000" connectionId="57" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable95.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_90000" connectionId="55" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SHC_52_80000" connectionId="142" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable96.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_80000" connectionId="54" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="SA_52_80000" connectionId="104" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable97.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_70000" connectionId="53" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_30000" connectionId="19" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable98.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_60000" connectionId="52" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RMHC_52_60000" connectionId="22" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable99.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_50000" connectionId="51" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="RRHC_52_10000" connectionId="56" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -25036,8 +25600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AL66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AD107" sqref="AD107"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -26269,123 +26833,123 @@
         <v>12</v>
       </c>
       <c r="C17" s="12">
-        <f>AVERAGE(C7:C16)</f>
+        <f t="shared" ref="C17:AF17" si="0">AVERAGE(C7:C16)</f>
         <v>10486.232346530845</v>
       </c>
       <c r="D17" s="12">
-        <f>AVERAGE(D7:D16)</f>
+        <f t="shared" si="0"/>
         <v>72.042000000000002</v>
       </c>
       <c r="E17" s="12">
-        <f>AVERAGE(E7:E16)</f>
+        <f t="shared" si="0"/>
         <v>58.073999999999998</v>
       </c>
       <c r="F17" s="12">
-        <f>AVERAGE(F7:F16)</f>
+        <f t="shared" si="0"/>
         <v>10420.652585233394</v>
       </c>
       <c r="G17" s="12">
-        <f>AVERAGE(G7:G16)</f>
+        <f t="shared" si="0"/>
         <v>72.452000000000012</v>
       </c>
       <c r="H17" s="12">
-        <f>AVERAGE(H7:H16)</f>
+        <f t="shared" si="0"/>
         <v>58.403999999999996</v>
       </c>
       <c r="I17" s="12">
-        <f>AVERAGE(I7:I16)</f>
+        <f t="shared" si="0"/>
         <v>10231.369995579711</v>
       </c>
       <c r="J17" s="12">
-        <f>AVERAGE(J7:J16)</f>
+        <f t="shared" si="0"/>
         <v>73.816000000000003</v>
       </c>
       <c r="K17" s="12">
-        <f>AVERAGE(K7:K16)</f>
+        <f t="shared" si="0"/>
         <v>59.503999999999998</v>
       </c>
       <c r="L17" s="12">
-        <f>AVERAGE(L7:L16)</f>
+        <f t="shared" si="0"/>
         <v>10429.457369788384</v>
       </c>
       <c r="M17" s="12">
-        <f>AVERAGE(M7:M16)</f>
+        <f t="shared" si="0"/>
         <v>72.438999999999993</v>
       </c>
       <c r="N17" s="12">
-        <f>AVERAGE(N7:N16)</f>
+        <f t="shared" si="0"/>
         <v>58.393000000000008</v>
       </c>
       <c r="O17" s="12">
-        <f>AVERAGE(O7:O16)</f>
+        <f t="shared" si="0"/>
         <v>10636.488208560637</v>
       </c>
       <c r="P17" s="12">
-        <f>AVERAGE(P7:P16)</f>
+        <f t="shared" si="0"/>
         <v>71.12</v>
       </c>
       <c r="Q17" s="12">
-        <f>AVERAGE(Q7:Q16)</f>
+        <f t="shared" si="0"/>
         <v>57.332000000000008</v>
       </c>
       <c r="R17" s="12">
-        <f>AVERAGE(R7:R16)</f>
+        <f t="shared" si="0"/>
         <v>10507.500670590905</v>
       </c>
       <c r="S17" s="12">
-        <f>AVERAGE(S7:S16)</f>
+        <f t="shared" si="0"/>
         <v>72.085999999999999</v>
       </c>
       <c r="T17" s="12">
-        <f>AVERAGE(T7:T16)</f>
+        <f t="shared" si="0"/>
         <v>58.11</v>
       </c>
       <c r="U17" s="12">
-        <f>AVERAGE(U7:U16)</f>
+        <f t="shared" si="0"/>
         <v>10492.198054414544</v>
       </c>
       <c r="V17" s="12">
-        <f>AVERAGE(V7:V16)</f>
+        <f t="shared" si="0"/>
         <v>72.204000000000008</v>
       </c>
       <c r="W17" s="12">
-        <f>AVERAGE(W7:W16)</f>
+        <f t="shared" si="0"/>
         <v>58.205000000000005</v>
       </c>
       <c r="X17" s="12">
-        <f>AVERAGE(X7:X16)</f>
+        <f t="shared" si="0"/>
         <v>10495.255184509864</v>
       </c>
       <c r="Y17" s="12">
-        <f>AVERAGE(Y7:Y16)</f>
+        <f t="shared" si="0"/>
         <v>72.205999999999989</v>
       </c>
       <c r="Z17" s="12">
-        <f>AVERAGE(Z7:Z16)</f>
+        <f t="shared" si="0"/>
         <v>58.207000000000008</v>
       </c>
       <c r="AA17" s="12">
-        <f>AVERAGE(AA7:AA16)</f>
+        <f t="shared" si="0"/>
         <v>10251.411918074136</v>
       </c>
       <c r="AB17" s="12">
-        <f>AVERAGE(AB7:AB16)</f>
+        <f t="shared" si="0"/>
         <v>73.687999999999988</v>
       </c>
       <c r="AC17" s="12">
-        <f>AVERAGE(AC7:AC16)</f>
+        <f t="shared" si="0"/>
         <v>59.402000000000008</v>
       </c>
       <c r="AD17" s="12">
-        <f>AVERAGE(AD7:AD16)</f>
+        <f t="shared" si="0"/>
         <v>10079.828178237189</v>
       </c>
       <c r="AE17" s="12">
-        <f>AVERAGE(AE7:AE16)</f>
+        <f t="shared" si="0"/>
         <v>75.044999999999987</v>
       </c>
       <c r="AF17" s="12">
-        <f>AVERAGE(AF7:AF16)</f>
+        <f t="shared" si="0"/>
         <v>60.493999999999993</v>
       </c>
     </row>
@@ -27539,123 +28103,123 @@
         <v>12</v>
       </c>
       <c r="C33" s="12">
-        <f>AVERAGE(C23:C32)</f>
+        <f t="shared" ref="C33:AF33" si="1">AVERAGE(C23:C32)</f>
         <v>10173.408374152916</v>
       </c>
       <c r="D33" s="12">
-        <f>AVERAGE(D23:D32)</f>
+        <f t="shared" si="1"/>
         <v>74.222999999999985</v>
       </c>
       <c r="E33" s="12">
-        <f>AVERAGE(E23:E32)</f>
+        <f t="shared" si="1"/>
         <v>59.832000000000008</v>
       </c>
       <c r="F33" s="12">
-        <f>AVERAGE(F23:F32)</f>
+        <f t="shared" si="1"/>
         <v>9962.6497621405288</v>
       </c>
       <c r="G33" s="12">
-        <f>AVERAGE(G23:G32)</f>
+        <f t="shared" si="1"/>
         <v>75.762</v>
       </c>
       <c r="H33" s="12">
-        <f>AVERAGE(H23:H32)</f>
+        <f t="shared" si="1"/>
         <v>61.072000000000003</v>
       </c>
       <c r="I33" s="12">
-        <f>AVERAGE(I23:I32)</f>
+        <f t="shared" si="1"/>
         <v>9716.3277753372622</v>
       </c>
       <c r="J33" s="12">
-        <f>AVERAGE(J23:J32)</f>
+        <f t="shared" si="1"/>
         <v>77.756</v>
       </c>
       <c r="K33" s="12">
-        <f>AVERAGE(K23:K32)</f>
+        <f t="shared" si="1"/>
         <v>62.682000000000002</v>
       </c>
       <c r="L33" s="12">
-        <f>AVERAGE(L23:L32)</f>
+        <f t="shared" si="1"/>
         <v>10040.334814729402</v>
       </c>
       <c r="M33" s="12">
-        <f>AVERAGE(M23:M32)</f>
+        <f t="shared" si="1"/>
         <v>75.173000000000002</v>
       </c>
       <c r="N33" s="12">
-        <f>AVERAGE(N23:N32)</f>
+        <f t="shared" si="1"/>
         <v>60.597999999999992</v>
       </c>
       <c r="O33" s="12">
-        <f>AVERAGE(O23:O32)</f>
+        <f t="shared" si="1"/>
         <v>9823.4554900764433</v>
       </c>
       <c r="P33" s="12">
-        <f>AVERAGE(P23:P32)</f>
+        <f t="shared" si="1"/>
         <v>76.984999999999985</v>
       </c>
       <c r="Q33" s="12">
-        <f>AVERAGE(Q23:Q32)</f>
+        <f t="shared" si="1"/>
         <v>62.058000000000007</v>
       </c>
       <c r="R33" s="12">
-        <f>AVERAGE(R23:R32)</f>
+        <f t="shared" si="1"/>
         <v>9850.1586582195214</v>
       </c>
       <c r="S33" s="12">
-        <f>AVERAGE(S23:S32)</f>
+        <f t="shared" si="1"/>
         <v>76.98599999999999</v>
       </c>
       <c r="T33" s="12">
-        <f>AVERAGE(T23:T32)</f>
+        <f t="shared" si="1"/>
         <v>62.06</v>
       </c>
       <c r="U33" s="12">
-        <f>AVERAGE(U23:U32)</f>
+        <f t="shared" si="1"/>
         <v>10145.957993168364</v>
       </c>
       <c r="V33" s="12">
-        <f>AVERAGE(V23:V32)</f>
+        <f t="shared" si="1"/>
         <v>74.427999999999997</v>
       </c>
       <c r="W33" s="12">
-        <f>AVERAGE(W23:W32)</f>
+        <f t="shared" si="1"/>
         <v>59.998000000000005</v>
       </c>
       <c r="X33" s="12">
-        <f>AVERAGE(X23:X32)</f>
+        <f t="shared" si="1"/>
         <v>9774.1209972041415</v>
       </c>
       <c r="Y33" s="12">
-        <f>AVERAGE(Y23:Y32)</f>
+        <f t="shared" si="1"/>
         <v>77.354000000000013</v>
       </c>
       <c r="Z33" s="12">
-        <f>AVERAGE(Z23:Z32)</f>
+        <f t="shared" si="1"/>
         <v>62.356000000000009</v>
       </c>
       <c r="AA33" s="12">
-        <f>AVERAGE(AA23:AA32)</f>
+        <f t="shared" si="1"/>
         <v>10003.864846415643</v>
       </c>
       <c r="AB33" s="12">
-        <f>AVERAGE(AB23:AB32)</f>
+        <f t="shared" si="1"/>
         <v>75.457999999999984</v>
       </c>
       <c r="AC33" s="12">
-        <f>AVERAGE(AC23:AC32)</f>
+        <f t="shared" si="1"/>
         <v>60.830000000000005</v>
       </c>
       <c r="AD33" s="12">
-        <f>AVERAGE(AD23:AD32)</f>
+        <f t="shared" si="1"/>
         <v>9917.6907689366799</v>
       </c>
       <c r="AE33" s="12">
-        <f>AVERAGE(AE23:AE32)</f>
+        <f t="shared" si="1"/>
         <v>76.249000000000009</v>
       </c>
       <c r="AF33" s="12">
-        <f>AVERAGE(AF23:AF32)</f>
+        <f t="shared" si="1"/>
         <v>61.464999999999996</v>
       </c>
     </row>
@@ -28809,123 +29373,123 @@
         <v>12</v>
       </c>
       <c r="C50" s="12">
-        <f>AVERAGE(C40:C49)</f>
+        <f t="shared" ref="C50:AF50" si="2">AVERAGE(C40:C49)</f>
         <v>10717.529986246271</v>
       </c>
       <c r="D50" s="12">
-        <f>AVERAGE(D40:D49)</f>
+        <f t="shared" si="2"/>
         <v>70.489999999999995</v>
       </c>
       <c r="E50" s="12">
-        <f>AVERAGE(E40:E49)</f>
+        <f t="shared" si="2"/>
         <v>56.823</v>
       </c>
       <c r="F50" s="12">
-        <f>AVERAGE(F40:F49)</f>
+        <f t="shared" si="2"/>
         <v>10500.60103544821</v>
       </c>
       <c r="G50" s="12">
-        <f>AVERAGE(G40:G49)</f>
+        <f t="shared" si="2"/>
         <v>71.998000000000005</v>
       </c>
       <c r="H50" s="12">
-        <f>AVERAGE(H40:H49)</f>
+        <f t="shared" si="2"/>
         <v>58.04</v>
       </c>
       <c r="I50" s="12">
-        <f>AVERAGE(I40:I49)</f>
+        <f t="shared" si="2"/>
         <v>10451.346116967285</v>
       </c>
       <c r="J50" s="12">
-        <f>AVERAGE(J40:J49)</f>
+        <f t="shared" si="2"/>
         <v>72.332000000000008</v>
       </c>
       <c r="K50" s="12">
-        <f>AVERAGE(K40:K49)</f>
+        <f t="shared" si="2"/>
         <v>58.307000000000002</v>
       </c>
       <c r="L50" s="12">
-        <f>AVERAGE(L40:L49)</f>
+        <f t="shared" si="2"/>
         <v>10197.233763457294</v>
       </c>
       <c r="M50" s="12">
-        <f>AVERAGE(M40:M49)</f>
+        <f t="shared" si="2"/>
         <v>74.045999999999992</v>
       </c>
       <c r="N50" s="12">
-        <f>AVERAGE(N40:N49)</f>
+        <f t="shared" si="2"/>
         <v>59.689</v>
       </c>
       <c r="O50" s="12">
-        <f>AVERAGE(O40:O49)</f>
+        <f t="shared" si="2"/>
         <v>9694.88959137446</v>
       </c>
       <c r="P50" s="12">
-        <f>AVERAGE(P40:P49)</f>
+        <f t="shared" si="2"/>
         <v>77.911999999999992</v>
       </c>
       <c r="Q50" s="12">
-        <f>AVERAGE(Q40:Q49)</f>
+        <f t="shared" si="2"/>
         <v>62.807000000000002</v>
       </c>
       <c r="R50" s="12">
-        <f>AVERAGE(R40:R49)</f>
+        <f t="shared" si="2"/>
         <v>9799.2362169377193</v>
       </c>
       <c r="S50" s="12">
-        <f>AVERAGE(S40:S49)</f>
+        <f t="shared" si="2"/>
         <v>77.150000000000006</v>
       </c>
       <c r="T50" s="12">
-        <f>AVERAGE(T40:T49)</f>
+        <f t="shared" si="2"/>
         <v>62.193000000000005</v>
       </c>
       <c r="U50" s="12">
-        <f>AVERAGE(U40:U49)</f>
+        <f t="shared" si="2"/>
         <v>9845.1652102450262</v>
       </c>
       <c r="V50" s="12">
-        <f>AVERAGE(V40:V49)</f>
+        <f t="shared" si="2"/>
         <v>76.74799999999999</v>
       </c>
       <c r="W50" s="12">
-        <f>AVERAGE(W40:W49)</f>
+        <f t="shared" si="2"/>
         <v>61.869000000000007</v>
       </c>
       <c r="X50" s="12">
-        <f>AVERAGE(X40:X49)</f>
+        <f t="shared" si="2"/>
         <v>9795.5453110598828</v>
       </c>
       <c r="Y50" s="12">
-        <f>AVERAGE(Y40:Y49)</f>
+        <f t="shared" si="2"/>
         <v>77.126999999999995</v>
       </c>
       <c r="Z50" s="12">
-        <f>AVERAGE(Z40:Z49)</f>
+        <f t="shared" si="2"/>
         <v>62.171000000000006</v>
       </c>
       <c r="AA50" s="12">
-        <f>AVERAGE(AA40:AA49)</f>
+        <f t="shared" si="2"/>
         <v>9800.5755165210521</v>
       </c>
       <c r="AB50" s="12">
-        <f>AVERAGE(AB40:AB49)</f>
+        <f t="shared" si="2"/>
         <v>77.190000000000012</v>
       </c>
       <c r="AC50" s="12">
-        <f>AVERAGE(AC40:AC49)</f>
+        <f t="shared" si="2"/>
         <v>62.224000000000004</v>
       </c>
       <c r="AD50" s="12">
-        <f>AVERAGE(AD40:AD49)</f>
+        <f t="shared" si="2"/>
         <v>9750.1543581876285</v>
       </c>
       <c r="AE50" s="12">
-        <f>AVERAGE(AE40:AE49)</f>
+        <f t="shared" si="2"/>
         <v>77.49199999999999</v>
       </c>
       <c r="AF50" s="12">
-        <f>AVERAGE(AF40:AF49)</f>
+        <f t="shared" si="2"/>
         <v>62.469000000000008</v>
       </c>
     </row>
@@ -30079,123 +30643,123 @@
         <v>12</v>
       </c>
       <c r="C66" s="12">
-        <f>AVERAGE(C56:C65)</f>
+        <f t="shared" ref="C66:AF66" si="3">AVERAGE(C56:C65)</f>
         <v>9844.4750348097405</v>
       </c>
       <c r="D66" s="12">
-        <f>AVERAGE(D56:D65)</f>
+        <f t="shared" si="3"/>
         <v>76.842000000000013</v>
       </c>
       <c r="E66" s="12">
-        <f>AVERAGE(E56:E65)</f>
+        <f t="shared" si="3"/>
         <v>61.945000000000007</v>
       </c>
       <c r="F66" s="12">
-        <f>AVERAGE(F56:F65)</f>
+        <f t="shared" si="3"/>
         <v>9672.9152652633984</v>
       </c>
       <c r="G66" s="12">
-        <f>AVERAGE(G56:G65)</f>
+        <f t="shared" si="3"/>
         <v>78.15900000000002</v>
       </c>
       <c r="H66" s="12">
-        <f>AVERAGE(H56:H65)</f>
+        <f t="shared" si="3"/>
         <v>63.00500000000001</v>
       </c>
       <c r="I66" s="12">
-        <f>AVERAGE(I56:I65)</f>
+        <f t="shared" si="3"/>
         <v>9363.9098071884055</v>
       </c>
       <c r="J66" s="12">
-        <f>AVERAGE(J56:J65)</f>
+        <f t="shared" si="3"/>
         <v>80.665000000000006</v>
       </c>
       <c r="K66" s="12">
-        <f>AVERAGE(K56:K65)</f>
+        <f t="shared" si="3"/>
         <v>65.026999999999987</v>
       </c>
       <c r="L66" s="12">
-        <f>AVERAGE(L56:L65)</f>
+        <f t="shared" si="3"/>
         <v>9363.7160272395668</v>
       </c>
       <c r="M66" s="12">
-        <f>AVERAGE(M56:M65)</f>
+        <f t="shared" si="3"/>
         <v>80.738</v>
       </c>
       <c r="N66" s="12">
-        <f>AVERAGE(N56:N65)</f>
+        <f t="shared" si="3"/>
         <v>65.082999999999998</v>
       </c>
       <c r="O66" s="12">
-        <f>AVERAGE(O56:O65)</f>
+        <f t="shared" si="3"/>
         <v>9236.6379091594972</v>
       </c>
       <c r="P66" s="12">
-        <f>AVERAGE(P56:P65)</f>
+        <f t="shared" si="3"/>
         <v>81.89200000000001</v>
       </c>
       <c r="Q66" s="12">
-        <f>AVERAGE(Q56:Q65)</f>
+        <f t="shared" si="3"/>
         <v>66.013999999999996</v>
       </c>
       <c r="R66" s="12">
-        <f>AVERAGE(R56:R65)</f>
+        <f t="shared" si="3"/>
         <v>9282.7358018366685</v>
       </c>
       <c r="S66" s="12">
-        <f>AVERAGE(S56:S65)</f>
+        <f t="shared" si="3"/>
         <v>81.378</v>
       </c>
       <c r="T66" s="12">
-        <f>AVERAGE(T56:T65)</f>
+        <f t="shared" si="3"/>
         <v>65.600999999999999</v>
       </c>
       <c r="U66" s="12">
-        <f>AVERAGE(U56:U65)</f>
+        <f t="shared" si="3"/>
         <v>9168.0710003317363</v>
       </c>
       <c r="V66" s="12">
-        <f>AVERAGE(V56:V65)</f>
+        <f t="shared" si="3"/>
         <v>82.501999999999995</v>
       </c>
       <c r="W66" s="12">
-        <f>AVERAGE(W56:W65)</f>
+        <f t="shared" si="3"/>
         <v>66.50500000000001</v>
       </c>
       <c r="X66" s="12">
-        <f>AVERAGE(X56:X65)</f>
+        <f t="shared" si="3"/>
         <v>8927.098322286256</v>
       </c>
       <c r="Y66" s="12">
-        <f>AVERAGE(Y56:Y65)</f>
+        <f t="shared" si="3"/>
         <v>84.659000000000006</v>
       </c>
       <c r="Z66" s="12">
-        <f>AVERAGE(Z56:Z65)</f>
+        <f t="shared" si="3"/>
         <v>68.245000000000005</v>
       </c>
       <c r="AA66" s="12">
-        <f>AVERAGE(AA56:AA65)</f>
+        <f t="shared" si="3"/>
         <v>9072.1329921597626</v>
       </c>
       <c r="AB66" s="12">
-        <f>AVERAGE(AB56:AB65)</f>
+        <f t="shared" si="3"/>
         <v>83.248999999999995</v>
       </c>
       <c r="AC66" s="12">
-        <f>AVERAGE(AC56:AC65)</f>
+        <f t="shared" si="3"/>
         <v>67.108000000000004</v>
       </c>
       <c r="AD66" s="12">
-        <f>AVERAGE(AD56:AD65)</f>
+        <f t="shared" si="3"/>
         <v>8681.1574065907589</v>
       </c>
       <c r="AE66" s="12">
-        <f>AVERAGE(AE56:AE65)</f>
+        <f t="shared" si="3"/>
         <v>86.980000000000018</v>
       </c>
       <c r="AF66" s="12">
-        <f>AVERAGE(AF56:AF65)</f>
+        <f t="shared" si="3"/>
         <v>70.114999999999995</v>
       </c>
     </row>
@@ -30204,4 +30768,5176 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AL65"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M71" sqref="M71"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="3" max="3" width="8.6640625" customWidth="1"/>
+    <col min="4" max="4" width="9.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" customWidth="1"/>
+    <col min="8" max="8" width="9.77734375" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="10" max="10" width="9.44140625" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" customWidth="1"/>
+    <col min="12" max="12" width="7.6640625" customWidth="1"/>
+    <col min="13" max="13" width="9.44140625" customWidth="1"/>
+    <col min="14" max="14" width="10" customWidth="1"/>
+    <col min="15" max="16" width="9.33203125" customWidth="1"/>
+    <col min="17" max="17" width="9.77734375" customWidth="1"/>
+    <col min="18" max="18" width="8.77734375" customWidth="1"/>
+    <col min="19" max="20" width="9.21875" customWidth="1"/>
+    <col min="21" max="21" width="9" customWidth="1"/>
+    <col min="22" max="22" width="8.6640625" customWidth="1"/>
+    <col min="23" max="23" width="9.6640625" customWidth="1"/>
+    <col min="24" max="24" width="8.77734375" customWidth="1"/>
+    <col min="25" max="25" width="9.44140625" customWidth="1"/>
+    <col min="26" max="26" width="9.88671875" customWidth="1"/>
+    <col min="27" max="27" width="9.109375" customWidth="1"/>
+    <col min="28" max="28" width="9.33203125" customWidth="1"/>
+    <col min="29" max="29" width="9.88671875" customWidth="1"/>
+    <col min="30" max="30" width="9.44140625" customWidth="1"/>
+    <col min="31" max="31" width="9" customWidth="1"/>
+    <col min="32" max="32" width="10.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" ht="41.4" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+      <c r="AE1" s="1"/>
+      <c r="AF1" s="1"/>
+      <c r="AG1" s="1"/>
+      <c r="AH1" s="1"/>
+      <c r="AI1" s="1"/>
+      <c r="AJ1" s="1"/>
+      <c r="AK1" s="1"/>
+      <c r="AL1" s="1"/>
+    </row>
+    <row r="2" spans="1:38" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+      <c r="R3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2"/>
+      <c r="U3" s="2"/>
+      <c r="V3" s="2"/>
+      <c r="W3" s="2"/>
+      <c r="X3" s="2"/>
+      <c r="Y3" s="2"/>
+      <c r="Z3" s="2"/>
+      <c r="AA3" s="2"/>
+      <c r="AB3" s="2"/>
+      <c r="AC3" s="2"/>
+      <c r="AD3" s="2"/>
+      <c r="AE3" s="2"/>
+      <c r="AF3" s="2"/>
+      <c r="AG3" s="2"/>
+      <c r="AH3" s="2"/>
+      <c r="AI3" s="2"/>
+      <c r="AJ3" s="2"/>
+      <c r="AK3" s="2"/>
+      <c r="AL3" s="2"/>
+    </row>
+    <row r="4" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="5" spans="1:38" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="6"/>
+      <c r="D5" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E5" s="7"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8">
+        <v>20000</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K5" s="7"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="8">
+        <v>40000</v>
+      </c>
+      <c r="N5" s="7"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="8">
+        <v>50000</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="8">
+        <v>60000</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="8">
+        <v>70000</v>
+      </c>
+      <c r="W5" s="7"/>
+      <c r="X5" s="6"/>
+      <c r="Y5" s="8">
+        <v>80000</v>
+      </c>
+      <c r="Z5" s="7"/>
+      <c r="AA5" s="6"/>
+      <c r="AB5" s="8">
+        <v>90000</v>
+      </c>
+      <c r="AC5" s="7"/>
+      <c r="AD5" s="6"/>
+      <c r="AE5" s="8">
+        <v>100000</v>
+      </c>
+      <c r="AF5" s="7"/>
+    </row>
+    <row r="6" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="B6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC6" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD6" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B7" s="9">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9">
+        <v>1268.2512373509501</v>
+      </c>
+      <c r="D7" s="9">
+        <v>53.51</v>
+      </c>
+      <c r="E7" s="9">
+        <v>44.64</v>
+      </c>
+      <c r="F7" s="9">
+        <v>1032.7654749266101</v>
+      </c>
+      <c r="G7" s="9">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="H7" s="9">
+        <v>54.82</v>
+      </c>
+      <c r="I7" s="9">
+        <v>1060.04838715597</v>
+      </c>
+      <c r="J7" s="9">
+        <v>64.02</v>
+      </c>
+      <c r="K7" s="9">
+        <v>53.41</v>
+      </c>
+      <c r="L7" s="9">
+        <v>1138.10218896178</v>
+      </c>
+      <c r="M7" s="9">
+        <v>59.63</v>
+      </c>
+      <c r="N7" s="9">
+        <v>49.75</v>
+      </c>
+      <c r="O7" s="9">
+        <v>1148.5060090614099</v>
+      </c>
+      <c r="P7" s="9">
+        <v>59.09</v>
+      </c>
+      <c r="Q7" s="9">
+        <v>49.3</v>
+      </c>
+      <c r="R7" s="9">
+        <v>1103.77880931715</v>
+      </c>
+      <c r="S7" s="9">
+        <v>61.48</v>
+      </c>
+      <c r="T7" s="9">
+        <v>51.3</v>
+      </c>
+      <c r="U7" s="9">
+        <v>1066.4867546391299</v>
+      </c>
+      <c r="V7" s="9">
+        <v>63.63</v>
+      </c>
+      <c r="W7" s="9">
+        <v>53.09</v>
+      </c>
+      <c r="X7" s="9">
+        <v>952.29753184214201</v>
+      </c>
+      <c r="Y7" s="9">
+        <v>71.260000000000005</v>
+      </c>
+      <c r="Z7" s="9">
+        <v>59.46</v>
+      </c>
+      <c r="AA7" s="9">
+        <v>1015.68697626209</v>
+      </c>
+      <c r="AB7" s="9">
+        <v>66.81</v>
+      </c>
+      <c r="AC7" s="9">
+        <v>55.75</v>
+      </c>
+      <c r="AD7" s="9">
+        <v>1168.2931554674999</v>
+      </c>
+      <c r="AE7" s="9">
+        <v>58.08</v>
+      </c>
+      <c r="AF7" s="9">
+        <v>48.46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B8" s="9">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9">
+        <v>1254.9479319945201</v>
+      </c>
+      <c r="D8" s="9">
+        <v>54.07</v>
+      </c>
+      <c r="E8" s="9">
+        <v>45.12</v>
+      </c>
+      <c r="F8" s="9">
+        <v>1163.07971969342</v>
+      </c>
+      <c r="G8" s="9">
+        <v>58.34</v>
+      </c>
+      <c r="H8" s="9">
+        <v>48.68</v>
+      </c>
+      <c r="I8" s="9">
+        <v>1075.9218442761</v>
+      </c>
+      <c r="J8" s="9">
+        <v>63.07</v>
+      </c>
+      <c r="K8" s="9">
+        <v>52.63</v>
+      </c>
+      <c r="L8" s="9">
+        <v>1004.15374287356</v>
+      </c>
+      <c r="M8" s="9">
+        <v>67.58</v>
+      </c>
+      <c r="N8" s="9">
+        <v>56.39</v>
+      </c>
+      <c r="O8" s="9">
+        <v>1145.25328939936</v>
+      </c>
+      <c r="P8" s="9">
+        <v>59.25</v>
+      </c>
+      <c r="Q8" s="9">
+        <v>49.44</v>
+      </c>
+      <c r="R8" s="9">
+        <v>1190.96355395103</v>
+      </c>
+      <c r="S8" s="9">
+        <v>56.98</v>
+      </c>
+      <c r="T8" s="9">
+        <v>47.54</v>
+      </c>
+      <c r="U8" s="9">
+        <v>1128.9025585838499</v>
+      </c>
+      <c r="V8" s="9">
+        <v>60.11</v>
+      </c>
+      <c r="W8" s="9">
+        <v>50.16</v>
+      </c>
+      <c r="X8" s="9">
+        <v>1035.3369096476399</v>
+      </c>
+      <c r="Y8" s="9">
+        <v>65.540000000000006</v>
+      </c>
+      <c r="Z8" s="9">
+        <v>54.69</v>
+      </c>
+      <c r="AA8" s="9">
+        <v>995.34768046729903</v>
+      </c>
+      <c r="AB8" s="9">
+        <v>68.180000000000007</v>
+      </c>
+      <c r="AC8" s="9">
+        <v>56.89</v>
+      </c>
+      <c r="AD8" s="9">
+        <v>1211.2432871726601</v>
+      </c>
+      <c r="AE8" s="9">
+        <v>56.02</v>
+      </c>
+      <c r="AF8" s="9">
+        <v>46.75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B9" s="9">
+        <v>3</v>
+      </c>
+      <c r="C9" s="9">
+        <v>1122.09656862165</v>
+      </c>
+      <c r="D9" s="9">
+        <v>60.48</v>
+      </c>
+      <c r="E9" s="9">
+        <v>50.46</v>
+      </c>
+      <c r="F9" s="9">
+        <v>949.890880998066</v>
+      </c>
+      <c r="G9" s="9">
+        <v>71.44</v>
+      </c>
+      <c r="H9" s="9">
+        <v>59.61</v>
+      </c>
+      <c r="I9" s="9">
+        <v>1008.17451686205</v>
+      </c>
+      <c r="J9" s="9">
+        <v>67.31</v>
+      </c>
+      <c r="K9" s="9">
+        <v>56.16</v>
+      </c>
+      <c r="L9" s="9">
+        <v>994.53057014228204</v>
+      </c>
+      <c r="M9" s="9">
+        <v>68.23</v>
+      </c>
+      <c r="N9" s="9">
+        <v>56.93</v>
+      </c>
+      <c r="O9" s="9">
+        <v>1011.2107198024</v>
+      </c>
+      <c r="P9" s="9">
+        <v>67.11</v>
+      </c>
+      <c r="Q9" s="9">
+        <v>55.99</v>
+      </c>
+      <c r="R9" s="9">
+        <v>889.26540487910097</v>
+      </c>
+      <c r="S9" s="9">
+        <v>76.31</v>
+      </c>
+      <c r="T9" s="9">
+        <v>63.67</v>
+      </c>
+      <c r="U9" s="9">
+        <v>1074.9535026671699</v>
+      </c>
+      <c r="V9" s="9">
+        <v>63.13</v>
+      </c>
+      <c r="W9" s="9">
+        <v>52.67</v>
+      </c>
+      <c r="X9" s="9">
+        <v>1045.17132662279</v>
+      </c>
+      <c r="Y9" s="9">
+        <v>64.930000000000007</v>
+      </c>
+      <c r="Z9" s="9">
+        <v>54.17</v>
+      </c>
+      <c r="AA9" s="9">
+        <v>1070.38753190427</v>
+      </c>
+      <c r="AB9" s="9">
+        <v>63.4</v>
+      </c>
+      <c r="AC9" s="9">
+        <v>52.9</v>
+      </c>
+      <c r="AD9" s="9">
+        <v>1121.5016168929001</v>
+      </c>
+      <c r="AE9" s="9">
+        <v>60.51</v>
+      </c>
+      <c r="AF9" s="9">
+        <v>50.49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B10" s="9">
+        <v>4</v>
+      </c>
+      <c r="C10" s="9">
+        <v>1304.35840800502</v>
+      </c>
+      <c r="D10" s="9">
+        <v>52.03</v>
+      </c>
+      <c r="E10" s="9">
+        <v>43.41</v>
+      </c>
+      <c r="F10" s="9">
+        <v>1116.58498279645</v>
+      </c>
+      <c r="G10" s="9">
+        <v>60.77</v>
+      </c>
+      <c r="H10" s="9">
+        <v>50.71</v>
+      </c>
+      <c r="I10" s="9">
+        <v>1107.0057413997999</v>
+      </c>
+      <c r="J10" s="9">
+        <v>61.3</v>
+      </c>
+      <c r="K10" s="9">
+        <v>51.15</v>
+      </c>
+      <c r="L10" s="9">
+        <v>1017.14727979551</v>
+      </c>
+      <c r="M10" s="9">
+        <v>66.72</v>
+      </c>
+      <c r="N10" s="9">
+        <v>55.67</v>
+      </c>
+      <c r="O10" s="9">
+        <v>1059.1779299975999</v>
+      </c>
+      <c r="P10" s="9">
+        <v>64.069999999999993</v>
+      </c>
+      <c r="Q10" s="9">
+        <v>53.46</v>
+      </c>
+      <c r="R10" s="9">
+        <v>1025.7888773131599</v>
+      </c>
+      <c r="S10" s="9">
+        <v>66.150000000000006</v>
+      </c>
+      <c r="T10" s="9">
+        <v>55.2</v>
+      </c>
+      <c r="U10" s="9">
+        <v>1044.77260664759</v>
+      </c>
+      <c r="V10" s="9">
+        <v>64.95</v>
+      </c>
+      <c r="W10" s="9">
+        <v>54.19</v>
+      </c>
+      <c r="X10" s="9">
+        <v>1053.7478308254799</v>
+      </c>
+      <c r="Y10" s="9">
+        <v>64.400000000000006</v>
+      </c>
+      <c r="Z10" s="9">
+        <v>53.73</v>
+      </c>
+      <c r="AA10" s="9">
+        <v>997.89560725084505</v>
+      </c>
+      <c r="AB10" s="9">
+        <v>68</v>
+      </c>
+      <c r="AC10" s="9">
+        <v>56.74</v>
+      </c>
+      <c r="AD10" s="9">
+        <v>1135.1116212587499</v>
+      </c>
+      <c r="AE10" s="9">
+        <v>59.78</v>
+      </c>
+      <c r="AF10" s="9">
+        <v>49.88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B11" s="9">
+        <v>5</v>
+      </c>
+      <c r="C11" s="9">
+        <v>1031.51998818836</v>
+      </c>
+      <c r="D11" s="9">
+        <v>65.790000000000006</v>
+      </c>
+      <c r="E11" s="9">
+        <v>54.89</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1037.7644076855299</v>
+      </c>
+      <c r="G11" s="9">
+        <v>65.39</v>
+      </c>
+      <c r="H11" s="9">
+        <v>54.56</v>
+      </c>
+      <c r="I11" s="9">
+        <v>1121.6294264006599</v>
+      </c>
+      <c r="J11" s="9">
+        <v>60.5</v>
+      </c>
+      <c r="K11" s="9">
+        <v>50.48</v>
+      </c>
+      <c r="L11" s="9">
+        <v>1103.2638114853301</v>
+      </c>
+      <c r="M11" s="9">
+        <v>61.51</v>
+      </c>
+      <c r="N11" s="9">
+        <v>51.32</v>
+      </c>
+      <c r="O11" s="9">
+        <v>1047.4061829207801</v>
+      </c>
+      <c r="P11" s="9">
+        <v>64.790000000000006</v>
+      </c>
+      <c r="Q11" s="9">
+        <v>54.06</v>
+      </c>
+      <c r="R11" s="9">
+        <v>998.19538883978305</v>
+      </c>
+      <c r="S11" s="9">
+        <v>67.98</v>
+      </c>
+      <c r="T11" s="9">
+        <v>56.72</v>
+      </c>
+      <c r="U11" s="9">
+        <v>1065.2890776321001</v>
+      </c>
+      <c r="V11" s="9">
+        <v>63.7</v>
+      </c>
+      <c r="W11" s="9">
+        <v>53.15</v>
+      </c>
+      <c r="X11" s="9">
+        <v>926.59712109391</v>
+      </c>
+      <c r="Y11" s="9">
+        <v>73.239999999999995</v>
+      </c>
+      <c r="Z11" s="9">
+        <v>61.11</v>
+      </c>
+      <c r="AA11" s="9">
+        <v>1035.35472735188</v>
+      </c>
+      <c r="AB11" s="9">
+        <v>65.540000000000006</v>
+      </c>
+      <c r="AC11" s="9">
+        <v>54.69</v>
+      </c>
+      <c r="AD11" s="9">
+        <v>1045.32716315169</v>
+      </c>
+      <c r="AE11" s="9">
+        <v>64.92</v>
+      </c>
+      <c r="AF11" s="9">
+        <v>54.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B12" s="9">
+        <v>6</v>
+      </c>
+      <c r="C12" s="9">
+        <v>994.13699896610001</v>
+      </c>
+      <c r="D12" s="9">
+        <v>68.260000000000005</v>
+      </c>
+      <c r="E12" s="9">
+        <v>56.95</v>
+      </c>
+      <c r="F12" s="9">
+        <v>1163.10994015811</v>
+      </c>
+      <c r="G12" s="9">
+        <v>58.34</v>
+      </c>
+      <c r="H12" s="9">
+        <v>48.68</v>
+      </c>
+      <c r="I12" s="9">
+        <v>1169.2878940426001</v>
+      </c>
+      <c r="J12" s="9">
+        <v>58.04</v>
+      </c>
+      <c r="K12" s="9">
+        <v>48.42</v>
+      </c>
+      <c r="L12" s="9">
+        <v>1103.4633194913499</v>
+      </c>
+      <c r="M12" s="9">
+        <v>61.5</v>
+      </c>
+      <c r="N12" s="9">
+        <v>51.31</v>
+      </c>
+      <c r="O12" s="9">
+        <v>1105.3927707350299</v>
+      </c>
+      <c r="P12" s="9">
+        <v>61.39</v>
+      </c>
+      <c r="Q12" s="9">
+        <v>51.22</v>
+      </c>
+      <c r="R12" s="9">
+        <v>1008.00191774416</v>
+      </c>
+      <c r="S12" s="9">
+        <v>67.319999999999993</v>
+      </c>
+      <c r="T12" s="9">
+        <v>56.17</v>
+      </c>
+      <c r="U12" s="9">
+        <v>1038.9227458635901</v>
+      </c>
+      <c r="V12" s="9">
+        <v>65.319999999999993</v>
+      </c>
+      <c r="W12" s="9">
+        <v>54.5</v>
+      </c>
+      <c r="X12" s="9">
+        <v>1007.07989953504</v>
+      </c>
+      <c r="Y12" s="9">
+        <v>67.38</v>
+      </c>
+      <c r="Z12" s="9">
+        <v>56.22</v>
+      </c>
+      <c r="AA12" s="9">
+        <v>1000.44858322326</v>
+      </c>
+      <c r="AB12" s="9">
+        <v>67.83</v>
+      </c>
+      <c r="AC12" s="9">
+        <v>56.6</v>
+      </c>
+      <c r="AD12" s="9">
+        <v>1121.86560539424</v>
+      </c>
+      <c r="AE12" s="9">
+        <v>60.49</v>
+      </c>
+      <c r="AF12" s="9">
+        <v>50.47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B13" s="9">
+        <v>7</v>
+      </c>
+      <c r="C13" s="9">
+        <v>1080.77601130108</v>
+      </c>
+      <c r="D13" s="9">
+        <v>62.79</v>
+      </c>
+      <c r="E13" s="9">
+        <v>52.39</v>
+      </c>
+      <c r="F13" s="9">
+        <v>1041.5646956512601</v>
+      </c>
+      <c r="G13" s="9">
+        <v>65.150000000000006</v>
+      </c>
+      <c r="H13" s="9">
+        <v>54.36</v>
+      </c>
+      <c r="I13" s="9">
+        <v>1135.40892143419</v>
+      </c>
+      <c r="J13" s="9">
+        <v>59.77</v>
+      </c>
+      <c r="K13" s="9">
+        <v>49.87</v>
+      </c>
+      <c r="L13" s="9">
+        <v>1057.37605176839</v>
+      </c>
+      <c r="M13" s="9">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="N13" s="9">
+        <v>53.55</v>
+      </c>
+      <c r="O13" s="9">
+        <v>980.73860352743202</v>
+      </c>
+      <c r="P13" s="9">
+        <v>69.19</v>
+      </c>
+      <c r="Q13" s="9">
+        <v>57.73</v>
+      </c>
+      <c r="R13" s="9">
+        <v>1062.3647899859</v>
+      </c>
+      <c r="S13" s="9">
+        <v>63.88</v>
+      </c>
+      <c r="T13" s="9">
+        <v>53.3</v>
+      </c>
+      <c r="U13" s="9">
+        <v>1122.88298342034</v>
+      </c>
+      <c r="V13" s="9">
+        <v>60.43</v>
+      </c>
+      <c r="W13" s="9">
+        <v>50.42</v>
+      </c>
+      <c r="X13" s="9">
+        <v>1061.4389024029099</v>
+      </c>
+      <c r="Y13" s="9">
+        <v>63.93</v>
+      </c>
+      <c r="Z13" s="9">
+        <v>53.34</v>
+      </c>
+      <c r="AA13" s="9">
+        <v>1014.6625907563</v>
+      </c>
+      <c r="AB13" s="9">
+        <v>66.88</v>
+      </c>
+      <c r="AC13" s="9">
+        <v>55.8</v>
+      </c>
+      <c r="AD13" s="9">
+        <v>1038.02518209709</v>
+      </c>
+      <c r="AE13" s="9">
+        <v>65.37</v>
+      </c>
+      <c r="AF13" s="9">
+        <v>54.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B14" s="9">
+        <v>8</v>
+      </c>
+      <c r="C14" s="9">
+        <v>1130.12509740164</v>
+      </c>
+      <c r="D14" s="9">
+        <v>60.05</v>
+      </c>
+      <c r="E14" s="9">
+        <v>50.1</v>
+      </c>
+      <c r="F14" s="9">
+        <v>1039.63760279036</v>
+      </c>
+      <c r="G14" s="9">
+        <v>65.27</v>
+      </c>
+      <c r="H14" s="9">
+        <v>54.46</v>
+      </c>
+      <c r="I14" s="9">
+        <v>1020.67117593206</v>
+      </c>
+      <c r="J14" s="9">
+        <v>66.489999999999995</v>
+      </c>
+      <c r="K14" s="9">
+        <v>55.47</v>
+      </c>
+      <c r="L14" s="9">
+        <v>1022.99754607054</v>
+      </c>
+      <c r="M14" s="9">
+        <v>66.33</v>
+      </c>
+      <c r="N14" s="9">
+        <v>55.35</v>
+      </c>
+      <c r="O14" s="9">
+        <v>1026.5201954485001</v>
+      </c>
+      <c r="P14" s="9">
+        <v>66.11</v>
+      </c>
+      <c r="Q14" s="9">
+        <v>55.16</v>
+      </c>
+      <c r="R14" s="9">
+        <v>995.79830043122297</v>
+      </c>
+      <c r="S14" s="9">
+        <v>68.150000000000006</v>
+      </c>
+      <c r="T14" s="9">
+        <v>56.86</v>
+      </c>
+      <c r="U14" s="9">
+        <v>975.66799868270596</v>
+      </c>
+      <c r="V14" s="9">
+        <v>69.55</v>
+      </c>
+      <c r="W14" s="9">
+        <v>58.03</v>
+      </c>
+      <c r="X14" s="9">
+        <v>932.56135690153997</v>
+      </c>
+      <c r="Y14" s="9">
+        <v>72.77</v>
+      </c>
+      <c r="Z14" s="9">
+        <v>60.72</v>
+      </c>
+      <c r="AA14" s="9">
+        <v>1083.3865347728499</v>
+      </c>
+      <c r="AB14" s="9">
+        <v>62.64</v>
+      </c>
+      <c r="AC14" s="9">
+        <v>52.26</v>
+      </c>
+      <c r="AD14" s="9">
+        <v>1004.84849664254</v>
+      </c>
+      <c r="AE14" s="9">
+        <v>67.53</v>
+      </c>
+      <c r="AF14" s="9">
+        <v>56.35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B15" s="9">
+        <v>9</v>
+      </c>
+      <c r="C15" s="9">
+        <v>1197.04696343046</v>
+      </c>
+      <c r="D15" s="9">
+        <v>56.69</v>
+      </c>
+      <c r="E15" s="9">
+        <v>47.3</v>
+      </c>
+      <c r="F15" s="9">
+        <v>1177.5302453526001</v>
+      </c>
+      <c r="G15" s="9">
+        <v>57.63</v>
+      </c>
+      <c r="H15" s="9">
+        <v>48.08</v>
+      </c>
+      <c r="I15" s="9">
+        <v>1075.69995533101</v>
+      </c>
+      <c r="J15" s="9">
+        <v>63.08</v>
+      </c>
+      <c r="K15" s="9">
+        <v>52.64</v>
+      </c>
+      <c r="L15" s="9">
+        <v>1151.9166478150701</v>
+      </c>
+      <c r="M15" s="9">
+        <v>58.91</v>
+      </c>
+      <c r="N15" s="9">
+        <v>49.15</v>
+      </c>
+      <c r="O15" s="9">
+        <v>1005.53772168296</v>
+      </c>
+      <c r="P15" s="9">
+        <v>67.489999999999995</v>
+      </c>
+      <c r="Q15" s="9">
+        <v>56.31</v>
+      </c>
+      <c r="R15" s="9">
+        <v>1168.9828575638801</v>
+      </c>
+      <c r="S15" s="9">
+        <v>58.05</v>
+      </c>
+      <c r="T15" s="9">
+        <v>48.44</v>
+      </c>
+      <c r="U15" s="9">
+        <v>1015.27089732107</v>
+      </c>
+      <c r="V15" s="9">
+        <v>66.84</v>
+      </c>
+      <c r="W15" s="9">
+        <v>55.77</v>
+      </c>
+      <c r="X15" s="9">
+        <v>989.20370480608995</v>
+      </c>
+      <c r="Y15" s="9">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="Z15" s="9">
+        <v>57.24</v>
+      </c>
+      <c r="AA15" s="9">
+        <v>1059.3682433993499</v>
+      </c>
+      <c r="AB15" s="9">
+        <v>64.06</v>
+      </c>
+      <c r="AC15" s="9">
+        <v>53.45</v>
+      </c>
+      <c r="AD15" s="9">
+        <v>1070.91947352335</v>
+      </c>
+      <c r="AE15" s="9">
+        <v>63.37</v>
+      </c>
+      <c r="AF15" s="9">
+        <v>52.87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B16" s="9">
+        <v>10</v>
+      </c>
+      <c r="C16" s="9">
+        <v>1129.4202087927099</v>
+      </c>
+      <c r="D16" s="9">
+        <v>60.08</v>
+      </c>
+      <c r="E16" s="9">
+        <v>50.13</v>
+      </c>
+      <c r="F16" s="9">
+        <v>1075.4930091588801</v>
+      </c>
+      <c r="G16" s="9">
+        <v>63.1</v>
+      </c>
+      <c r="H16" s="9">
+        <v>52.65</v>
+      </c>
+      <c r="I16" s="9">
+        <v>1079.73064141545</v>
+      </c>
+      <c r="J16" s="9">
+        <v>62.85</v>
+      </c>
+      <c r="K16" s="9">
+        <v>52.44</v>
+      </c>
+      <c r="L16" s="9">
+        <v>1039.7844243798299</v>
+      </c>
+      <c r="M16" s="9">
+        <v>65.260000000000005</v>
+      </c>
+      <c r="N16" s="9">
+        <v>54.45</v>
+      </c>
+      <c r="O16" s="9">
+        <v>1113.58640589629</v>
+      </c>
+      <c r="P16" s="9">
+        <v>60.94</v>
+      </c>
+      <c r="Q16" s="9">
+        <v>50.85</v>
+      </c>
+      <c r="R16" s="9">
+        <v>989.86311120608298</v>
+      </c>
+      <c r="S16" s="9">
+        <v>68.55</v>
+      </c>
+      <c r="T16" s="9">
+        <v>57.2</v>
+      </c>
+      <c r="U16" s="9">
+        <v>1098.18514903611</v>
+      </c>
+      <c r="V16" s="9">
+        <v>61.79</v>
+      </c>
+      <c r="W16" s="9">
+        <v>51.56</v>
+      </c>
+      <c r="X16" s="9">
+        <v>1055.1846498503701</v>
+      </c>
+      <c r="Y16" s="9">
+        <v>64.31</v>
+      </c>
+      <c r="Z16" s="9">
+        <v>53.66</v>
+      </c>
+      <c r="AA16" s="9">
+        <v>1008.1823984684401</v>
+      </c>
+      <c r="AB16" s="9">
+        <v>67.31</v>
+      </c>
+      <c r="AC16" s="9">
+        <v>56.16</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>1003.07774458163</v>
+      </c>
+      <c r="AE16" s="9">
+        <v>67.650000000000006</v>
+      </c>
+      <c r="AF16" s="9">
+        <v>56.45</v>
+      </c>
+    </row>
+    <row r="17" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B17" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="11">
+        <f>AVERAGE(C7:C16)</f>
+        <v>1151.2679414052488</v>
+      </c>
+      <c r="D17" s="11">
+        <f>AVERAGE(D7:D16)</f>
+        <v>59.375000000000014</v>
+      </c>
+      <c r="E17" s="11">
+        <f>AVERAGE(E7:E16)</f>
+        <v>49.539000000000001</v>
+      </c>
+      <c r="F17" s="11">
+        <f>AVERAGE(F7:F16)</f>
+        <v>1079.7420959211286</v>
+      </c>
+      <c r="G17" s="11">
+        <f>AVERAGE(G7:G16)</f>
+        <v>63.113999999999997</v>
+      </c>
+      <c r="H17" s="11">
+        <f>AVERAGE(H7:H16)</f>
+        <v>52.661000000000001</v>
+      </c>
+      <c r="I17" s="11">
+        <f>AVERAGE(I7:I16)</f>
+        <v>1085.3578504249892</v>
+      </c>
+      <c r="J17" s="11">
+        <f>AVERAGE(J7:J16)</f>
+        <v>62.643000000000008</v>
+      </c>
+      <c r="K17" s="11">
+        <f>AVERAGE(K7:K16)</f>
+        <v>52.26700000000001</v>
+      </c>
+      <c r="L17" s="11">
+        <f>AVERAGE(L7:L16)</f>
+        <v>1063.2735582783641</v>
+      </c>
+      <c r="M17" s="11">
+        <f>AVERAGE(M7:M16)</f>
+        <v>63.984999999999992</v>
+      </c>
+      <c r="N17" s="11">
+        <f>AVERAGE(N7:N16)</f>
+        <v>53.387</v>
+      </c>
+      <c r="O17" s="11">
+        <f>AVERAGE(O7:O16)</f>
+        <v>1064.3329828471765</v>
+      </c>
+      <c r="P17" s="11">
+        <f>AVERAGE(P7:P16)</f>
+        <v>63.943000000000005</v>
+      </c>
+      <c r="Q17" s="11">
+        <f>AVERAGE(Q7:Q16)</f>
+        <v>53.351999999999997</v>
+      </c>
+      <c r="R17" s="11">
+        <f>AVERAGE(R7:R16)</f>
+        <v>1043.3003011231472</v>
+      </c>
+      <c r="S17" s="11">
+        <f>AVERAGE(S7:S16)</f>
+        <v>65.484999999999985</v>
+      </c>
+      <c r="T17" s="11">
+        <f>AVERAGE(T7:T16)</f>
+        <v>54.64</v>
+      </c>
+      <c r="U17" s="11">
+        <f>AVERAGE(U7:U16)</f>
+        <v>1063.1334274493656</v>
+      </c>
+      <c r="V17" s="11">
+        <f>AVERAGE(V7:V16)</f>
+        <v>63.944999999999993</v>
+      </c>
+      <c r="W17" s="11">
+        <f>AVERAGE(W7:W16)</f>
+        <v>53.353999999999999</v>
+      </c>
+      <c r="X17" s="11">
+        <f>AVERAGE(X7:X16)</f>
+        <v>1005.8619233527912</v>
+      </c>
+      <c r="Y17" s="11">
+        <f>AVERAGE(Y7:Y16)</f>
+        <v>67.63600000000001</v>
+      </c>
+      <c r="Z17" s="11">
+        <f>AVERAGE(Z7:Z16)</f>
+        <v>56.434000000000005</v>
+      </c>
+      <c r="AA17" s="11">
+        <f>AVERAGE(AA7:AA16)</f>
+        <v>1028.0720873856585</v>
+      </c>
+      <c r="AB17" s="11">
+        <f>AVERAGE(AB7:AB16)</f>
+        <v>66.064999999999984</v>
+      </c>
+      <c r="AC17" s="11">
+        <f>AVERAGE(AC7:AC16)</f>
+        <v>55.124000000000002</v>
+      </c>
+      <c r="AD17" s="11">
+        <f>AVERAGE(AD7:AD16)</f>
+        <v>1092.021334618235</v>
+      </c>
+      <c r="AE17" s="11">
+        <f>AVERAGE(AE7:AE16)</f>
+        <v>62.372</v>
+      </c>
+      <c r="AF17" s="11">
+        <f>AVERAGE(AF7:AF16)</f>
+        <v>52.044000000000004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AB19" s="2"/>
+      <c r="AC19" s="2"/>
+      <c r="AD19" s="2"/>
+      <c r="AE19" s="2"/>
+      <c r="AF19" s="2"/>
+      <c r="AG19" s="2"/>
+      <c r="AH19" s="2"/>
+      <c r="AI19" s="2"/>
+      <c r="AJ19" s="2"/>
+      <c r="AK19" s="2"/>
+      <c r="AL19" s="2"/>
+    </row>
+    <row r="20" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:38" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="8">
+        <v>20000</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K21" s="7"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="8">
+        <v>40000</v>
+      </c>
+      <c r="N21" s="7"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="8">
+        <v>50000</v>
+      </c>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="6"/>
+      <c r="S21" s="8">
+        <v>60000</v>
+      </c>
+      <c r="T21" s="7"/>
+      <c r="U21" s="6"/>
+      <c r="V21" s="8">
+        <v>70000</v>
+      </c>
+      <c r="W21" s="7"/>
+      <c r="X21" s="6"/>
+      <c r="Y21" s="8">
+        <v>80000</v>
+      </c>
+      <c r="Z21" s="7"/>
+      <c r="AA21" s="6"/>
+      <c r="AB21" s="8">
+        <v>90000</v>
+      </c>
+      <c r="AC21" s="7"/>
+      <c r="AD21" s="6"/>
+      <c r="AE21" s="8">
+        <v>100000</v>
+      </c>
+      <c r="AF21" s="7"/>
+    </row>
+    <row r="22" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="B22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF22" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B23" s="9">
+        <v>1</v>
+      </c>
+      <c r="C23" s="9">
+        <v>1169.2116190110301</v>
+      </c>
+      <c r="D23" s="9">
+        <v>58.04</v>
+      </c>
+      <c r="E23" s="9">
+        <v>48.43</v>
+      </c>
+      <c r="F23" s="9">
+        <v>1140.09113161248</v>
+      </c>
+      <c r="G23" s="9">
+        <v>59.52</v>
+      </c>
+      <c r="H23" s="9">
+        <v>49.66</v>
+      </c>
+      <c r="I23" s="9">
+        <v>1138.7165286239001</v>
+      </c>
+      <c r="J23" s="9">
+        <v>59.59</v>
+      </c>
+      <c r="K23" s="9">
+        <v>49.72</v>
+      </c>
+      <c r="L23" s="9">
+        <v>1032.76132706874</v>
+      </c>
+      <c r="M23" s="9">
+        <v>65.709999999999994</v>
+      </c>
+      <c r="N23" s="9">
+        <v>54.82</v>
+      </c>
+      <c r="O23" s="9">
+        <v>932.48655399578001</v>
+      </c>
+      <c r="P23" s="9">
+        <v>72.77</v>
+      </c>
+      <c r="Q23" s="9">
+        <v>60.72</v>
+      </c>
+      <c r="R23" s="9">
+        <v>919.59779826623605</v>
+      </c>
+      <c r="S23" s="9">
+        <v>73.790000000000006</v>
+      </c>
+      <c r="T23" s="9">
+        <v>61.57</v>
+      </c>
+      <c r="U23" s="9">
+        <v>1011.89541272031</v>
+      </c>
+      <c r="V23" s="9">
+        <v>67.06</v>
+      </c>
+      <c r="W23" s="9">
+        <v>55.96</v>
+      </c>
+      <c r="X23" s="9">
+        <v>1044.0517380055801</v>
+      </c>
+      <c r="Y23" s="9">
+        <v>65</v>
+      </c>
+      <c r="Z23" s="9">
+        <v>54.23</v>
+      </c>
+      <c r="AA23" s="9">
+        <v>882.23365747040896</v>
+      </c>
+      <c r="AB23" s="9">
+        <v>76.92</v>
+      </c>
+      <c r="AC23" s="9">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="AD23" s="9">
+        <v>988.19022437476406</v>
+      </c>
+      <c r="AE23" s="9">
+        <v>68.67</v>
+      </c>
+      <c r="AF23" s="9">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B24" s="9">
+        <v>2</v>
+      </c>
+      <c r="C24" s="9">
+        <v>1148.5087766302099</v>
+      </c>
+      <c r="D24" s="9">
+        <v>59.09</v>
+      </c>
+      <c r="E24" s="9">
+        <v>49.3</v>
+      </c>
+      <c r="F24" s="9">
+        <v>1040.8513335477901</v>
+      </c>
+      <c r="G24" s="9">
+        <v>65.2</v>
+      </c>
+      <c r="H24" s="9">
+        <v>54.4</v>
+      </c>
+      <c r="I24" s="9">
+        <v>1023.51284602031</v>
+      </c>
+      <c r="J24" s="9">
+        <v>66.3</v>
+      </c>
+      <c r="K24" s="9">
+        <v>55.32</v>
+      </c>
+      <c r="L24" s="9">
+        <v>920.305061725879</v>
+      </c>
+      <c r="M24" s="9">
+        <v>73.739999999999995</v>
+      </c>
+      <c r="N24" s="9">
+        <v>61.52</v>
+      </c>
+      <c r="O24" s="9">
+        <v>957.849524459956</v>
+      </c>
+      <c r="P24" s="9">
+        <v>70.849999999999994</v>
+      </c>
+      <c r="Q24" s="9">
+        <v>59.11</v>
+      </c>
+      <c r="R24" s="9">
+        <v>1125.46478480425</v>
+      </c>
+      <c r="S24" s="9">
+        <v>60.29</v>
+      </c>
+      <c r="T24" s="9">
+        <v>50.31</v>
+      </c>
+      <c r="U24" s="9">
+        <v>934.21395076039698</v>
+      </c>
+      <c r="V24" s="9">
+        <v>72.64</v>
+      </c>
+      <c r="W24" s="9">
+        <v>60.61</v>
+      </c>
+      <c r="X24" s="9">
+        <v>876.91490528882798</v>
+      </c>
+      <c r="Y24" s="9">
+        <v>77.38</v>
+      </c>
+      <c r="Z24" s="9">
+        <v>64.569999999999993</v>
+      </c>
+      <c r="AA24" s="9">
+        <v>979.11935072502797</v>
+      </c>
+      <c r="AB24" s="9">
+        <v>69.31</v>
+      </c>
+      <c r="AC24" s="9">
+        <v>57.83</v>
+      </c>
+      <c r="AD24" s="9">
+        <v>1002.58353193887</v>
+      </c>
+      <c r="AE24" s="9">
+        <v>67.680000000000007</v>
+      </c>
+      <c r="AF24" s="9">
+        <v>56.47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B25" s="9">
+        <v>3</v>
+      </c>
+      <c r="C25" s="9">
+        <v>1102.89321076239</v>
+      </c>
+      <c r="D25" s="9">
+        <v>61.53</v>
+      </c>
+      <c r="E25" s="9">
+        <v>51.34</v>
+      </c>
+      <c r="F25" s="9">
+        <v>1060.0663369336701</v>
+      </c>
+      <c r="G25" s="9">
+        <v>64.010000000000005</v>
+      </c>
+      <c r="H25" s="9">
+        <v>53.41</v>
+      </c>
+      <c r="I25" s="9">
+        <v>1118.71197165691</v>
+      </c>
+      <c r="J25" s="9">
+        <v>60.66</v>
+      </c>
+      <c r="K25" s="9">
+        <v>50.61</v>
+      </c>
+      <c r="L25" s="9">
+        <v>960.45931243539906</v>
+      </c>
+      <c r="M25" s="9">
+        <v>70.650000000000006</v>
+      </c>
+      <c r="N25" s="9">
+        <v>58.95</v>
+      </c>
+      <c r="O25" s="9">
+        <v>999.29812155542095</v>
+      </c>
+      <c r="P25" s="9">
+        <v>67.91</v>
+      </c>
+      <c r="Q25" s="9">
+        <v>56.66</v>
+      </c>
+      <c r="R25" s="9">
+        <v>1113.89923937917</v>
+      </c>
+      <c r="S25" s="9">
+        <v>60.92</v>
+      </c>
+      <c r="T25" s="9">
+        <v>50.83</v>
+      </c>
+      <c r="U25" s="9">
+        <v>1059.75458526544</v>
+      </c>
+      <c r="V25" s="9">
+        <v>64.03</v>
+      </c>
+      <c r="W25" s="9">
+        <v>53.43</v>
+      </c>
+      <c r="X25" s="9">
+        <v>961.24756863697803</v>
+      </c>
+      <c r="Y25" s="9">
+        <v>70.599999999999994</v>
+      </c>
+      <c r="Z25" s="9">
+        <v>58.9</v>
+      </c>
+      <c r="AA25" s="9">
+        <v>1017.56505142054</v>
+      </c>
+      <c r="AB25" s="9">
+        <v>66.69</v>
+      </c>
+      <c r="AC25" s="9">
+        <v>55.64</v>
+      </c>
+      <c r="AD25" s="9">
+        <v>1025.56639246144</v>
+      </c>
+      <c r="AE25" s="9">
+        <v>66.17</v>
+      </c>
+      <c r="AF25" s="9">
+        <v>55.21</v>
+      </c>
+    </row>
+    <row r="26" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B26" s="9">
+        <v>4</v>
+      </c>
+      <c r="C26" s="9">
+        <v>1165.90476302765</v>
+      </c>
+      <c r="D26" s="9">
+        <v>58.2</v>
+      </c>
+      <c r="E26" s="9">
+        <v>48.56</v>
+      </c>
+      <c r="F26" s="9">
+        <v>960.913229699878</v>
+      </c>
+      <c r="G26" s="9">
+        <v>70.62</v>
+      </c>
+      <c r="H26" s="9">
+        <v>58.92</v>
+      </c>
+      <c r="I26" s="9">
+        <v>1024.72489112021</v>
+      </c>
+      <c r="J26" s="9">
+        <v>66.22</v>
+      </c>
+      <c r="K26" s="9">
+        <v>55.25</v>
+      </c>
+      <c r="L26" s="9">
+        <v>1062.94186411223</v>
+      </c>
+      <c r="M26" s="9">
+        <v>63.84</v>
+      </c>
+      <c r="N26" s="9">
+        <v>53.27</v>
+      </c>
+      <c r="O26" s="9">
+        <v>1087.2950554210299</v>
+      </c>
+      <c r="P26" s="9">
+        <v>62.41</v>
+      </c>
+      <c r="Q26" s="9">
+        <v>52.07</v>
+      </c>
+      <c r="R26" s="9">
+        <v>989.10134704457801</v>
+      </c>
+      <c r="S26" s="9">
+        <v>68.61</v>
+      </c>
+      <c r="T26" s="9">
+        <v>57.24</v>
+      </c>
+      <c r="U26" s="9">
+        <v>981.42652688263104</v>
+      </c>
+      <c r="V26" s="9">
+        <v>69.14</v>
+      </c>
+      <c r="W26" s="9">
+        <v>57.69</v>
+      </c>
+      <c r="X26" s="9">
+        <v>1021.8152078858</v>
+      </c>
+      <c r="Y26" s="9">
+        <v>66.41</v>
+      </c>
+      <c r="Z26" s="9">
+        <v>55.41</v>
+      </c>
+      <c r="AA26" s="9">
+        <v>1020.1278784301199</v>
+      </c>
+      <c r="AB26" s="9">
+        <v>66.52</v>
+      </c>
+      <c r="AC26" s="9">
+        <v>55.5</v>
+      </c>
+      <c r="AD26" s="9">
+        <v>961.694716421713</v>
+      </c>
+      <c r="AE26" s="9">
+        <v>70.56</v>
+      </c>
+      <c r="AF26" s="9">
+        <v>58.88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B27" s="9">
+        <v>5</v>
+      </c>
+      <c r="C27" s="9">
+        <v>1159.8711272713999</v>
+      </c>
+      <c r="D27" s="9">
+        <v>58.51</v>
+      </c>
+      <c r="E27" s="9">
+        <v>48.82</v>
+      </c>
+      <c r="F27" s="9">
+        <v>1055.56649126041</v>
+      </c>
+      <c r="G27" s="9">
+        <v>64.290000000000006</v>
+      </c>
+      <c r="H27" s="9">
+        <v>53.64</v>
+      </c>
+      <c r="I27" s="9">
+        <v>1061.1786242293799</v>
+      </c>
+      <c r="J27" s="9">
+        <v>63.95</v>
+      </c>
+      <c r="K27" s="9">
+        <v>53.36</v>
+      </c>
+      <c r="L27" s="9">
+        <v>970.38312638668299</v>
+      </c>
+      <c r="M27" s="9">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="N27" s="9">
+        <v>58.35</v>
+      </c>
+      <c r="O27" s="9">
+        <v>966.890753232159</v>
+      </c>
+      <c r="P27" s="9">
+        <v>70.180000000000007</v>
+      </c>
+      <c r="Q27" s="9">
+        <v>58.56</v>
+      </c>
+      <c r="R27" s="9">
+        <v>1056.3503722824701</v>
+      </c>
+      <c r="S27" s="9">
+        <v>64.239999999999995</v>
+      </c>
+      <c r="T27" s="9">
+        <v>53.6</v>
+      </c>
+      <c r="U27" s="9">
+        <v>1066.7593811183799</v>
+      </c>
+      <c r="V27" s="9">
+        <v>63.61</v>
+      </c>
+      <c r="W27" s="9">
+        <v>53.08</v>
+      </c>
+      <c r="X27" s="9">
+        <v>1088.19768137335</v>
+      </c>
+      <c r="Y27" s="9">
+        <v>62.36</v>
+      </c>
+      <c r="Z27" s="9">
+        <v>52.03</v>
+      </c>
+      <c r="AA27" s="9">
+        <v>947.41483720771896</v>
+      </c>
+      <c r="AB27" s="9">
+        <v>71.63</v>
+      </c>
+      <c r="AC27" s="9">
+        <v>59.76</v>
+      </c>
+      <c r="AD27" s="9">
+        <v>1018.33581362065</v>
+      </c>
+      <c r="AE27" s="9">
+        <v>66.64</v>
+      </c>
+      <c r="AF27" s="9">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B28" s="9">
+        <v>6</v>
+      </c>
+      <c r="C28" s="9">
+        <v>1072.5983367924</v>
+      </c>
+      <c r="D28" s="9">
+        <v>63.27</v>
+      </c>
+      <c r="E28" s="9">
+        <v>52.79</v>
+      </c>
+      <c r="F28" s="9">
+        <v>1061.2770150907199</v>
+      </c>
+      <c r="G28" s="9">
+        <v>63.94</v>
+      </c>
+      <c r="H28" s="9">
+        <v>53.35</v>
+      </c>
+      <c r="I28" s="9">
+        <v>1018.98623149207</v>
+      </c>
+      <c r="J28" s="9">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="K28" s="9">
+        <v>55.57</v>
+      </c>
+      <c r="L28" s="9">
+        <v>973.12347648299794</v>
+      </c>
+      <c r="M28" s="9">
+        <v>69.73</v>
+      </c>
+      <c r="N28" s="9">
+        <v>58.18</v>
+      </c>
+      <c r="O28" s="9">
+        <v>1058.85022355347</v>
+      </c>
+      <c r="P28" s="9">
+        <v>64.09</v>
+      </c>
+      <c r="Q28" s="9">
+        <v>53.47</v>
+      </c>
+      <c r="R28" s="9">
+        <v>916.24567217610502</v>
+      </c>
+      <c r="S28" s="9">
+        <v>74.06</v>
+      </c>
+      <c r="T28" s="9">
+        <v>61.8</v>
+      </c>
+      <c r="U28" s="9">
+        <v>1047.6078874490599</v>
+      </c>
+      <c r="V28" s="9">
+        <v>64.78</v>
+      </c>
+      <c r="W28" s="9">
+        <v>54.05</v>
+      </c>
+      <c r="X28" s="9">
+        <v>1018.60085942361</v>
+      </c>
+      <c r="Y28" s="9">
+        <v>66.62</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>55.59</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>1023.99237720769</v>
+      </c>
+      <c r="AB28" s="9">
+        <v>66.27</v>
+      </c>
+      <c r="AC28" s="9">
+        <v>55.29</v>
+      </c>
+      <c r="AD28" s="9">
+        <v>992.11699388220904</v>
+      </c>
+      <c r="AE28" s="9">
+        <v>68.400000000000006</v>
+      </c>
+      <c r="AF28" s="9">
+        <v>57.07</v>
+      </c>
+    </row>
+    <row r="29" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B29" s="9">
+        <v>7</v>
+      </c>
+      <c r="C29" s="9">
+        <v>1207.52542198166</v>
+      </c>
+      <c r="D29" s="9">
+        <v>56.2</v>
+      </c>
+      <c r="E29" s="9">
+        <v>46.89</v>
+      </c>
+      <c r="F29" s="9">
+        <v>1066.3504602272201</v>
+      </c>
+      <c r="G29" s="9">
+        <v>63.64</v>
+      </c>
+      <c r="H29" s="9">
+        <v>53.1</v>
+      </c>
+      <c r="I29" s="9">
+        <v>995.19016517638204</v>
+      </c>
+      <c r="J29" s="9">
+        <v>68.19</v>
+      </c>
+      <c r="K29" s="9">
+        <v>56.89</v>
+      </c>
+      <c r="L29" s="9">
+        <v>1032.5972712801199</v>
+      </c>
+      <c r="M29" s="9">
+        <v>65.72</v>
+      </c>
+      <c r="N29" s="9">
+        <v>54.83</v>
+      </c>
+      <c r="O29" s="9">
+        <v>1030.4217454202601</v>
+      </c>
+      <c r="P29" s="9">
+        <v>65.86</v>
+      </c>
+      <c r="Q29" s="9">
+        <v>54.95</v>
+      </c>
+      <c r="R29" s="9">
+        <v>970.20323395595403</v>
+      </c>
+      <c r="S29" s="9">
+        <v>69.94</v>
+      </c>
+      <c r="T29" s="9">
+        <v>58.36</v>
+      </c>
+      <c r="U29" s="9">
+        <v>913.44996269672799</v>
+      </c>
+      <c r="V29" s="9">
+        <v>74.290000000000006</v>
+      </c>
+      <c r="W29" s="9">
+        <v>61.99</v>
+      </c>
+      <c r="X29" s="9">
+        <v>1015.95144789114</v>
+      </c>
+      <c r="Y29" s="9">
+        <v>66.790000000000006</v>
+      </c>
+      <c r="Z29" s="9">
+        <v>55.73</v>
+      </c>
+      <c r="AA29" s="9">
+        <v>924.508830336806</v>
+      </c>
+      <c r="AB29" s="9">
+        <v>73.400000000000006</v>
+      </c>
+      <c r="AC29" s="9">
+        <v>61.24</v>
+      </c>
+      <c r="AD29" s="9">
+        <v>1018.66579741311</v>
+      </c>
+      <c r="AE29" s="9">
+        <v>66.62</v>
+      </c>
+      <c r="AF29" s="9">
+        <v>55.58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B30" s="9">
+        <v>8</v>
+      </c>
+      <c r="C30" s="9">
+        <v>1187.1662246666001</v>
+      </c>
+      <c r="D30" s="9">
+        <v>57.16</v>
+      </c>
+      <c r="E30" s="9">
+        <v>47.69</v>
+      </c>
+      <c r="F30" s="9">
+        <v>1035.6741339718201</v>
+      </c>
+      <c r="G30" s="9">
+        <v>65.52</v>
+      </c>
+      <c r="H30" s="9">
+        <v>54.67</v>
+      </c>
+      <c r="I30" s="9">
+        <v>1120.53982021861</v>
+      </c>
+      <c r="J30" s="9">
+        <v>60.56</v>
+      </c>
+      <c r="K30" s="9">
+        <v>50.53</v>
+      </c>
+      <c r="L30" s="9">
+        <v>923.76762691855197</v>
+      </c>
+      <c r="M30" s="9">
+        <v>73.459999999999994</v>
+      </c>
+      <c r="N30" s="9">
+        <v>61.29</v>
+      </c>
+      <c r="O30" s="9">
+        <v>1067.87745955783</v>
+      </c>
+      <c r="P30" s="9">
+        <v>63.55</v>
+      </c>
+      <c r="Q30" s="9">
+        <v>53.02</v>
+      </c>
+      <c r="R30" s="9">
+        <v>964.251489269187</v>
+      </c>
+      <c r="S30" s="9">
+        <v>70.38</v>
+      </c>
+      <c r="T30" s="9">
+        <v>58.72</v>
+      </c>
+      <c r="U30" s="9">
+        <v>1034.84198791778</v>
+      </c>
+      <c r="V30" s="9">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="W30" s="9">
+        <v>54.71</v>
+      </c>
+      <c r="X30" s="9">
+        <v>1039.52405380604</v>
+      </c>
+      <c r="Y30" s="9">
+        <v>65.28</v>
+      </c>
+      <c r="Z30" s="9">
+        <v>54.47</v>
+      </c>
+      <c r="AA30" s="9">
+        <v>952.31920358892296</v>
+      </c>
+      <c r="AB30" s="9">
+        <v>71.260000000000005</v>
+      </c>
+      <c r="AC30" s="9">
+        <v>59.46</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>1062.77077651843</v>
+      </c>
+      <c r="AE30" s="9">
+        <v>63.85</v>
+      </c>
+      <c r="AF30" s="9">
+        <v>53.28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B31" s="9">
+        <v>9</v>
+      </c>
+      <c r="C31" s="9">
+        <v>1251.1475571318999</v>
+      </c>
+      <c r="D31" s="9">
+        <v>54.24</v>
+      </c>
+      <c r="E31" s="9">
+        <v>45.26</v>
+      </c>
+      <c r="F31" s="9">
+        <v>1084.4236604069299</v>
+      </c>
+      <c r="G31" s="9">
+        <v>62.58</v>
+      </c>
+      <c r="H31" s="9">
+        <v>52.21</v>
+      </c>
+      <c r="I31" s="9">
+        <v>973.09471611118499</v>
+      </c>
+      <c r="J31" s="9">
+        <v>69.739999999999995</v>
+      </c>
+      <c r="K31" s="9">
+        <v>58.19</v>
+      </c>
+      <c r="L31" s="9">
+        <v>1074.2793604686899</v>
+      </c>
+      <c r="M31" s="9">
+        <v>63.17</v>
+      </c>
+      <c r="N31" s="9">
+        <v>52.71</v>
+      </c>
+      <c r="O31" s="9">
+        <v>972.30064280325303</v>
+      </c>
+      <c r="P31" s="9">
+        <v>69.790000000000006</v>
+      </c>
+      <c r="Q31" s="9">
+        <v>58.23</v>
+      </c>
+      <c r="R31" s="9">
+        <v>930.950276368907</v>
+      </c>
+      <c r="S31" s="9">
+        <v>72.89</v>
+      </c>
+      <c r="T31" s="9">
+        <v>60.82</v>
+      </c>
+      <c r="U31" s="9">
+        <v>1002.5387251998</v>
+      </c>
+      <c r="V31" s="9">
+        <v>67.69</v>
+      </c>
+      <c r="W31" s="9">
+        <v>56.48</v>
+      </c>
+      <c r="X31" s="9">
+        <v>991.13166847033199</v>
+      </c>
+      <c r="Y31" s="9">
+        <v>68.47</v>
+      </c>
+      <c r="Z31" s="9">
+        <v>57.13</v>
+      </c>
+      <c r="AA31" s="9">
+        <v>1087.0976967076699</v>
+      </c>
+      <c r="AB31" s="9">
+        <v>62.42</v>
+      </c>
+      <c r="AC31" s="9">
+        <v>52.08</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>1079.3990141587899</v>
+      </c>
+      <c r="AE31" s="9">
+        <v>62.87</v>
+      </c>
+      <c r="AF31" s="9">
+        <v>52.46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B32" s="9">
+        <v>10</v>
+      </c>
+      <c r="C32" s="9">
+        <v>1186.72195273839</v>
+      </c>
+      <c r="D32" s="9">
+        <v>57.18</v>
+      </c>
+      <c r="E32" s="9">
+        <v>47.71</v>
+      </c>
+      <c r="F32" s="9">
+        <v>1036.3113762007699</v>
+      </c>
+      <c r="G32" s="9">
+        <v>65.48</v>
+      </c>
+      <c r="H32" s="9">
+        <v>54.64</v>
+      </c>
+      <c r="I32" s="9">
+        <v>937.682956382974</v>
+      </c>
+      <c r="J32" s="9">
+        <v>72.37</v>
+      </c>
+      <c r="K32" s="9">
+        <v>60.38</v>
+      </c>
+      <c r="L32" s="9">
+        <v>1017.6106385719</v>
+      </c>
+      <c r="M32" s="9">
+        <v>66.69</v>
+      </c>
+      <c r="N32" s="9">
+        <v>55.64</v>
+      </c>
+      <c r="O32" s="9">
+        <v>1012.50627602232</v>
+      </c>
+      <c r="P32" s="9">
+        <v>67.02</v>
+      </c>
+      <c r="Q32" s="9">
+        <v>55.92</v>
+      </c>
+      <c r="R32" s="9">
+        <v>946.14216074985802</v>
+      </c>
+      <c r="S32" s="9">
+        <v>71.72</v>
+      </c>
+      <c r="T32" s="9">
+        <v>59.84</v>
+      </c>
+      <c r="U32" s="9">
+        <v>971.59170027566404</v>
+      </c>
+      <c r="V32" s="9">
+        <v>69.84</v>
+      </c>
+      <c r="W32" s="9">
+        <v>58.28</v>
+      </c>
+      <c r="X32" s="9">
+        <v>1070.9488574787499</v>
+      </c>
+      <c r="Y32" s="9">
+        <v>63.36</v>
+      </c>
+      <c r="Z32" s="9">
+        <v>52.87</v>
+      </c>
+      <c r="AA32" s="9">
+        <v>936.44271372391199</v>
+      </c>
+      <c r="AB32" s="9">
+        <v>72.47</v>
+      </c>
+      <c r="AC32" s="9">
+        <v>60.46</v>
+      </c>
+      <c r="AD32" s="9">
+        <v>1018.78719559545</v>
+      </c>
+      <c r="AE32" s="9">
+        <v>66.61</v>
+      </c>
+      <c r="AF32" s="9">
+        <v>55.58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B33" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="11">
+        <f>AVERAGE(C23:C32)</f>
+        <v>1165.154899001363</v>
+      </c>
+      <c r="D33" s="11">
+        <f>AVERAGE(D23:D32)</f>
+        <v>58.341999999999999</v>
+      </c>
+      <c r="E33" s="11">
+        <f>AVERAGE(E23:E32)</f>
+        <v>48.678999999999995</v>
+      </c>
+      <c r="F33" s="11">
+        <f>AVERAGE(F23:F32)</f>
+        <v>1054.1525168951689</v>
+      </c>
+      <c r="G33" s="11">
+        <f>AVERAGE(G23:G32)</f>
+        <v>64.48</v>
+      </c>
+      <c r="H33" s="11">
+        <f>AVERAGE(H23:H32)</f>
+        <v>53.8</v>
+      </c>
+      <c r="I33" s="11">
+        <f>AVERAGE(I23:I32)</f>
+        <v>1041.2338751031932</v>
+      </c>
+      <c r="J33" s="11">
+        <f>AVERAGE(J23:J32)</f>
+        <v>65.418000000000006</v>
+      </c>
+      <c r="K33" s="11">
+        <f>AVERAGE(K23:K32)</f>
+        <v>54.582000000000008</v>
+      </c>
+      <c r="L33" s="11">
+        <f>AVERAGE(L23:L32)</f>
+        <v>996.82290654511905</v>
+      </c>
+      <c r="M33" s="11">
+        <f>AVERAGE(M23:M32)</f>
+        <v>68.26400000000001</v>
+      </c>
+      <c r="N33" s="11">
+        <f>AVERAGE(N23:N32)</f>
+        <v>56.956000000000003</v>
+      </c>
+      <c r="O33" s="11">
+        <f>AVERAGE(O23:O32)</f>
+        <v>1008.5776356021477</v>
+      </c>
+      <c r="P33" s="11">
+        <f>AVERAGE(P23:P32)</f>
+        <v>67.442999999999998</v>
+      </c>
+      <c r="Q33" s="11">
+        <f>AVERAGE(Q23:Q32)</f>
+        <v>56.271000000000001</v>
+      </c>
+      <c r="R33" s="11">
+        <f>AVERAGE(R23:R32)</f>
+        <v>993.22063742967146</v>
+      </c>
+      <c r="S33" s="11">
+        <f>AVERAGE(S23:S32)</f>
+        <v>68.683999999999997</v>
+      </c>
+      <c r="T33" s="11">
+        <f>AVERAGE(T23:T32)</f>
+        <v>57.309000000000012</v>
+      </c>
+      <c r="U33" s="11">
+        <f>AVERAGE(U23:U32)</f>
+        <v>1002.4080120286189</v>
+      </c>
+      <c r="V33" s="11">
+        <f>AVERAGE(V23:V32)</f>
+        <v>67.864999999999995</v>
+      </c>
+      <c r="W33" s="11">
+        <f>AVERAGE(W23:W32)</f>
+        <v>56.628</v>
+      </c>
+      <c r="X33" s="11">
+        <f>AVERAGE(X23:X32)</f>
+        <v>1012.8383988260408</v>
+      </c>
+      <c r="Y33" s="11">
+        <f>AVERAGE(Y23:Y32)</f>
+        <v>67.227000000000004</v>
+      </c>
+      <c r="Z33" s="11">
+        <f>AVERAGE(Z23:Z32)</f>
+        <v>56.093000000000004</v>
+      </c>
+      <c r="AA33" s="11">
+        <f>AVERAGE(AA23:AA32)</f>
+        <v>977.08215968188176</v>
+      </c>
+      <c r="AB33" s="11">
+        <f>AVERAGE(AB23:AB32)</f>
+        <v>69.688999999999993</v>
+      </c>
+      <c r="AC33" s="11">
+        <f>AVERAGE(AC23:AC32)</f>
+        <v>58.144000000000005</v>
+      </c>
+      <c r="AD33" s="11">
+        <f>AVERAGE(AD23:AD32)</f>
+        <v>1016.8110456385426</v>
+      </c>
+      <c r="AE33" s="11">
+        <f>AVERAGE(AE23:AE32)</f>
+        <v>66.807000000000002</v>
+      </c>
+      <c r="AF33" s="11">
+        <f>AVERAGE(AF23:AF32)</f>
+        <v>55.742999999999995</v>
+      </c>
+    </row>
+    <row r="35" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="2"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
+      <c r="R35" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+      <c r="AL35" s="2"/>
+    </row>
+    <row r="36" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="37" spans="1:38" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B37" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E37" s="7"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="8">
+        <v>20000</v>
+      </c>
+      <c r="H37" s="7"/>
+      <c r="I37" s="6"/>
+      <c r="J37" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K37" s="7"/>
+      <c r="L37" s="6"/>
+      <c r="M37" s="8">
+        <v>40000</v>
+      </c>
+      <c r="N37" s="7"/>
+      <c r="O37" s="6"/>
+      <c r="P37" s="8">
+        <v>50000</v>
+      </c>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="6"/>
+      <c r="S37" s="8">
+        <v>60000</v>
+      </c>
+      <c r="T37" s="7"/>
+      <c r="U37" s="6"/>
+      <c r="V37" s="8">
+        <v>70000</v>
+      </c>
+      <c r="W37" s="7"/>
+      <c r="X37" s="6"/>
+      <c r="Y37" s="8">
+        <v>80000</v>
+      </c>
+      <c r="Z37" s="7"/>
+      <c r="AA37" s="6"/>
+      <c r="AB37" s="8">
+        <v>90000</v>
+      </c>
+      <c r="AC37" s="7"/>
+      <c r="AD37" s="6"/>
+      <c r="AE37" s="8">
+        <v>100000</v>
+      </c>
+      <c r="AF37" s="7"/>
+    </row>
+    <row r="38" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="B38" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC38" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD38" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF38" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B39" s="9">
+        <v>1</v>
+      </c>
+      <c r="C39" s="9">
+        <v>1194.20974831022</v>
+      </c>
+      <c r="D39" s="9">
+        <v>56.82</v>
+      </c>
+      <c r="E39" s="9">
+        <v>47.41</v>
+      </c>
+      <c r="F39" s="9">
+        <v>1081.64000104975</v>
+      </c>
+      <c r="G39" s="9">
+        <v>62.74</v>
+      </c>
+      <c r="H39" s="9">
+        <v>52.35</v>
+      </c>
+      <c r="I39" s="9">
+        <v>1169.3698007534001</v>
+      </c>
+      <c r="J39" s="9">
+        <v>58.03</v>
+      </c>
+      <c r="K39" s="9">
+        <v>48.42</v>
+      </c>
+      <c r="L39" s="9">
+        <v>992.45505358705498</v>
+      </c>
+      <c r="M39" s="9">
+        <v>68.38</v>
+      </c>
+      <c r="N39" s="9">
+        <v>57.05</v>
+      </c>
+      <c r="O39" s="9">
+        <v>1052.9288176124301</v>
+      </c>
+      <c r="P39" s="9">
+        <v>64.45</v>
+      </c>
+      <c r="Q39" s="9">
+        <v>53.77</v>
+      </c>
+      <c r="R39" s="9">
+        <v>1088.3628204689101</v>
+      </c>
+      <c r="S39" s="9">
+        <v>62.35</v>
+      </c>
+      <c r="T39" s="9">
+        <v>52.02</v>
+      </c>
+      <c r="U39" s="9">
+        <v>1047.4183157535199</v>
+      </c>
+      <c r="V39" s="9">
+        <v>64.790000000000006</v>
+      </c>
+      <c r="W39" s="9">
+        <v>54.06</v>
+      </c>
+      <c r="X39" s="9">
+        <v>1108.5689867480901</v>
+      </c>
+      <c r="Y39" s="9">
+        <v>61.21</v>
+      </c>
+      <c r="Z39" s="9">
+        <v>51.08</v>
+      </c>
+      <c r="AA39" s="9">
+        <v>1084.1849092826899</v>
+      </c>
+      <c r="AB39" s="9">
+        <v>62.59</v>
+      </c>
+      <c r="AC39" s="9">
+        <v>52.22</v>
+      </c>
+      <c r="AD39" s="9">
+        <v>1082.2697673662899</v>
+      </c>
+      <c r="AE39" s="9">
+        <v>62.7</v>
+      </c>
+      <c r="AF39" s="9">
+        <v>52.32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B40" s="9">
+        <v>2</v>
+      </c>
+      <c r="C40" s="9">
+        <v>1276.5698942742799</v>
+      </c>
+      <c r="D40" s="9">
+        <v>53.16</v>
+      </c>
+      <c r="E40" s="9">
+        <v>44.35</v>
+      </c>
+      <c r="F40" s="9">
+        <v>1087.5061058717799</v>
+      </c>
+      <c r="G40" s="9">
+        <v>62.4</v>
+      </c>
+      <c r="H40" s="9">
+        <v>52.06</v>
+      </c>
+      <c r="I40" s="9">
+        <v>1000.3912262771501</v>
+      </c>
+      <c r="J40" s="9">
+        <v>67.83</v>
+      </c>
+      <c r="K40" s="9">
+        <v>56.6</v>
+      </c>
+      <c r="L40" s="9">
+        <v>1184.3382906347099</v>
+      </c>
+      <c r="M40" s="9">
+        <v>57.3</v>
+      </c>
+      <c r="N40" s="9">
+        <v>47.81</v>
+      </c>
+      <c r="O40" s="9">
+        <v>1043.8560453070299</v>
+      </c>
+      <c r="P40" s="9">
+        <v>65.010000000000005</v>
+      </c>
+      <c r="Q40" s="9">
+        <v>54.24</v>
+      </c>
+      <c r="R40" s="9">
+        <v>1152.0149756241899</v>
+      </c>
+      <c r="S40" s="9">
+        <v>58.91</v>
+      </c>
+      <c r="T40" s="9">
+        <v>49.15</v>
+      </c>
+      <c r="U40" s="9">
+        <v>1193.50492429978</v>
+      </c>
+      <c r="V40" s="9">
+        <v>56.86</v>
+      </c>
+      <c r="W40" s="9">
+        <v>47.44</v>
+      </c>
+      <c r="X40" s="9">
+        <v>1015.84355430485</v>
+      </c>
+      <c r="Y40" s="9">
+        <v>66.8</v>
+      </c>
+      <c r="Z40" s="9">
+        <v>55.74</v>
+      </c>
+      <c r="AA40" s="9">
+        <v>1038.01396917025</v>
+      </c>
+      <c r="AB40" s="9">
+        <v>65.37</v>
+      </c>
+      <c r="AC40" s="9">
+        <v>54.55</v>
+      </c>
+      <c r="AD40" s="9">
+        <v>1013.63442840843</v>
+      </c>
+      <c r="AE40" s="9">
+        <v>66.95</v>
+      </c>
+      <c r="AF40" s="9">
+        <v>55.86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B41" s="9">
+        <v>3</v>
+      </c>
+      <c r="C41" s="9">
+        <v>1362.8390503804301</v>
+      </c>
+      <c r="D41" s="9">
+        <v>49.79</v>
+      </c>
+      <c r="E41" s="9">
+        <v>41.55</v>
+      </c>
+      <c r="F41" s="9">
+        <v>1109.13156204353</v>
+      </c>
+      <c r="G41" s="9">
+        <v>61.18</v>
+      </c>
+      <c r="H41" s="9">
+        <v>51.05</v>
+      </c>
+      <c r="I41" s="9">
+        <v>1174.8119951439901</v>
+      </c>
+      <c r="J41" s="9">
+        <v>57.76</v>
+      </c>
+      <c r="K41" s="9">
+        <v>48.2</v>
+      </c>
+      <c r="L41" s="9">
+        <v>1147.5308731145799</v>
+      </c>
+      <c r="M41" s="9">
+        <v>59.14</v>
+      </c>
+      <c r="N41" s="9">
+        <v>49.34</v>
+      </c>
+      <c r="O41" s="9">
+        <v>1118.3083248532</v>
+      </c>
+      <c r="P41" s="9">
+        <v>60.68</v>
+      </c>
+      <c r="Q41" s="9">
+        <v>50.63</v>
+      </c>
+      <c r="R41" s="9">
+        <v>1117.17993165095</v>
+      </c>
+      <c r="S41" s="9">
+        <v>60.74</v>
+      </c>
+      <c r="T41" s="9">
+        <v>50.68</v>
+      </c>
+      <c r="U41" s="9">
+        <v>944.70986193536305</v>
+      </c>
+      <c r="V41" s="9">
+        <v>71.83</v>
+      </c>
+      <c r="W41" s="9">
+        <v>59.93</v>
+      </c>
+      <c r="X41" s="9">
+        <v>1002.06456539867</v>
+      </c>
+      <c r="Y41" s="9">
+        <v>67.72</v>
+      </c>
+      <c r="Z41" s="9">
+        <v>56.5</v>
+      </c>
+      <c r="AA41" s="9">
+        <v>1070.8847126499099</v>
+      </c>
+      <c r="AB41" s="9">
+        <v>63.37</v>
+      </c>
+      <c r="AC41" s="9">
+        <v>52.87</v>
+      </c>
+      <c r="AD41" s="9">
+        <v>1049.0553012575399</v>
+      </c>
+      <c r="AE41" s="9">
+        <v>64.69</v>
+      </c>
+      <c r="AF41" s="9">
+        <v>53.97</v>
+      </c>
+    </row>
+    <row r="42" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B42" s="9">
+        <v>4</v>
+      </c>
+      <c r="C42" s="9">
+        <v>1256.87464737292</v>
+      </c>
+      <c r="D42" s="9">
+        <v>53.99</v>
+      </c>
+      <c r="E42" s="9">
+        <v>45.05</v>
+      </c>
+      <c r="F42" s="9">
+        <v>1098.5425671221401</v>
+      </c>
+      <c r="G42" s="9">
+        <v>61.77</v>
+      </c>
+      <c r="H42" s="9">
+        <v>51.54</v>
+      </c>
+      <c r="I42" s="9">
+        <v>1187.4731404556901</v>
+      </c>
+      <c r="J42" s="9">
+        <v>57.15</v>
+      </c>
+      <c r="K42" s="9">
+        <v>47.68</v>
+      </c>
+      <c r="L42" s="9">
+        <v>1095.2239797075699</v>
+      </c>
+      <c r="M42" s="9">
+        <v>61.96</v>
+      </c>
+      <c r="N42" s="9">
+        <v>51.7</v>
+      </c>
+      <c r="O42" s="9">
+        <v>1085.31280518209</v>
+      </c>
+      <c r="P42" s="9">
+        <v>62.53</v>
+      </c>
+      <c r="Q42" s="9">
+        <v>52.17</v>
+      </c>
+      <c r="R42" s="9">
+        <v>1087.25148794385</v>
+      </c>
+      <c r="S42" s="9">
+        <v>62.41</v>
+      </c>
+      <c r="T42" s="9">
+        <v>52.08</v>
+      </c>
+      <c r="U42" s="9">
+        <v>1155.03202507674</v>
+      </c>
+      <c r="V42" s="9">
+        <v>58.75</v>
+      </c>
+      <c r="W42" s="9">
+        <v>49.02</v>
+      </c>
+      <c r="X42" s="9">
+        <v>1008.76251668408</v>
+      </c>
+      <c r="Y42" s="9">
+        <v>67.27</v>
+      </c>
+      <c r="Z42" s="9">
+        <v>56.13</v>
+      </c>
+      <c r="AA42" s="9">
+        <v>1072.09255704475</v>
+      </c>
+      <c r="AB42" s="9">
+        <v>63.3</v>
+      </c>
+      <c r="AC42" s="9">
+        <v>52.81</v>
+      </c>
+      <c r="AD42" s="9">
+        <v>1061.1419842954999</v>
+      </c>
+      <c r="AE42" s="9">
+        <v>63.95</v>
+      </c>
+      <c r="AF42" s="9">
+        <v>53.36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B43" s="9">
+        <v>5</v>
+      </c>
+      <c r="C43" s="9">
+        <v>1314.27845763651</v>
+      </c>
+      <c r="D43" s="9">
+        <v>51.63</v>
+      </c>
+      <c r="E43" s="9">
+        <v>43.08</v>
+      </c>
+      <c r="F43" s="9">
+        <v>1116.6365574690501</v>
+      </c>
+      <c r="G43" s="9">
+        <v>60.77</v>
+      </c>
+      <c r="H43" s="9">
+        <v>50.71</v>
+      </c>
+      <c r="I43" s="9">
+        <v>1278.90317151266</v>
+      </c>
+      <c r="J43" s="9">
+        <v>53.06</v>
+      </c>
+      <c r="K43" s="9">
+        <v>44.27</v>
+      </c>
+      <c r="L43" s="9">
+        <v>1120.8641463203901</v>
+      </c>
+      <c r="M43" s="9">
+        <v>60.54</v>
+      </c>
+      <c r="N43" s="9">
+        <v>50.52</v>
+      </c>
+      <c r="O43" s="9">
+        <v>1094.78307323119</v>
+      </c>
+      <c r="P43" s="9">
+        <v>61.98</v>
+      </c>
+      <c r="Q43" s="9">
+        <v>51.72</v>
+      </c>
+      <c r="R43" s="9">
+        <v>1139.02096642626</v>
+      </c>
+      <c r="S43" s="9">
+        <v>59.58</v>
+      </c>
+      <c r="T43" s="9">
+        <v>49.71</v>
+      </c>
+      <c r="U43" s="9">
+        <v>1005.22931282353</v>
+      </c>
+      <c r="V43" s="9">
+        <v>67.510000000000005</v>
+      </c>
+      <c r="W43" s="9">
+        <v>56.33</v>
+      </c>
+      <c r="X43" s="9">
+        <v>1046.4412865156601</v>
+      </c>
+      <c r="Y43" s="9">
+        <v>64.849999999999994</v>
+      </c>
+      <c r="Z43" s="9">
+        <v>54.11</v>
+      </c>
+      <c r="AA43" s="9">
+        <v>948.79590895962599</v>
+      </c>
+      <c r="AB43" s="9">
+        <v>71.52</v>
+      </c>
+      <c r="AC43" s="9">
+        <v>59.68</v>
+      </c>
+      <c r="AD43" s="9">
+        <v>989.35333038655801</v>
+      </c>
+      <c r="AE43" s="9">
+        <v>68.59</v>
+      </c>
+      <c r="AF43" s="9">
+        <v>57.23</v>
+      </c>
+    </row>
+    <row r="44" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B44" s="9">
+        <v>6</v>
+      </c>
+      <c r="C44" s="9">
+        <v>1061.17259381095</v>
+      </c>
+      <c r="D44" s="9">
+        <v>63.95</v>
+      </c>
+      <c r="E44" s="9">
+        <v>53.36</v>
+      </c>
+      <c r="F44" s="9">
+        <v>1169.6567343863701</v>
+      </c>
+      <c r="G44" s="9">
+        <v>58.02</v>
+      </c>
+      <c r="H44" s="9">
+        <v>48.41</v>
+      </c>
+      <c r="I44" s="9">
+        <v>1082.78438775723</v>
+      </c>
+      <c r="J44" s="9">
+        <v>62.67</v>
+      </c>
+      <c r="K44" s="9">
+        <v>52.29</v>
+      </c>
+      <c r="L44" s="9">
+        <v>1098.4454761885199</v>
+      </c>
+      <c r="M44" s="9">
+        <v>61.78</v>
+      </c>
+      <c r="N44" s="9">
+        <v>51.55</v>
+      </c>
+      <c r="O44" s="9">
+        <v>1073.0541344779699</v>
+      </c>
+      <c r="P44" s="9">
+        <v>63.24</v>
+      </c>
+      <c r="Q44" s="9">
+        <v>52.77</v>
+      </c>
+      <c r="R44" s="9">
+        <v>1093.01964200982</v>
+      </c>
+      <c r="S44" s="9">
+        <v>62.08</v>
+      </c>
+      <c r="T44" s="9">
+        <v>51.8</v>
+      </c>
+      <c r="U44" s="9">
+        <v>1124.25656225494</v>
+      </c>
+      <c r="V44" s="9">
+        <v>60.36</v>
+      </c>
+      <c r="W44" s="9">
+        <v>50.36</v>
+      </c>
+      <c r="X44" s="9">
+        <v>1121.7281413862299</v>
+      </c>
+      <c r="Y44" s="9">
+        <v>60.5</v>
+      </c>
+      <c r="Z44" s="9">
+        <v>50.48</v>
+      </c>
+      <c r="AA44" s="9">
+        <v>1021.61818309957</v>
+      </c>
+      <c r="AB44" s="9">
+        <v>66.42</v>
+      </c>
+      <c r="AC44" s="9">
+        <v>55.42</v>
+      </c>
+      <c r="AD44" s="9">
+        <v>1115.74173942383</v>
+      </c>
+      <c r="AE44" s="9">
+        <v>60.82</v>
+      </c>
+      <c r="AF44" s="9">
+        <v>50.75</v>
+      </c>
+    </row>
+    <row r="45" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B45" s="9">
+        <v>7</v>
+      </c>
+      <c r="C45" s="9">
+        <v>1378.1526961204199</v>
+      </c>
+      <c r="D45" s="9">
+        <v>49.24</v>
+      </c>
+      <c r="E45" s="9">
+        <v>41.08</v>
+      </c>
+      <c r="F45" s="9">
+        <v>1142.4474413399601</v>
+      </c>
+      <c r="G45" s="9">
+        <v>59.4</v>
+      </c>
+      <c r="H45" s="9">
+        <v>49.56</v>
+      </c>
+      <c r="I45" s="9">
+        <v>1103.25125956943</v>
+      </c>
+      <c r="J45" s="9">
+        <v>61.51</v>
+      </c>
+      <c r="K45" s="9">
+        <v>51.32</v>
+      </c>
+      <c r="L45" s="9">
+        <v>1140.5972098546999</v>
+      </c>
+      <c r="M45" s="9">
+        <v>59.49</v>
+      </c>
+      <c r="N45" s="9">
+        <v>49.64</v>
+      </c>
+      <c r="O45" s="9">
+        <v>1202.30421398818</v>
+      </c>
+      <c r="P45" s="9">
+        <v>56.44</v>
+      </c>
+      <c r="Q45" s="9">
+        <v>47.09</v>
+      </c>
+      <c r="R45" s="9">
+        <v>1069.26822826744</v>
+      </c>
+      <c r="S45" s="9">
+        <v>63.46</v>
+      </c>
+      <c r="T45" s="9">
+        <v>52.95</v>
+      </c>
+      <c r="U45" s="9">
+        <v>944.38892116760996</v>
+      </c>
+      <c r="V45" s="9">
+        <v>71.86</v>
+      </c>
+      <c r="W45" s="9">
+        <v>59.95</v>
+      </c>
+      <c r="X45" s="9">
+        <v>1067.93574369883</v>
+      </c>
+      <c r="Y45" s="9">
+        <v>63.54</v>
+      </c>
+      <c r="Z45" s="9">
+        <v>53.02</v>
+      </c>
+      <c r="AA45" s="9">
+        <v>927.495167528465</v>
+      </c>
+      <c r="AB45" s="9">
+        <v>73.16</v>
+      </c>
+      <c r="AC45" s="9">
+        <v>61.05</v>
+      </c>
+      <c r="AD45" s="9">
+        <v>1158.4402036018901</v>
+      </c>
+      <c r="AE45" s="9">
+        <v>58.58</v>
+      </c>
+      <c r="AF45" s="9">
+        <v>48.88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B46" s="9">
+        <v>8</v>
+      </c>
+      <c r="C46" s="9">
+        <v>1162.9915375497701</v>
+      </c>
+      <c r="D46" s="9">
+        <v>58.35</v>
+      </c>
+      <c r="E46" s="9">
+        <v>48.69</v>
+      </c>
+      <c r="F46" s="9">
+        <v>1133.1855062362799</v>
+      </c>
+      <c r="G46" s="9">
+        <v>59.88</v>
+      </c>
+      <c r="H46" s="9">
+        <v>49.97</v>
+      </c>
+      <c r="I46" s="9">
+        <v>1190.5944131236799</v>
+      </c>
+      <c r="J46" s="9">
+        <v>57</v>
+      </c>
+      <c r="K46" s="9">
+        <v>47.56</v>
+      </c>
+      <c r="L46" s="9">
+        <v>1105.5632991407499</v>
+      </c>
+      <c r="M46" s="9">
+        <v>61.38</v>
+      </c>
+      <c r="N46" s="9">
+        <v>51.21</v>
+      </c>
+      <c r="O46" s="9">
+        <v>1089.2383498637701</v>
+      </c>
+      <c r="P46" s="9">
+        <v>62.3</v>
+      </c>
+      <c r="Q46" s="9">
+        <v>51.98</v>
+      </c>
+      <c r="R46" s="9">
+        <v>991.17921671576198</v>
+      </c>
+      <c r="S46" s="9">
+        <v>68.459999999999994</v>
+      </c>
+      <c r="T46" s="9">
+        <v>57.12</v>
+      </c>
+      <c r="U46" s="9">
+        <v>1095.52364683323</v>
+      </c>
+      <c r="V46" s="9">
+        <v>61.94</v>
+      </c>
+      <c r="W46" s="9">
+        <v>51.68</v>
+      </c>
+      <c r="X46" s="9">
+        <v>1085.3118534584801</v>
+      </c>
+      <c r="Y46" s="9">
+        <v>62.53</v>
+      </c>
+      <c r="Z46" s="9">
+        <v>52.17</v>
+      </c>
+      <c r="AA46" s="9">
+        <v>1098.4029191700999</v>
+      </c>
+      <c r="AB46" s="9">
+        <v>61.78</v>
+      </c>
+      <c r="AC46" s="9">
+        <v>51.55</v>
+      </c>
+      <c r="AD46" s="9">
+        <v>966.776543773708</v>
+      </c>
+      <c r="AE46" s="9">
+        <v>70.19</v>
+      </c>
+      <c r="AF46" s="9">
+        <v>58.57</v>
+      </c>
+    </row>
+    <row r="47" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B47" s="9">
+        <v>9</v>
+      </c>
+      <c r="C47" s="9">
+        <v>1187.66907382965</v>
+      </c>
+      <c r="D47" s="9">
+        <v>57.14</v>
+      </c>
+      <c r="E47" s="9">
+        <v>47.67</v>
+      </c>
+      <c r="F47" s="9">
+        <v>1161.4154278174999</v>
+      </c>
+      <c r="G47" s="9">
+        <v>58.43</v>
+      </c>
+      <c r="H47" s="9">
+        <v>48.75</v>
+      </c>
+      <c r="I47" s="9">
+        <v>982.55511038371606</v>
+      </c>
+      <c r="J47" s="9">
+        <v>69.06</v>
+      </c>
+      <c r="K47" s="9">
+        <v>57.63</v>
+      </c>
+      <c r="L47" s="9">
+        <v>994.60756641748901</v>
+      </c>
+      <c r="M47" s="9">
+        <v>68.23</v>
+      </c>
+      <c r="N47" s="9">
+        <v>56.93</v>
+      </c>
+      <c r="O47" s="9">
+        <v>1060.88044565414</v>
+      </c>
+      <c r="P47" s="9">
+        <v>63.97</v>
+      </c>
+      <c r="Q47" s="9">
+        <v>53.37</v>
+      </c>
+      <c r="R47" s="9">
+        <v>1020.77967922789</v>
+      </c>
+      <c r="S47" s="9">
+        <v>66.48</v>
+      </c>
+      <c r="T47" s="9">
+        <v>55.47</v>
+      </c>
+      <c r="U47" s="9">
+        <v>1096.8528520300099</v>
+      </c>
+      <c r="V47" s="9">
+        <v>61.87</v>
+      </c>
+      <c r="W47" s="9">
+        <v>51.62</v>
+      </c>
+      <c r="X47" s="9">
+        <v>1057.40691262928</v>
+      </c>
+      <c r="Y47" s="9">
+        <v>64.180000000000007</v>
+      </c>
+      <c r="Z47" s="9">
+        <v>53.55</v>
+      </c>
+      <c r="AA47" s="9">
+        <v>1081.53333406518</v>
+      </c>
+      <c r="AB47" s="9">
+        <v>62.74</v>
+      </c>
+      <c r="AC47" s="9">
+        <v>52.35</v>
+      </c>
+      <c r="AD47" s="9">
+        <v>955.43443895339794</v>
+      </c>
+      <c r="AE47" s="9">
+        <v>71.03</v>
+      </c>
+      <c r="AF47" s="9">
+        <v>59.26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B48" s="9">
+        <v>10</v>
+      </c>
+      <c r="C48" s="9">
+        <v>1233.9821178253201</v>
+      </c>
+      <c r="D48" s="9">
+        <v>54.99</v>
+      </c>
+      <c r="E48" s="9">
+        <v>45.88</v>
+      </c>
+      <c r="F48" s="9">
+        <v>1098.86410536786</v>
+      </c>
+      <c r="G48" s="9">
+        <v>61.75</v>
+      </c>
+      <c r="H48" s="9">
+        <v>51.53</v>
+      </c>
+      <c r="I48" s="9">
+        <v>1176.1499951725</v>
+      </c>
+      <c r="J48" s="9">
+        <v>57.7</v>
+      </c>
+      <c r="K48" s="9">
+        <v>48.14</v>
+      </c>
+      <c r="L48" s="9">
+        <v>1223.85399661938</v>
+      </c>
+      <c r="M48" s="9">
+        <v>55.45</v>
+      </c>
+      <c r="N48" s="9">
+        <v>46.26</v>
+      </c>
+      <c r="O48" s="9">
+        <v>985.215832642088</v>
+      </c>
+      <c r="P48" s="9">
+        <v>68.88</v>
+      </c>
+      <c r="Q48" s="9">
+        <v>57.47</v>
+      </c>
+      <c r="R48" s="9">
+        <v>1128.87124126036</v>
+      </c>
+      <c r="S48" s="9">
+        <v>60.11</v>
+      </c>
+      <c r="T48" s="9">
+        <v>50.16</v>
+      </c>
+      <c r="U48" s="9">
+        <v>997.28289297593005</v>
+      </c>
+      <c r="V48" s="9">
+        <v>68.040000000000006</v>
+      </c>
+      <c r="W48" s="9">
+        <v>56.77</v>
+      </c>
+      <c r="X48" s="9">
+        <v>954.23456053827897</v>
+      </c>
+      <c r="Y48" s="9">
+        <v>71.11</v>
+      </c>
+      <c r="Z48" s="9">
+        <v>59.34</v>
+      </c>
+      <c r="AA48" s="9">
+        <v>986.68012267521794</v>
+      </c>
+      <c r="AB48" s="9">
+        <v>68.78</v>
+      </c>
+      <c r="AC48" s="9">
+        <v>57.39</v>
+      </c>
+      <c r="AD48" s="9">
+        <v>1137.3534486992601</v>
+      </c>
+      <c r="AE48" s="9">
+        <v>59.66</v>
+      </c>
+      <c r="AF48" s="9">
+        <v>49.78</v>
+      </c>
+    </row>
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B49" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C49" s="11">
+        <f>AVERAGE(C39:C48)</f>
+        <v>1242.873981711047</v>
+      </c>
+      <c r="D49" s="11">
+        <f>AVERAGE(D39:D48)</f>
+        <v>54.905999999999992</v>
+      </c>
+      <c r="E49" s="11">
+        <f>AVERAGE(E39:E48)</f>
+        <v>45.811999999999998</v>
+      </c>
+      <c r="F49" s="11">
+        <f>AVERAGE(F39:F48)</f>
+        <v>1119.9026008704218</v>
+      </c>
+      <c r="G49" s="11">
+        <f>AVERAGE(G39:G48)</f>
+        <v>60.633999999999993</v>
+      </c>
+      <c r="H49" s="11">
+        <f>AVERAGE(H39:H48)</f>
+        <v>50.592999999999996</v>
+      </c>
+      <c r="I49" s="11">
+        <f>AVERAGE(I39:I48)</f>
+        <v>1134.6284500149447</v>
+      </c>
+      <c r="J49" s="11">
+        <f>AVERAGE(J39:J48)</f>
+        <v>60.177000000000007</v>
+      </c>
+      <c r="K49" s="11">
+        <f>AVERAGE(K39:K48)</f>
+        <v>50.210999999999999</v>
+      </c>
+      <c r="L49" s="11">
+        <f>AVERAGE(L39:L48)</f>
+        <v>1110.3479891585143</v>
+      </c>
+      <c r="M49" s="11">
+        <f>AVERAGE(M39:M48)</f>
+        <v>61.365000000000009</v>
+      </c>
+      <c r="N49" s="11">
+        <f>AVERAGE(N39:N48)</f>
+        <v>51.201000000000001</v>
+      </c>
+      <c r="O49" s="11">
+        <f>AVERAGE(O39:O48)</f>
+        <v>1080.5882042812088</v>
+      </c>
+      <c r="P49" s="11">
+        <f>AVERAGE(P39:P48)</f>
+        <v>62.948</v>
+      </c>
+      <c r="Q49" s="11">
+        <f>AVERAGE(Q39:Q48)</f>
+        <v>52.521000000000001</v>
+      </c>
+      <c r="R49" s="11">
+        <f>AVERAGE(R39:R48)</f>
+        <v>1088.6948189595432</v>
+      </c>
+      <c r="S49" s="11">
+        <f>AVERAGE(S39:S48)</f>
+        <v>62.457999999999991</v>
+      </c>
+      <c r="T49" s="11">
+        <f>AVERAGE(T39:T48)</f>
+        <v>52.113999999999997</v>
+      </c>
+      <c r="U49" s="11">
+        <f>AVERAGE(U39:U48)</f>
+        <v>1060.4199315150652</v>
+      </c>
+      <c r="V49" s="11">
+        <f>AVERAGE(V39:V48)</f>
+        <v>64.381</v>
+      </c>
+      <c r="W49" s="11">
+        <f>AVERAGE(W39:W48)</f>
+        <v>53.716000000000008</v>
+      </c>
+      <c r="X49" s="11">
+        <f>AVERAGE(X39:X48)</f>
+        <v>1046.829812136245</v>
+      </c>
+      <c r="Y49" s="11">
+        <f>AVERAGE(Y39:Y48)</f>
+        <v>64.971000000000018</v>
+      </c>
+      <c r="Z49" s="11">
+        <f>AVERAGE(Z39:Z48)</f>
+        <v>54.212000000000003</v>
+      </c>
+      <c r="AA49" s="11">
+        <f>AVERAGE(AA39:AA48)</f>
+        <v>1032.9701783645758</v>
+      </c>
+      <c r="AB49" s="11">
+        <f>AVERAGE(AB39:AB48)</f>
+        <v>65.902999999999992</v>
+      </c>
+      <c r="AC49" s="11">
+        <f>AVERAGE(AC39:AC48)</f>
+        <v>54.989000000000011</v>
+      </c>
+      <c r="AD49" s="11">
+        <f>AVERAGE(AD39:AD48)</f>
+        <v>1052.9201186166404</v>
+      </c>
+      <c r="AE49" s="11">
+        <f>AVERAGE(AE39:AE48)</f>
+        <v>64.715999999999994</v>
+      </c>
+      <c r="AF49" s="11">
+        <f>AVERAGE(AF39:AF48)</f>
+        <v>53.998000000000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:38" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+      <c r="K51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="L51" s="2"/>
+      <c r="M51" s="2"/>
+      <c r="N51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="2"/>
+      <c r="Q51" s="2"/>
+      <c r="R51" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="S51" s="2"/>
+      <c r="T51" s="2"/>
+      <c r="U51" s="2"/>
+      <c r="V51" s="2"/>
+      <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
+      <c r="Y51" s="2"/>
+      <c r="Z51" s="2"/>
+      <c r="AA51" s="2"/>
+      <c r="AB51" s="2"/>
+      <c r="AC51" s="2"/>
+      <c r="AD51" s="2"/>
+      <c r="AE51" s="2"/>
+      <c r="AF51" s="2"/>
+      <c r="AG51" s="2"/>
+      <c r="AH51" s="2"/>
+      <c r="AI51" s="2"/>
+      <c r="AJ51" s="2"/>
+      <c r="AK51" s="2"/>
+      <c r="AL51" s="2"/>
+    </row>
+    <row r="52" spans="1:38" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="53" spans="1:38" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C53" s="6"/>
+      <c r="D53" s="8">
+        <v>10000</v>
+      </c>
+      <c r="E53" s="7"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="8">
+        <v>20000</v>
+      </c>
+      <c r="H53" s="7"/>
+      <c r="I53" s="6"/>
+      <c r="J53" s="8">
+        <v>30000</v>
+      </c>
+      <c r="K53" s="7"/>
+      <c r="L53" s="6"/>
+      <c r="M53" s="8">
+        <v>40000</v>
+      </c>
+      <c r="N53" s="7"/>
+      <c r="O53" s="6"/>
+      <c r="P53" s="8">
+        <v>50000</v>
+      </c>
+      <c r="Q53" s="7"/>
+      <c r="R53" s="6"/>
+      <c r="S53" s="8">
+        <v>60000</v>
+      </c>
+      <c r="T53" s="7"/>
+      <c r="U53" s="6"/>
+      <c r="V53" s="8">
+        <v>70000</v>
+      </c>
+      <c r="W53" s="7"/>
+      <c r="X53" s="6"/>
+      <c r="Y53" s="8">
+        <v>80000</v>
+      </c>
+      <c r="Z53" s="7"/>
+      <c r="AA53" s="6"/>
+      <c r="AB53" s="8">
+        <v>90000</v>
+      </c>
+      <c r="AC53" s="7"/>
+      <c r="AD53" s="6"/>
+      <c r="AE53" s="8">
+        <v>100000</v>
+      </c>
+      <c r="AF53" s="7"/>
+    </row>
+    <row r="54" spans="1:38" ht="18" x14ac:dyDescent="0.3">
+      <c r="B54" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="J54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="K54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="N54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="O54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="R54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="T54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="V54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="W54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="X54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AA54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AB54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC54" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD54" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="AF54" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B55" s="9">
+        <v>1</v>
+      </c>
+      <c r="C55" s="9">
+        <v>1137.0507910971801</v>
+      </c>
+      <c r="D55" s="9">
+        <v>59.68</v>
+      </c>
+      <c r="E55" s="9">
+        <v>49.8</v>
+      </c>
+      <c r="F55" s="9">
+        <v>931.353463338388</v>
+      </c>
+      <c r="G55" s="9">
+        <v>72.86</v>
+      </c>
+      <c r="H55" s="9">
+        <v>60.79</v>
+      </c>
+      <c r="I55" s="9">
+        <v>946.57471289186401</v>
+      </c>
+      <c r="J55" s="9">
+        <v>71.69</v>
+      </c>
+      <c r="K55" s="9">
+        <v>59.82</v>
+      </c>
+      <c r="L55" s="9">
+        <v>966.31006043420098</v>
+      </c>
+      <c r="M55" s="9">
+        <v>70.23</v>
+      </c>
+      <c r="N55" s="9">
+        <v>58.59</v>
+      </c>
+      <c r="O55" s="9">
+        <v>1011.66656090868</v>
+      </c>
+      <c r="P55" s="9">
+        <v>67.08</v>
+      </c>
+      <c r="Q55" s="9">
+        <v>55.97</v>
+      </c>
+      <c r="R55" s="9">
+        <v>956.54211141880205</v>
+      </c>
+      <c r="S55" s="9">
+        <v>70.94</v>
+      </c>
+      <c r="T55" s="9">
+        <v>59.19</v>
+      </c>
+      <c r="U55" s="9">
+        <v>987.38074476212398</v>
+      </c>
+      <c r="V55" s="9">
+        <v>68.73</v>
+      </c>
+      <c r="W55" s="9">
+        <v>57.34</v>
+      </c>
+      <c r="X55" s="9">
+        <v>800.61743831006197</v>
+      </c>
+      <c r="Y55" s="9">
+        <v>84.76</v>
+      </c>
+      <c r="Z55" s="9">
+        <v>70.72</v>
+      </c>
+      <c r="AA55" s="9">
+        <v>898.88519338065998</v>
+      </c>
+      <c r="AB55" s="9">
+        <v>75.489999999999995</v>
+      </c>
+      <c r="AC55" s="9">
+        <v>62.99</v>
+      </c>
+      <c r="AD55" s="9">
+        <v>862.97554134299696</v>
+      </c>
+      <c r="AE55" s="9">
+        <v>78.63</v>
+      </c>
+      <c r="AF55" s="9">
+        <v>65.61</v>
+      </c>
+    </row>
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B56" s="9">
+        <v>2</v>
+      </c>
+      <c r="C56" s="9">
+        <v>1123.9922020148799</v>
+      </c>
+      <c r="D56" s="9">
+        <v>60.37</v>
+      </c>
+      <c r="E56" s="9">
+        <v>50.37</v>
+      </c>
+      <c r="F56" s="9">
+        <v>908.15224973873501</v>
+      </c>
+      <c r="G56" s="9">
+        <v>74.72</v>
+      </c>
+      <c r="H56" s="9">
+        <v>62.35</v>
+      </c>
+      <c r="I56" s="9">
+        <v>1026.9108752039399</v>
+      </c>
+      <c r="J56" s="9">
+        <v>66.08</v>
+      </c>
+      <c r="K56" s="9">
+        <v>55.14</v>
+      </c>
+      <c r="L56" s="9">
+        <v>907.35523060324203</v>
+      </c>
+      <c r="M56" s="9">
+        <v>74.790000000000006</v>
+      </c>
+      <c r="N56" s="9">
+        <v>62.4</v>
+      </c>
+      <c r="O56" s="9">
+        <v>913.14488809418697</v>
+      </c>
+      <c r="P56" s="9">
+        <v>74.31</v>
+      </c>
+      <c r="Q56" s="9">
+        <v>62.01</v>
+      </c>
+      <c r="R56" s="9">
+        <v>884.73311221585004</v>
+      </c>
+      <c r="S56" s="9">
+        <v>76.7</v>
+      </c>
+      <c r="T56" s="9">
+        <v>64</v>
+      </c>
+      <c r="U56" s="9">
+        <v>933.83770275516997</v>
+      </c>
+      <c r="V56" s="9">
+        <v>72.67</v>
+      </c>
+      <c r="W56" s="9">
+        <v>60.63</v>
+      </c>
+      <c r="X56" s="9">
+        <v>826.14222448802298</v>
+      </c>
+      <c r="Y56" s="9">
+        <v>82.14</v>
+      </c>
+      <c r="Z56" s="9">
+        <v>68.540000000000006</v>
+      </c>
+      <c r="AA56" s="9">
+        <v>883.273969186371</v>
+      </c>
+      <c r="AB56" s="9">
+        <v>76.83</v>
+      </c>
+      <c r="AC56" s="9">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="AD56" s="9">
+        <v>871.81380963109996</v>
+      </c>
+      <c r="AE56" s="9">
+        <v>77.84</v>
+      </c>
+      <c r="AF56" s="9">
+        <v>64.95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B57" s="9">
+        <v>3</v>
+      </c>
+      <c r="C57" s="9">
+        <v>1037.56108282438</v>
+      </c>
+      <c r="D57" s="9">
+        <v>65.400000000000006</v>
+      </c>
+      <c r="E57" s="9">
+        <v>54.57</v>
+      </c>
+      <c r="F57" s="9">
+        <v>982.83409576576901</v>
+      </c>
+      <c r="G57" s="9">
+        <v>69.040000000000006</v>
+      </c>
+      <c r="H57" s="9">
+        <v>57.61</v>
+      </c>
+      <c r="I57" s="9">
+        <v>997.82912545494401</v>
+      </c>
+      <c r="J57" s="9">
+        <v>68.010000000000005</v>
+      </c>
+      <c r="K57" s="9">
+        <v>56.74</v>
+      </c>
+      <c r="L57" s="9">
+        <v>918.48734607090398</v>
+      </c>
+      <c r="M57" s="9">
+        <v>73.88</v>
+      </c>
+      <c r="N57" s="9">
+        <v>61.65</v>
+      </c>
+      <c r="O57" s="9">
+        <v>939.07468690771998</v>
+      </c>
+      <c r="P57" s="9">
+        <v>72.260000000000005</v>
+      </c>
+      <c r="Q57" s="9">
+        <v>60.29</v>
+      </c>
+      <c r="R57" s="9">
+        <v>807.287828426082</v>
+      </c>
+      <c r="S57" s="9">
+        <v>84.06</v>
+      </c>
+      <c r="T57" s="9">
+        <v>70.14</v>
+      </c>
+      <c r="U57" s="9">
+        <v>928.07526365237902</v>
+      </c>
+      <c r="V57" s="9">
+        <v>73.12</v>
+      </c>
+      <c r="W57" s="9">
+        <v>61.01</v>
+      </c>
+      <c r="X57" s="9">
+        <v>893.49475141053699</v>
+      </c>
+      <c r="Y57" s="9">
+        <v>75.95</v>
+      </c>
+      <c r="Z57" s="9">
+        <v>63.37</v>
+      </c>
+      <c r="AA57" s="9">
+        <v>895.30618252142904</v>
+      </c>
+      <c r="AB57" s="9">
+        <v>75.8</v>
+      </c>
+      <c r="AC57" s="9">
+        <v>63.24</v>
+      </c>
+      <c r="AD57" s="9">
+        <v>848.23484573946405</v>
+      </c>
+      <c r="AE57" s="9">
+        <v>80</v>
+      </c>
+      <c r="AF57" s="9">
+        <v>66.75</v>
+      </c>
+    </row>
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B58" s="9">
+        <v>4</v>
+      </c>
+      <c r="C58" s="9">
+        <v>1078.60473097879</v>
+      </c>
+      <c r="D58" s="9">
+        <v>62.91</v>
+      </c>
+      <c r="E58" s="9">
+        <v>52.49</v>
+      </c>
+      <c r="F58" s="9">
+        <v>969.126705250687</v>
+      </c>
+      <c r="G58" s="9">
+        <v>70.02</v>
+      </c>
+      <c r="H58" s="9">
+        <v>58.42</v>
+      </c>
+      <c r="I58" s="9">
+        <v>1053.00009153407</v>
+      </c>
+      <c r="J58" s="9">
+        <v>64.44</v>
+      </c>
+      <c r="K58" s="9">
+        <v>53.77</v>
+      </c>
+      <c r="L58" s="9">
+        <v>1030.52121645804</v>
+      </c>
+      <c r="M58" s="9">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="N58" s="9">
+        <v>54.94</v>
+      </c>
+      <c r="O58" s="9">
+        <v>904.61559992364005</v>
+      </c>
+      <c r="P58" s="9">
+        <v>75.02</v>
+      </c>
+      <c r="Q58" s="9">
+        <v>62.59</v>
+      </c>
+      <c r="R58" s="9">
+        <v>934.77527778550302</v>
+      </c>
+      <c r="S58" s="9">
+        <v>72.59</v>
+      </c>
+      <c r="T58" s="9">
+        <v>60.57</v>
+      </c>
+      <c r="U58" s="9">
+        <v>864.24725744899899</v>
+      </c>
+      <c r="V58" s="9">
+        <v>78.52</v>
+      </c>
+      <c r="W58" s="9">
+        <v>65.510000000000005</v>
+      </c>
+      <c r="X58" s="9">
+        <v>963.98859288240305</v>
+      </c>
+      <c r="Y58" s="9">
+        <v>70.39</v>
+      </c>
+      <c r="Z58" s="9">
+        <v>58.74</v>
+      </c>
+      <c r="AA58" s="9">
+        <v>907.73905387612194</v>
+      </c>
+      <c r="AB58" s="9">
+        <v>74.760000000000005</v>
+      </c>
+      <c r="AC58" s="9">
+        <v>62.38</v>
+      </c>
+      <c r="AD58" s="9">
+        <v>863.10414889139497</v>
+      </c>
+      <c r="AE58" s="9">
+        <v>78.62</v>
+      </c>
+      <c r="AF58" s="9">
+        <v>65.599999999999994</v>
+      </c>
+    </row>
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B59" s="9">
+        <v>5</v>
+      </c>
+      <c r="C59" s="9">
+        <v>1021.86921944303</v>
+      </c>
+      <c r="D59" s="9">
+        <v>66.41</v>
+      </c>
+      <c r="E59" s="9">
+        <v>55.41</v>
+      </c>
+      <c r="F59" s="9">
+        <v>994.90980799515398</v>
+      </c>
+      <c r="G59" s="9">
+        <v>68.209999999999994</v>
+      </c>
+      <c r="H59" s="9">
+        <v>56.91</v>
+      </c>
+      <c r="I59" s="9">
+        <v>949.59012845235395</v>
+      </c>
+      <c r="J59" s="9">
+        <v>71.459999999999994</v>
+      </c>
+      <c r="K59" s="9">
+        <v>59.63</v>
+      </c>
+      <c r="L59" s="9">
+        <v>903.93663525042405</v>
+      </c>
+      <c r="M59" s="9">
+        <v>75.069999999999993</v>
+      </c>
+      <c r="N59" s="9">
+        <v>62.64</v>
+      </c>
+      <c r="O59" s="9">
+        <v>828.29722250408099</v>
+      </c>
+      <c r="P59" s="9">
+        <v>81.93</v>
+      </c>
+      <c r="Q59" s="9">
+        <v>68.36</v>
+      </c>
+      <c r="R59" s="9">
+        <v>923.05324493001399</v>
+      </c>
+      <c r="S59" s="9">
+        <v>73.52</v>
+      </c>
+      <c r="T59" s="9">
+        <v>61.34</v>
+      </c>
+      <c r="U59" s="9">
+        <v>906.25536141890996</v>
+      </c>
+      <c r="V59" s="9">
+        <v>74.88</v>
+      </c>
+      <c r="W59" s="9">
+        <v>62.48</v>
+      </c>
+      <c r="X59" s="9">
+        <v>829.74031564327595</v>
+      </c>
+      <c r="Y59" s="9">
+        <v>81.78</v>
+      </c>
+      <c r="Z59" s="9">
+        <v>68.239999999999995</v>
+      </c>
+      <c r="AA59" s="9">
+        <v>929.05001173116102</v>
+      </c>
+      <c r="AB59" s="9">
+        <v>73.040000000000006</v>
+      </c>
+      <c r="AC59" s="9">
+        <v>60.94</v>
+      </c>
+      <c r="AD59" s="9">
+        <v>940.17723958234797</v>
+      </c>
+      <c r="AE59" s="9">
+        <v>72.180000000000007</v>
+      </c>
+      <c r="AF59" s="9">
+        <v>60.22</v>
+      </c>
+    </row>
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B60" s="9">
+        <v>6</v>
+      </c>
+      <c r="C60" s="9">
+        <v>1049.15020655393</v>
+      </c>
+      <c r="D60" s="9">
+        <v>64.680000000000007</v>
+      </c>
+      <c r="E60" s="9">
+        <v>53.97</v>
+      </c>
+      <c r="F60" s="9">
+        <v>1000.02574962695</v>
+      </c>
+      <c r="G60" s="9">
+        <v>67.86</v>
+      </c>
+      <c r="H60" s="9">
+        <v>56.62</v>
+      </c>
+      <c r="I60" s="9">
+        <v>1024.7474232531099</v>
+      </c>
+      <c r="J60" s="9">
+        <v>66.22</v>
+      </c>
+      <c r="K60" s="9">
+        <v>55.25</v>
+      </c>
+      <c r="L60" s="9">
+        <v>948.31682499353803</v>
+      </c>
+      <c r="M60" s="9">
+        <v>71.56</v>
+      </c>
+      <c r="N60" s="9">
+        <v>59.71</v>
+      </c>
+      <c r="O60" s="9">
+        <v>912.90336642262503</v>
+      </c>
+      <c r="P60" s="9">
+        <v>74.33</v>
+      </c>
+      <c r="Q60" s="9">
+        <v>62.02</v>
+      </c>
+      <c r="R60" s="9">
+        <v>937.99863784154002</v>
+      </c>
+      <c r="S60" s="9">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="T60" s="9">
+        <v>60.36</v>
+      </c>
+      <c r="U60" s="9">
+        <v>907.44214326193298</v>
+      </c>
+      <c r="V60" s="9">
+        <v>74.78</v>
+      </c>
+      <c r="W60" s="9">
+        <v>62.4</v>
+      </c>
+      <c r="X60" s="9">
+        <v>893.87813645239896</v>
+      </c>
+      <c r="Y60" s="9">
+        <v>75.92</v>
+      </c>
+      <c r="Z60" s="9">
+        <v>63.34</v>
+      </c>
+      <c r="AA60" s="9">
+        <v>866.74527596892801</v>
+      </c>
+      <c r="AB60" s="9">
+        <v>78.290000000000006</v>
+      </c>
+      <c r="AC60" s="9">
+        <v>65.33</v>
+      </c>
+      <c r="AD60" s="9">
+        <v>910.20819528344896</v>
+      </c>
+      <c r="AE60" s="9">
+        <v>74.55</v>
+      </c>
+      <c r="AF60" s="9">
+        <v>62.21</v>
+      </c>
+    </row>
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B61" s="9">
+        <v>7</v>
+      </c>
+      <c r="C61" s="9">
+        <v>1041.7866841370101</v>
+      </c>
+      <c r="D61" s="9">
+        <v>65.14</v>
+      </c>
+      <c r="E61" s="9">
+        <v>54.35</v>
+      </c>
+      <c r="F61" s="9">
+        <v>955.42345093394397</v>
+      </c>
+      <c r="G61" s="9">
+        <v>71.03</v>
+      </c>
+      <c r="H61" s="9">
+        <v>59.26</v>
+      </c>
+      <c r="I61" s="9">
+        <v>1015.22119191487</v>
+      </c>
+      <c r="J61" s="9">
+        <v>66.84</v>
+      </c>
+      <c r="K61" s="9">
+        <v>55.77</v>
+      </c>
+      <c r="L61" s="9">
+        <v>984.44870000183198</v>
+      </c>
+      <c r="M61" s="9">
+        <v>68.930000000000007</v>
+      </c>
+      <c r="N61" s="9">
+        <v>57.52</v>
+      </c>
+      <c r="O61" s="9">
+        <v>935.11634539879299</v>
+      </c>
+      <c r="P61" s="9">
+        <v>72.569999999999993</v>
+      </c>
+      <c r="Q61" s="9">
+        <v>60.55</v>
+      </c>
+      <c r="R61" s="9">
+        <v>893.26538030880999</v>
+      </c>
+      <c r="S61" s="9">
+        <v>75.97</v>
+      </c>
+      <c r="T61" s="9">
+        <v>63.39</v>
+      </c>
+      <c r="U61" s="9">
+        <v>926.98937117707999</v>
+      </c>
+      <c r="V61" s="9">
+        <v>73.2</v>
+      </c>
+      <c r="W61" s="9">
+        <v>61.08</v>
+      </c>
+      <c r="X61" s="9">
+        <v>919.99580575804896</v>
+      </c>
+      <c r="Y61" s="9">
+        <v>73.760000000000005</v>
+      </c>
+      <c r="Z61" s="9">
+        <v>61.54</v>
+      </c>
+      <c r="AA61" s="9">
+        <v>907.14374688883004</v>
+      </c>
+      <c r="AB61" s="9">
+        <v>74.81</v>
+      </c>
+      <c r="AC61" s="9">
+        <v>62.42</v>
+      </c>
+      <c r="AD61" s="9">
+        <v>868.31861332882397</v>
+      </c>
+      <c r="AE61" s="9">
+        <v>78.150000000000006</v>
+      </c>
+      <c r="AF61" s="9">
+        <v>65.209999999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B62" s="9">
+        <v>8</v>
+      </c>
+      <c r="C62" s="9">
+        <v>1110.4037997410901</v>
+      </c>
+      <c r="D62" s="9">
+        <v>61.11</v>
+      </c>
+      <c r="E62" s="9">
+        <v>50.99</v>
+      </c>
+      <c r="F62" s="9">
+        <v>1049.21116801419</v>
+      </c>
+      <c r="G62" s="9">
+        <v>64.680000000000007</v>
+      </c>
+      <c r="H62" s="9">
+        <v>53.97</v>
+      </c>
+      <c r="I62" s="9">
+        <v>957.457031094792</v>
+      </c>
+      <c r="J62" s="9">
+        <v>70.87</v>
+      </c>
+      <c r="K62" s="9">
+        <v>59.14</v>
+      </c>
+      <c r="L62" s="9">
+        <v>932.76325038845596</v>
+      </c>
+      <c r="M62" s="9">
+        <v>72.75</v>
+      </c>
+      <c r="N62" s="9">
+        <v>60.7</v>
+      </c>
+      <c r="O62" s="9">
+        <v>986.21507206057402</v>
+      </c>
+      <c r="P62" s="9">
+        <v>68.81</v>
+      </c>
+      <c r="Q62" s="9">
+        <v>57.41</v>
+      </c>
+      <c r="R62" s="9">
+        <v>934.74214119569297</v>
+      </c>
+      <c r="S62" s="9">
+        <v>72.599999999999994</v>
+      </c>
+      <c r="T62" s="9">
+        <v>60.57</v>
+      </c>
+      <c r="U62" s="9">
+        <v>931.10591243130295</v>
+      </c>
+      <c r="V62" s="9">
+        <v>72.88</v>
+      </c>
+      <c r="W62" s="9">
+        <v>60.81</v>
+      </c>
+      <c r="X62" s="9">
+        <v>895.87353939571801</v>
+      </c>
+      <c r="Y62" s="9">
+        <v>75.75</v>
+      </c>
+      <c r="Z62" s="9">
+        <v>63.2</v>
+      </c>
+      <c r="AA62" s="9">
+        <v>928.768838439722</v>
+      </c>
+      <c r="AB62" s="9">
+        <v>73.06</v>
+      </c>
+      <c r="AC62" s="9">
+        <v>60.96</v>
+      </c>
+      <c r="AD62" s="9">
+        <v>783.98424804133595</v>
+      </c>
+      <c r="AE62" s="9">
+        <v>86.56</v>
+      </c>
+      <c r="AF62" s="9">
+        <v>72.22</v>
+      </c>
+    </row>
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B63" s="9">
+        <v>9</v>
+      </c>
+      <c r="C63" s="9">
+        <v>1049.27188289574</v>
+      </c>
+      <c r="D63" s="9">
+        <v>64.67</v>
+      </c>
+      <c r="E63" s="9">
+        <v>53.96</v>
+      </c>
+      <c r="F63" s="9">
+        <v>969.71677028773001</v>
+      </c>
+      <c r="G63" s="9">
+        <v>69.98</v>
+      </c>
+      <c r="H63" s="9">
+        <v>58.39</v>
+      </c>
+      <c r="I63" s="9">
+        <v>926.70252601882805</v>
+      </c>
+      <c r="J63" s="9">
+        <v>73.23</v>
+      </c>
+      <c r="K63" s="9">
+        <v>61.1</v>
+      </c>
+      <c r="L63" s="9">
+        <v>966.45196649857598</v>
+      </c>
+      <c r="M63" s="9">
+        <v>70.22</v>
+      </c>
+      <c r="N63" s="9">
+        <v>58.59</v>
+      </c>
+      <c r="O63" s="9">
+        <v>946.59634497248396</v>
+      </c>
+      <c r="P63" s="9">
+        <v>71.69</v>
+      </c>
+      <c r="Q63" s="9">
+        <v>59.82</v>
+      </c>
+      <c r="R63" s="9">
+        <v>952.41994248568096</v>
+      </c>
+      <c r="S63" s="9">
+        <v>71.25</v>
+      </c>
+      <c r="T63" s="9">
+        <v>59.45</v>
+      </c>
+      <c r="U63" s="9">
+        <v>988.31295109162397</v>
+      </c>
+      <c r="V63" s="9">
+        <v>68.66</v>
+      </c>
+      <c r="W63" s="9">
+        <v>57.29</v>
+      </c>
+      <c r="X63" s="9">
+        <v>881.156330245802</v>
+      </c>
+      <c r="Y63" s="9">
+        <v>77.010000000000005</v>
+      </c>
+      <c r="Z63" s="9">
+        <v>64.260000000000005</v>
+      </c>
+      <c r="AA63" s="9">
+        <v>916.53994065083396</v>
+      </c>
+      <c r="AB63" s="9">
+        <v>74.040000000000006</v>
+      </c>
+      <c r="AC63" s="9">
+        <v>61.78</v>
+      </c>
+      <c r="AD63" s="9">
+        <v>826.82685341916601</v>
+      </c>
+      <c r="AE63" s="9">
+        <v>82.07</v>
+      </c>
+      <c r="AF63" s="9">
+        <v>68.48</v>
+      </c>
+    </row>
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+      <c r="B64" s="9">
+        <v>10</v>
+      </c>
+      <c r="C64" s="9">
+        <v>899.89986392431297</v>
+      </c>
+      <c r="D64" s="9">
+        <v>75.41</v>
+      </c>
+      <c r="E64" s="9">
+        <v>62.92</v>
+      </c>
+      <c r="F64" s="9">
+        <v>1036.3485738305101</v>
+      </c>
+      <c r="G64" s="9">
+        <v>65.48</v>
+      </c>
+      <c r="H64" s="9">
+        <v>54.63</v>
+      </c>
+      <c r="I64" s="9">
+        <v>956.96660589249905</v>
+      </c>
+      <c r="J64" s="9">
+        <v>70.91</v>
+      </c>
+      <c r="K64" s="9">
+        <v>59.17</v>
+      </c>
+      <c r="L64" s="9">
+        <v>1030.8071025541699</v>
+      </c>
+      <c r="M64" s="9">
+        <v>65.83</v>
+      </c>
+      <c r="N64" s="9">
+        <v>54.93</v>
+      </c>
+      <c r="O64" s="9">
+        <v>1000.43245303399</v>
+      </c>
+      <c r="P64" s="9">
+        <v>67.83</v>
+      </c>
+      <c r="Q64" s="9">
+        <v>56.6</v>
+      </c>
+      <c r="R64" s="9">
+        <v>1032.8050470834301</v>
+      </c>
+      <c r="S64" s="9">
+        <v>65.7</v>
+      </c>
+      <c r="T64" s="9">
+        <v>54.82</v>
+      </c>
+      <c r="U64" s="9">
+        <v>851.72873660308005</v>
+      </c>
+      <c r="V64" s="9">
+        <v>79.67</v>
+      </c>
+      <c r="W64" s="9">
+        <v>66.48</v>
+      </c>
+      <c r="X64" s="9">
+        <v>932.62923950590198</v>
+      </c>
+      <c r="Y64" s="9">
+        <v>72.760000000000005</v>
+      </c>
+      <c r="Z64" s="9">
+        <v>60.71</v>
+      </c>
+      <c r="AA64" s="9">
+        <v>921.02473099447502</v>
+      </c>
+      <c r="AB64" s="9">
+        <v>73.680000000000007</v>
+      </c>
+      <c r="AC64" s="9">
+        <v>61.48</v>
+      </c>
+      <c r="AD64" s="9">
+        <v>879.85851953491101</v>
+      </c>
+      <c r="AE64" s="9">
+        <v>77.13</v>
+      </c>
+      <c r="AF64" s="9">
+        <v>64.349999999999994</v>
+      </c>
+    </row>
+    <row r="65" spans="2:32" x14ac:dyDescent="0.3">
+      <c r="B65" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C65" s="11">
+        <f>AVERAGE(C55:C64)</f>
+        <v>1054.9590463610343</v>
+      </c>
+      <c r="D65" s="11">
+        <f>AVERAGE(D55:D64)</f>
+        <v>64.578000000000003</v>
+      </c>
+      <c r="E65" s="11">
+        <f>AVERAGE(E55:E64)</f>
+        <v>53.883000000000003</v>
+      </c>
+      <c r="F65" s="11">
+        <f>AVERAGE(F55:F64)</f>
+        <v>979.71020347820559</v>
+      </c>
+      <c r="G65" s="11">
+        <f>AVERAGE(G55:G64)</f>
+        <v>69.388000000000005</v>
+      </c>
+      <c r="H65" s="11">
+        <f>AVERAGE(H55:H64)</f>
+        <v>57.895000000000003</v>
+      </c>
+      <c r="I65" s="11">
+        <f>AVERAGE(I55:I64)</f>
+        <v>985.4999711711273</v>
+      </c>
+      <c r="J65" s="11">
+        <f>AVERAGE(J55:J64)</f>
+        <v>68.974999999999994</v>
+      </c>
+      <c r="K65" s="11">
+        <f>AVERAGE(K55:K64)</f>
+        <v>57.552999999999997</v>
+      </c>
+      <c r="L65" s="11">
+        <f>AVERAGE(L55:L64)</f>
+        <v>958.93983332533821</v>
+      </c>
+      <c r="M65" s="11">
+        <f>AVERAGE(M55:M64)</f>
+        <v>70.911000000000001</v>
+      </c>
+      <c r="N65" s="11">
+        <f>AVERAGE(N55:N64)</f>
+        <v>59.166999999999994</v>
+      </c>
+      <c r="O65" s="11">
+        <f>AVERAGE(O55:O64)</f>
+        <v>937.80625402267719</v>
+      </c>
+      <c r="P65" s="11">
+        <f>AVERAGE(P55:P64)</f>
+        <v>72.582999999999998</v>
+      </c>
+      <c r="Q65" s="11">
+        <f>AVERAGE(Q55:Q64)</f>
+        <v>60.561999999999998</v>
+      </c>
+      <c r="R65" s="11">
+        <f>AVERAGE(R55:R64)</f>
+        <v>925.76227236914042</v>
+      </c>
+      <c r="S65" s="11">
+        <f>AVERAGE(S55:S64)</f>
+        <v>73.568000000000012</v>
+      </c>
+      <c r="T65" s="11">
+        <f>AVERAGE(T55:T64)</f>
+        <v>61.383000000000003</v>
+      </c>
+      <c r="U65" s="11">
+        <f>AVERAGE(U55:U64)</f>
+        <v>922.53754446026016</v>
+      </c>
+      <c r="V65" s="11">
+        <f>AVERAGE(V55:V64)</f>
+        <v>73.710999999999999</v>
+      </c>
+      <c r="W65" s="11">
+        <f>AVERAGE(W55:W64)</f>
+        <v>61.503</v>
+      </c>
+      <c r="X65" s="11">
+        <f>AVERAGE(X55:X64)</f>
+        <v>883.7516374092171</v>
+      </c>
+      <c r="Y65" s="11">
+        <f>AVERAGE(Y55:Y64)</f>
+        <v>77.022000000000006</v>
+      </c>
+      <c r="Z65" s="11">
+        <f>AVERAGE(Z55:Z64)</f>
+        <v>64.266000000000005</v>
+      </c>
+      <c r="AA65" s="11">
+        <f>AVERAGE(AA55:AA64)</f>
+        <v>905.44769436385309</v>
+      </c>
+      <c r="AB65" s="11">
+        <f>AVERAGE(AB55:AB64)</f>
+        <v>74.97999999999999</v>
+      </c>
+      <c r="AC65" s="11">
+        <f>AVERAGE(AC55:AC64)</f>
+        <v>62.561999999999998</v>
+      </c>
+      <c r="AD65" s="11">
+        <f>AVERAGE(AD55:AD64)</f>
+        <v>865.55020147949892</v>
+      </c>
+      <c r="AE65" s="11">
+        <f>AVERAGE(AE55:AE64)</f>
+        <v>78.572999999999993</v>
+      </c>
+      <c r="AF65" s="11">
+        <f>AVERAGE(AF55:AF64)</f>
+        <v>65.56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>